--- a/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB113FA-8819-499D-BB8A-8B026442DF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E677D9-B9EC-4051-B75E-914C22C6C004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
@@ -579,230 +579,230 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4831,16 +4831,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>680764</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8759</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>181905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4867,16 +4867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>694284</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>5748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>26001</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>86217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4903,16 +4903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>24359</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9250</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>7171</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4939,16 +4939,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6513</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>91910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5302,11 +5302,11 @@
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -7385,7 +7385,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7478,16 +7478,16 @@
       <c r="O4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="111" t="s">
+      <c r="Q4" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="112" t="s">
+      <c r="R4" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="111" t="s">
         <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
@@ -7498,61 +7498,61 @@
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="51">
         <v>0</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="58">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="60">
         <v>2.8856999999999999</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="60">
         <v>-178.04</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="60">
         <v>-0.22445000000000001</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="60">
         <v>-5.9924999999999997</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="60">
         <v>13.238</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="61">
         <v>0.88083</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="66">
         <v>0.49153999999999998</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="67">
         <v>-112.58</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="67">
         <v>1.231E-2</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="67">
         <v>-5.1444999999999999</v>
       </c>
-      <c r="N5" s="68">
+      <c r="N5" s="67">
         <v>24.702999999999999</v>
       </c>
-      <c r="O5" s="69">
+      <c r="O5" s="68">
         <v>-0.56857999999999997</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="43">
         <f>(D5+E5*(B5/C5) + F5*10)</f>
         <v>0.64119999999999999</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="44">
         <f>G5*10 +( H5*(B5/C5) )+I5</f>
         <v>-59.044169999999994</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="44">
         <f>(J5+K5*(B5/C5)+L5*10)</f>
         <v>0.61463999999999996</v>
       </c>
-      <c r="S5" s="46">
+      <c r="S5" s="45">
         <f>M5*10 +N5*(B5/C5)+O5</f>
         <v>-52.013579999999997</v>
       </c>
@@ -7563,49 +7563,49 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="53">
+      <c r="B6" s="52">
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="62">
         <v>7.3114999999999997</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="62">
         <v>-668.91</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="62">
         <v>12.711</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="62">
         <v>-11.324999999999999</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="62">
         <v>-58.067</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="63">
         <v>-5.8662000000000001</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="69">
         <v>2.2031000000000001</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="70">
         <v>-171.45</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="70">
         <v>3.2685</v>
       </c>
-      <c r="M6" s="71">
+      <c r="M6" s="70">
         <v>-10.737</v>
       </c>
-      <c r="N6" s="71">
+      <c r="N6" s="70">
         <v>4.2229000000000001</v>
       </c>
-      <c r="O6" s="72">
+      <c r="O6" s="71">
         <v>0.28238999999999997</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <f t="shared" ref="P6:P23" si="0">(D6+E6*(B6/C6) + F6*10)</f>
         <v>0.63949999999987028</v>
       </c>
@@ -7617,7 +7617,7 @@
         <f t="shared" ref="R6:R23" si="2">(J6+K6*(B6/C6)+L6*10)</f>
         <v>0.59809999999997387</v>
       </c>
-      <c r="S6" s="48">
+      <c r="S6" s="47">
         <f t="shared" ref="S6:S23" si="3">M6*10 +N6*(B6/C6)+O6</f>
         <v>-106.24302999999999</v>
       </c>
@@ -7628,49 +7628,49 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="53">
+      <c r="B7" s="52">
         <v>6.6666666666666721E-2</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="62">
         <v>5.3417000000000003</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="62">
         <v>-73.347999999999999</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="62">
         <v>2.4586000000000001</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="62">
         <v>-19.417000000000002</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="62">
         <v>-9.2965</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="63">
         <v>3.0834999999999999</v>
       </c>
-      <c r="J7" s="70">
+      <c r="J7" s="69">
         <v>3.1587999999999998</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="70">
         <v>-197.21</v>
       </c>
-      <c r="L7" s="71">
+      <c r="L7" s="70">
         <v>7.6280000000000001</v>
       </c>
-      <c r="M7" s="71">
+      <c r="M7" s="70">
         <v>-17.027000000000001</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="70">
         <v>-2.9765000000000001</v>
       </c>
-      <c r="O7" s="72">
+      <c r="O7" s="71">
         <v>5.8014000000000001</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <f t="shared" si="0"/>
         <v>0.58849999999997493</v>
       </c>
@@ -7682,7 +7682,7 @@
         <f t="shared" si="2"/>
         <v>0.55479999999992913</v>
       </c>
-      <c r="S7" s="48">
+      <c r="S7" s="47">
         <f t="shared" si="3"/>
         <v>-165.6592</v>
       </c>
@@ -7693,61 +7693,61 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="54">
+      <c r="B8" s="53">
         <v>9.9999999999999936E-2</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="57">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="62">
         <v>5.2830000000000004</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="62">
         <v>-185.62</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="62">
         <v>10.663</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="62">
         <v>-23.437999999999999</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="62">
         <v>3.9352999999999998</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="63">
         <v>0.64295000000000002</v>
       </c>
-      <c r="J8" s="70">
+      <c r="J8" s="69">
         <v>2.9357000000000002</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="70">
         <v>-139.31</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="70">
         <v>8.1082000000000001</v>
       </c>
-      <c r="M8" s="71">
+      <c r="M8" s="70">
         <v>-16.724</v>
       </c>
-      <c r="N8" s="71">
+      <c r="N8" s="70">
         <v>7.6962000000000002</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="71">
         <v>0.92266000000000004</v>
       </c>
-      <c r="P8" s="49">
+      <c r="P8" s="48">
         <f t="shared" si="0"/>
         <v>0.54100000000005366</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="49">
         <f t="shared" si="1"/>
         <v>-231.37586999999999</v>
       </c>
-      <c r="R8" s="50">
+      <c r="R8" s="49">
         <f t="shared" si="2"/>
         <v>0.43170000000003483</v>
       </c>
-      <c r="S8" s="51">
+      <c r="S8" s="50">
         <f t="shared" si="3"/>
         <v>-161.69962000000001</v>
       </c>
@@ -7760,61 +7760,61 @@
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="51">
         <v>0</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="58">
         <v>0.15909090909090909</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="60">
         <v>0.65</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="60">
         <v>20.486000000000001</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="60">
         <v>4.8640999999999997E-3</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="60">
         <v>-6.7224000000000004</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="60">
         <v>4.8491</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="61">
         <v>9.1216000000000008</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="66">
         <v>2.1084999999999998</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="67">
         <v>-304.25</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="67">
         <v>-0.14491999999999999</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="67">
         <v>-4.5014000000000003</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="67">
         <v>19.812999999999999</v>
       </c>
-      <c r="O9" s="69">
+      <c r="O9" s="68">
         <v>-3.6313</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="44">
         <f t="shared" si="0"/>
         <v>0.69864100000000007</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="44">
         <f t="shared" si="1"/>
         <v>-58.102400000000003</v>
       </c>
-      <c r="R9" s="45">
+      <c r="R9" s="44">
         <f t="shared" si="2"/>
         <v>0.6593</v>
       </c>
-      <c r="S9" s="46">
+      <c r="S9" s="45">
         <f t="shared" si="3"/>
         <v>-48.645300000000006</v>
       </c>
@@ -7825,46 +7825,46 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="53">
+      <c r="B10" s="52">
         <v>6.8181818181818177E-2</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <v>0.15909090909090909</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="62">
         <v>3.6627000000000001</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <v>-473.81</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="62">
         <v>20.007999999999999</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="62">
         <v>-26.257999999999999</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="62">
         <v>-2.8525999999999998</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="63">
         <v>-5.5293999999999999</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="69">
         <v>5.1580000000000004</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="70">
         <v>-471.82</v>
       </c>
-      <c r="L10" s="71">
+      <c r="L10" s="70">
         <v>19.766999999999999</v>
       </c>
-      <c r="M10" s="71">
+      <c r="M10" s="70">
         <v>-19.596</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="70">
         <v>-14.929</v>
       </c>
-      <c r="O10" s="72">
+      <c r="O10" s="71">
         <v>-20.184999999999999</v>
       </c>
       <c r="P10" s="3">
@@ -7879,7 +7879,7 @@
         <f t="shared" si="2"/>
         <v>0.61942857142855701</v>
       </c>
-      <c r="S10" s="48">
+      <c r="S10" s="47">
         <f t="shared" si="3"/>
         <v>-222.54314285714287</v>
       </c>
@@ -7890,61 +7890,61 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
-      <c r="B11" s="54">
+      <c r="B11" s="53">
         <v>0.14090909090909098</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="57">
         <v>0.15909090909090909</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="64">
         <v>4.3758999999999997</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="64">
         <v>-161.57</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="64">
         <v>13.932</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="64">
         <v>-34.631999999999998</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="64">
         <v>8.8775999999999993</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="65">
         <v>1.6105</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="72">
         <v>-15.894</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="73">
         <v>-72.111999999999995</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="73">
         <v>8.0190000000000001</v>
       </c>
-      <c r="M11" s="74">
+      <c r="M11" s="73">
         <v>-20.731999999999999</v>
       </c>
-      <c r="N11" s="74">
+      <c r="N11" s="73">
         <v>-47.225000000000001</v>
       </c>
-      <c r="O11" s="75">
+      <c r="O11" s="74">
         <v>25.515000000000001</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="49">
         <f t="shared" si="0"/>
         <v>0.59104285714278149</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="Q11" s="49">
         <f t="shared" si="1"/>
         <v>-336.84648285714286</v>
       </c>
-      <c r="R11" s="50">
+      <c r="R11" s="49">
         <f t="shared" si="2"/>
         <v>0.42537142857139543</v>
       </c>
-      <c r="S11" s="51">
+      <c r="S11" s="50">
         <f t="shared" si="3"/>
         <v>-223.63285714285718</v>
       </c>
@@ -7957,46 +7957,46 @@
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="52">
         <v>0</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="54">
         <v>0.15175097276264587</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="62">
         <v>-0.43946000000000002</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="62">
         <v>78.742999999999995</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="62">
         <v>0.11287</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="62">
         <v>-5.5712000000000002</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="62">
         <v>13.643000000000001</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="63">
         <v>9.0867000000000004</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="69">
         <v>1.6597</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="70">
         <v>-101.4</v>
       </c>
-      <c r="L12" s="71">
+      <c r="L12" s="70">
         <v>-0.10287</v>
       </c>
-      <c r="M12" s="71">
+      <c r="M12" s="70">
         <v>-2.6374</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="70">
         <v>6.7766999999999999</v>
       </c>
-      <c r="O12" s="72">
+      <c r="O12" s="71">
         <v>-0.86192000000000002</v>
       </c>
       <c r="P12" s="3">
@@ -8011,7 +8011,7 @@
         <f t="shared" si="2"/>
         <v>0.63100000000000001</v>
       </c>
-      <c r="S12" s="48">
+      <c r="S12" s="47">
         <f t="shared" si="3"/>
         <v>-27.23592</v>
       </c>
@@ -8022,46 +8022,46 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="53">
+      <c r="B13" s="52">
         <v>2.7237354085603085E-2</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <v>0.15175097276264587</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="62">
         <v>4.657</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="62">
         <v>-207.33</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="62">
         <v>3.3283999999999998</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="62">
         <v>-19.568999999999999</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="62">
         <v>6.8341000000000003</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="63">
         <v>-1.8080000000000001</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="69">
         <v>2.1597</v>
       </c>
-      <c r="K13" s="71">
+      <c r="K13" s="70">
         <v>-619.97</v>
       </c>
-      <c r="L13" s="71">
+      <c r="L13" s="70">
         <v>10.978</v>
       </c>
-      <c r="M13" s="71">
+      <c r="M13" s="70">
         <v>-15.856</v>
       </c>
-      <c r="N13" s="71">
+      <c r="N13" s="70">
         <v>68.585999999999999</v>
       </c>
-      <c r="O13" s="72">
+      <c r="O13" s="71">
         <v>-8.8175000000000008</v>
       </c>
       <c r="P13" s="3">
@@ -8076,7 +8076,7 @@
         <f t="shared" si="2"/>
         <v>0.66303333333341641</v>
       </c>
-      <c r="S13" s="48">
+      <c r="S13" s="47">
         <f t="shared" si="3"/>
         <v>-155.06719230769232</v>
       </c>
@@ -8087,46 +8087,46 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="53">
+      <c r="B14" s="52">
         <v>5.8365758754863814E-2</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <v>0.15175097276264587</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="62">
         <v>7.1231999999999998</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="62">
         <v>-145.84</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="62">
         <v>4.9660000000000002</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="62">
         <v>-24.398</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="62">
         <v>-11.259</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="63">
         <v>3.9706999999999999</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="69">
         <v>4.1239999999999997</v>
       </c>
-      <c r="K14" s="71">
+      <c r="K14" s="70">
         <v>168.96</v>
       </c>
-      <c r="L14" s="71">
+      <c r="L14" s="70">
         <v>-6.8498999999999999</v>
       </c>
-      <c r="M14" s="71">
+      <c r="M14" s="70">
         <v>-21.398</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="70">
         <v>21.05</v>
       </c>
-      <c r="O14" s="72">
+      <c r="O14" s="71">
         <v>15.353</v>
       </c>
       <c r="P14" s="3">
@@ -8141,7 +8141,7 @@
         <f t="shared" si="2"/>
         <v>0.60961538461540954</v>
       </c>
-      <c r="S14" s="48">
+      <c r="S14" s="47">
         <f t="shared" si="3"/>
         <v>-190.53084615384614</v>
       </c>
@@ -8152,46 +8152,46 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="53">
+      <c r="B15" s="52">
         <v>0.12062256809338513</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <v>0.15175097276264587</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="64">
         <v>-8.8211999999999993</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="64">
         <v>-34.265000000000001</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="64">
         <v>3.6636000000000002</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="64">
         <v>-38.011000000000003</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="64">
         <v>96.168999999999997</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="65">
         <v>5.1401000000000003</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="72">
         <v>-5.9847000000000001</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="73">
         <v>-10.656000000000001</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="73">
         <v>1.4899</v>
       </c>
-      <c r="M15" s="74">
+      <c r="M15" s="73">
         <v>-27.561</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="73">
         <v>78.322000000000003</v>
       </c>
-      <c r="O15" s="75">
+      <c r="O15" s="74">
         <v>3.5152999999999999</v>
       </c>
       <c r="P15" s="3">
@@ -8206,7 +8206,7 @@
         <f t="shared" si="2"/>
         <v>0.44414615384615885</v>
       </c>
-      <c r="S15" s="48">
+      <c r="S15" s="47">
         <f t="shared" si="3"/>
         <v>-209.83875128205133</v>
       </c>
@@ -8219,61 +8219,61 @@
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="51">
         <v>0</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="58">
         <v>0.16370106761565842</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="62">
         <v>1.1889000000000001</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="62">
         <v>-116.77</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="62">
         <v>-4.7905000000000003E-2</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="62">
         <v>-2.3704000000000001</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="62">
         <v>0.84694000000000003</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="63">
         <v>0.56333</v>
       </c>
-      <c r="J16" s="70">
+      <c r="J16" s="69">
         <v>0.97106000000000003</v>
       </c>
-      <c r="K16" s="71">
+      <c r="K16" s="70">
         <v>138.69999999999999</v>
       </c>
-      <c r="L16" s="71">
+      <c r="L16" s="70">
         <v>-3.0831000000000001E-2</v>
       </c>
-      <c r="M16" s="71">
+      <c r="M16" s="70">
         <v>-1.9084000000000001</v>
       </c>
-      <c r="N16" s="71">
+      <c r="N16" s="70">
         <v>-11.401999999999999</v>
       </c>
-      <c r="O16" s="72">
+      <c r="O16" s="71">
         <v>8.4321000000000002</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="43">
         <f t="shared" si="0"/>
         <v>0.70985000000000009</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="44">
         <f t="shared" si="1"/>
         <v>-23.14067</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="44">
         <f t="shared" si="2"/>
         <v>0.66274999999999995</v>
       </c>
-      <c r="S16" s="46">
+      <c r="S16" s="45">
         <f t="shared" si="3"/>
         <v>-10.651899999999999</v>
       </c>
@@ -8284,49 +8284,49 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="53">
+      <c r="B17" s="52">
         <v>6.0498220640569492E-2</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <v>0.16370106761565842</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="62">
         <v>1.5434000000000001</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="62">
         <v>-117.15</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="62">
         <v>4.2472000000000003</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="62">
         <v>-24.257000000000001</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="62">
         <v>44.405999999999999</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="63">
         <v>-4.3498000000000001</v>
       </c>
-      <c r="J17" s="70">
+      <c r="J17" s="69">
         <v>-0.23557</v>
       </c>
-      <c r="K17" s="71">
+      <c r="K17" s="70">
         <v>15.003</v>
       </c>
-      <c r="L17" s="71">
+      <c r="L17" s="70">
         <v>-0.46516999999999997</v>
       </c>
-      <c r="M17" s="71">
+      <c r="M17" s="70">
         <v>-20.556999999999999</v>
       </c>
-      <c r="N17" s="71">
+      <c r="N17" s="70">
         <v>41.558999999999997</v>
       </c>
-      <c r="O17" s="72">
+      <c r="O17" s="71">
         <v>1.8993</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <f t="shared" si="0"/>
         <v>0.72083478260864098</v>
       </c>
@@ -8338,7 +8338,7 @@
         <f t="shared" si="2"/>
         <v>0.65731695652174604</v>
       </c>
-      <c r="S17" s="48">
+      <c r="S17" s="47">
         <f t="shared" si="3"/>
         <v>-188.31193913043475</v>
       </c>
@@ -8349,49 +8349,49 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="53">
+      <c r="B18" s="52">
         <v>9.964412811387903E-2</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="54">
         <v>0.16370106761565842</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="62">
         <v>6.6928999999999998</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="62">
         <v>-207.14</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="62">
         <v>12.000999999999999</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="62">
         <v>-27.869</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="62">
         <v>8.4513999999999996</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="63">
         <v>2.8125</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="69">
         <v>2.6791999999999998</v>
       </c>
-      <c r="K18" s="71">
+      <c r="K18" s="70">
         <v>-79.869</v>
       </c>
-      <c r="L18" s="71">
+      <c r="L18" s="70">
         <v>4.6462000000000003</v>
       </c>
-      <c r="M18" s="71">
+      <c r="M18" s="70">
         <v>-22.701000000000001</v>
       </c>
-      <c r="N18" s="71">
+      <c r="N18" s="70">
         <v>18.175999999999998</v>
       </c>
-      <c r="O18" s="72">
+      <c r="O18" s="71">
         <v>3.9940000000000002</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <f t="shared" si="0"/>
         <v>0.6176826086956595</v>
       </c>
@@ -8403,7 +8403,7 @@
         <f t="shared" si="2"/>
         <v>0.52528695652174662</v>
       </c>
-      <c r="S18" s="48">
+      <c r="S18" s="47">
         <f t="shared" si="3"/>
         <v>-211.95234782608694</v>
       </c>
@@ -8414,61 +8414,61 @@
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="54">
+      <c r="B19" s="53">
         <v>0.14590747330960857</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="57">
         <v>0.16370106761565842</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="62">
         <v>-5.6593</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="62">
         <v>28.763999999999999</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="62">
         <v>-1.9401999999999999</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="62">
         <v>-31.417999999999999</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="62">
         <v>-30.94</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="63">
         <v>15.372999999999999</v>
       </c>
-      <c r="J19" s="70">
+      <c r="J19" s="69">
         <v>0.63602000000000003</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K19" s="70">
         <v>-28.007999999999999</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="70">
         <v>2.4312999999999998</v>
       </c>
-      <c r="M19" s="71">
+      <c r="M19" s="70">
         <v>3.2366000000000001</v>
       </c>
-      <c r="N19" s="71">
+      <c r="N19" s="70">
         <v>5.1806000000000001</v>
       </c>
-      <c r="O19" s="72">
+      <c r="O19" s="71">
         <v>1.2727999999999999</v>
       </c>
-      <c r="P19" s="49">
+      <c r="P19" s="48">
         <f t="shared" si="0"/>
         <v>0.57617826086956114</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="49">
         <f t="shared" si="1"/>
         <v>-326.38395652173915</v>
       </c>
-      <c r="R19" s="50">
+      <c r="R19" s="49">
         <f t="shared" si="2"/>
         <v>-1.4632173913042834E-2</v>
       </c>
-      <c r="S19" s="51">
+      <c r="S19" s="50">
         <f t="shared" si="3"/>
         <v>38.256291304347819</v>
       </c>
@@ -8481,46 +8481,46 @@
       <c r="A20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="52">
         <v>0</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <v>0.14590747330960857</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="60">
         <v>0.70784999999999998</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="60">
         <v>-64.296000000000006</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="60">
         <v>8.1026000000000004E-4</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="60">
         <v>-5.0206999999999997</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="60">
         <v>-6.0395000000000003</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="61">
         <v>11.218</v>
       </c>
-      <c r="J20" s="76">
+      <c r="J20" s="75">
         <v>-0.17765</v>
       </c>
-      <c r="K20" s="77">
+      <c r="K20" s="76">
         <v>-134.07</v>
       </c>
-      <c r="L20" s="77">
+      <c r="L20" s="76">
         <v>8.3946999999999994E-2</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="76">
         <v>-2.67</v>
       </c>
-      <c r="N20" s="77">
+      <c r="N20" s="76">
         <v>18.956</v>
       </c>
-      <c r="O20" s="78">
+      <c r="O20" s="77">
         <v>0.88380000000000003</v>
       </c>
       <c r="P20" s="3">
@@ -8535,7 +8535,7 @@
         <f t="shared" si="2"/>
         <v>0.66181999999999996</v>
       </c>
-      <c r="S20" s="48">
+      <c r="S20" s="47">
         <f t="shared" si="3"/>
         <v>-25.816199999999998</v>
       </c>
@@ -8548,46 +8548,46 @@
       <c r="A21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="52">
         <v>4.2704626334519671E-2</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <v>0.14590747330960857</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="62">
         <v>-2.9558</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="62">
         <v>-620.17999999999995</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="62">
         <v>18.521999999999998</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="62">
         <v>-23.119</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="62">
         <v>1.9795</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="63">
         <v>-13.042999999999999</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="78">
         <v>8.6055000000000006E-2</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="79">
         <v>-242.03</v>
       </c>
-      <c r="L21" s="80">
+      <c r="L21" s="79">
         <v>7.1421999999999999</v>
       </c>
-      <c r="M21" s="80">
+      <c r="M21" s="79">
         <v>-20.125</v>
       </c>
-      <c r="N21" s="80">
+      <c r="N21" s="79">
         <v>18.036999999999999</v>
       </c>
-      <c r="O21" s="81">
+      <c r="O21" s="80">
         <v>1.3367</v>
       </c>
       <c r="P21" s="3">
@@ -8602,7 +8602,7 @@
         <f t="shared" si="2"/>
         <v>0.67000621951204664</v>
       </c>
-      <c r="S21" s="48">
+      <c r="S21" s="47">
         <f t="shared" si="3"/>
         <v>-194.63417804878048</v>
       </c>
@@ -8613,46 +8613,46 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="53">
+      <c r="B22" s="52">
         <v>7.8291814946619312E-2</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="54">
         <v>0.14590747330960857</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="62">
         <v>-3.2244999999999999</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="62">
         <v>42.768000000000001</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="62">
         <v>-1.9041999999999999</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="62">
         <v>-21.841000000000001</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="62">
         <v>-35.185000000000002</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="63">
         <v>-43.125999999999998</v>
       </c>
-      <c r="J22" s="79">
+      <c r="J22" s="78">
         <v>6.2008000000000001</v>
       </c>
-      <c r="K22" s="80">
+      <c r="K22" s="79">
         <v>-78.206000000000003</v>
       </c>
-      <c r="L22" s="80">
+      <c r="L22" s="79">
         <v>3.6379999999999999</v>
       </c>
-      <c r="M22" s="80">
+      <c r="M22" s="79">
         <v>-22.768999999999998</v>
       </c>
-      <c r="N22" s="80">
+      <c r="N22" s="79">
         <v>-13.82</v>
       </c>
-      <c r="O22" s="81">
+      <c r="O22" s="80">
         <v>2.8050999999999999</v>
       </c>
       <c r="P22" s="3">
@@ -8667,7 +8667,7 @@
         <f t="shared" si="2"/>
         <v>0.61660487804872588</v>
       </c>
-      <c r="S22" s="48">
+      <c r="S22" s="47">
         <f t="shared" si="3"/>
         <v>-232.30050975609757</v>
       </c>
@@ -8678,46 +8678,46 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="54">
+      <c r="B23" s="53">
         <v>0.11743772241992885</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="57">
         <v>0.14590747330960857</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="64">
         <v>-0.19414000000000001</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="64">
         <v>-53.006</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="64">
         <v>4.3471000000000002</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="64">
         <v>-33.948999999999998</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="64">
         <v>37.658999999999999</v>
       </c>
-      <c r="I23" s="66">
+      <c r="I23" s="65">
         <v>-0.35025000000000001</v>
       </c>
-      <c r="J23" s="82">
+      <c r="J23" s="81">
         <v>1.4461999999999999</v>
       </c>
-      <c r="K23" s="83">
+      <c r="K23" s="82">
         <v>-49.103000000000002</v>
       </c>
-      <c r="L23" s="83">
+      <c r="L23" s="82">
         <v>3.8580000000000001</v>
       </c>
-      <c r="M23" s="83">
+      <c r="M23" s="82">
         <v>-23.684999999999999</v>
       </c>
-      <c r="N23" s="83">
+      <c r="N23" s="82">
         <v>-0.13729</v>
       </c>
-      <c r="O23" s="84">
+      <c r="O23" s="83">
         <v>1.7125999999999999</v>
       </c>
       <c r="P23" s="3">
@@ -8732,7 +8732,7 @@
         <f t="shared" si="2"/>
         <v>0.5042731707317003</v>
       </c>
-      <c r="S23" s="48">
+      <c r="S23" s="47">
         <f t="shared" si="3"/>
         <v>-235.24790170731706</v>
       </c>
@@ -8745,61 +8745,61 @@
       <c r="A24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="51">
         <v>0</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="59">
         <v>0.22448979591836743</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="84">
         <v>2.1572</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="84">
         <v>-44.481999999999999</v>
       </c>
-      <c r="F24" s="85">
+      <c r="F24" s="84">
         <v>-2.1323999999999999E-2</v>
       </c>
-      <c r="G24" s="85">
+      <c r="G24" s="84">
         <v>-6.2950999999999997</v>
       </c>
-      <c r="H24" s="85">
+      <c r="H24" s="84">
         <v>4.1364000000000001</v>
       </c>
-      <c r="I24" s="86">
+      <c r="I24" s="85">
         <v>5.7298999999999998</v>
       </c>
-      <c r="J24" s="94">
+      <c r="J24" s="93">
         <v>1.2194</v>
       </c>
-      <c r="K24" s="95">
+      <c r="K24" s="94">
         <v>167.81</v>
       </c>
-      <c r="L24" s="95">
+      <c r="L24" s="94">
         <v>2.3109000000000001E-2</v>
       </c>
-      <c r="M24" s="95">
+      <c r="M24" s="94">
         <v>-6.5503</v>
       </c>
-      <c r="N24" s="95">
+      <c r="N24" s="94">
         <v>-25.202000000000002</v>
       </c>
-      <c r="O24" s="95">
+      <c r="O24" s="94">
         <v>13.175000000000001</v>
       </c>
-      <c r="P24" s="113">
+      <c r="P24" s="112">
         <f>(D24+E24*(B24/C24) + F24*20)</f>
         <v>1.73072</v>
       </c>
-      <c r="Q24" s="43">
+      <c r="Q24" s="42">
         <f>G24*20 +( H24*(B24/C24) )+I24</f>
         <v>-120.17209999999999</v>
       </c>
-      <c r="R24" s="43">
+      <c r="R24" s="42">
         <f>(J24+K24*(B24/C24)+L24*20)</f>
         <v>1.6815800000000001</v>
       </c>
-      <c r="S24" s="114">
+      <c r="S24" s="113">
         <f>M24*20 +N24*(B24/C24)+O24</f>
         <v>-117.831</v>
       </c>
@@ -8810,49 +8810,49 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-      <c r="B25" s="53">
+      <c r="B25" s="52">
         <v>0.13265306122448986</v>
       </c>
-      <c r="C25" s="56">
+      <c r="C25" s="55">
         <v>0.22448979591836743</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="86">
         <v>0.61619000000000002</v>
       </c>
-      <c r="E25" s="87">
+      <c r="E25" s="86">
         <v>-146.97999999999999</v>
       </c>
-      <c r="F25" s="87">
+      <c r="F25" s="86">
         <v>4.3540999999999999</v>
       </c>
-      <c r="G25" s="87">
+      <c r="G25" s="86">
         <v>-12.847</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="86">
         <v>0.38601000000000002</v>
       </c>
-      <c r="I25" s="88">
+      <c r="I25" s="87">
         <v>1.714</v>
       </c>
-      <c r="J25" s="96">
+      <c r="J25" s="95">
         <v>-1.2285999999999999</v>
       </c>
-      <c r="K25" s="97">
+      <c r="K25" s="96">
         <v>-104.46</v>
       </c>
-      <c r="L25" s="97">
+      <c r="L25" s="96">
         <v>3.1890000000000001</v>
       </c>
-      <c r="M25" s="97">
+      <c r="M25" s="96">
         <v>-12.368</v>
       </c>
-      <c r="N25" s="97">
+      <c r="N25" s="96">
         <v>15.09</v>
       </c>
-      <c r="O25" s="97">
+      <c r="O25" s="96">
         <v>2.3451</v>
       </c>
-      <c r="P25" s="115">
+      <c r="P25" s="114">
         <f t="shared" ref="P25:P40" si="5">(D25+E25*(B25/C25) + F25*20)</f>
         <v>0.84637181818182228</v>
       </c>
@@ -8864,7 +8864,7 @@
         <f t="shared" ref="R25:R40" si="7">(J25+K25*(B25/C25)+L25*20)</f>
         <v>0.82503636363636446</v>
       </c>
-      <c r="S25" s="116">
+      <c r="S25" s="115">
         <f t="shared" ref="S25:S40" si="8">M25*20 +N25*(B25/C25)+O25</f>
         <v>-236.09808181818184</v>
       </c>
@@ -8875,49 +8875,49 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
-      <c r="B26" s="53">
+      <c r="B26" s="52">
         <v>0.20408163265306131</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="55">
         <v>0.22448979591836743</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="86">
         <v>-4.4813999999999998</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="86">
         <v>-274.56</v>
       </c>
-      <c r="F26" s="87">
+      <c r="F26" s="86">
         <v>12.731</v>
       </c>
-      <c r="G26" s="87">
+      <c r="G26" s="86">
         <v>-12.606999999999999</v>
       </c>
-      <c r="H26" s="87">
+      <c r="H26" s="86">
         <v>-4.5890000000000004</v>
       </c>
-      <c r="I26" s="88">
+      <c r="I26" s="87">
         <v>0.34597</v>
       </c>
-      <c r="J26" s="96">
+      <c r="J26" s="95">
         <v>-3.8342999999999998</v>
       </c>
-      <c r="K26" s="97">
+      <c r="K26" s="96">
         <v>-248.28</v>
       </c>
-      <c r="L26" s="97">
+      <c r="L26" s="96">
         <v>11.502000000000001</v>
       </c>
-      <c r="M26" s="97">
+      <c r="M26" s="96">
         <v>-11.286</v>
       </c>
-      <c r="N26" s="97">
+      <c r="N26" s="96">
         <v>0.42332999999999998</v>
       </c>
-      <c r="O26" s="97">
+      <c r="O26" s="96">
         <v>0.20998</v>
       </c>
-      <c r="P26" s="115">
+      <c r="P26" s="114">
         <f t="shared" si="5"/>
         <v>0.53859999999997399</v>
       </c>
@@ -8929,7 +8929,7 @@
         <f t="shared" si="7"/>
         <v>0.49660909090908945</v>
       </c>
-      <c r="S26" s="116">
+      <c r="S26" s="115">
         <f t="shared" si="8"/>
         <v>-225.12517454545454</v>
       </c>
@@ -8942,61 +8942,61 @@
       <c r="A27" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="51">
         <v>0</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="59">
         <v>0.2416666666666667</v>
       </c>
-      <c r="D27" s="91">
+      <c r="D27" s="90">
         <v>-1.321</v>
       </c>
-      <c r="E27" s="91">
+      <c r="E27" s="90">
         <v>10.988</v>
       </c>
-      <c r="F27" s="91">
+      <c r="F27" s="90">
         <v>0.15769</v>
       </c>
-      <c r="G27" s="91">
+      <c r="G27" s="90">
         <v>-4.0895999999999999</v>
       </c>
-      <c r="H27" s="85">
+      <c r="H27" s="84">
         <v>14.569000000000001</v>
       </c>
-      <c r="I27" s="86">
+      <c r="I27" s="85">
         <v>7.8349000000000002</v>
       </c>
-      <c r="J27" s="102">
+      <c r="J27" s="101">
         <v>0.51661999999999997</v>
       </c>
-      <c r="K27" s="103">
+      <c r="K27" s="102">
         <v>-62.866</v>
       </c>
-      <c r="L27" s="103">
+      <c r="L27" s="102">
         <v>6.3997999999999999E-2</v>
       </c>
-      <c r="M27" s="103">
+      <c r="M27" s="102">
         <v>-4.2972999999999999</v>
       </c>
-      <c r="N27" s="103">
+      <c r="N27" s="102">
         <v>11.321</v>
       </c>
-      <c r="O27" s="104">
+      <c r="O27" s="103">
         <v>6.9728000000000003</v>
       </c>
-      <c r="P27" s="44">
+      <c r="P27" s="43">
         <f t="shared" si="5"/>
         <v>1.8328</v>
       </c>
-      <c r="Q27" s="45">
+      <c r="Q27" s="44">
         <f t="shared" si="6"/>
         <v>-73.957099999999997</v>
       </c>
-      <c r="R27" s="45">
+      <c r="R27" s="44">
         <f t="shared" si="7"/>
         <v>1.7965800000000001</v>
       </c>
-      <c r="S27" s="46">
+      <c r="S27" s="45">
         <f t="shared" si="8"/>
         <v>-78.973199999999991</v>
       </c>
@@ -9007,49 +9007,49 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="53">
+      <c r="B28" s="52">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="55">
         <v>0.2416666666666667</v>
       </c>
-      <c r="D28" s="92">
+      <c r="D28" s="91">
         <v>0.76805999999999996</v>
       </c>
-      <c r="E28" s="92">
+      <c r="E28" s="91">
         <v>-547.72</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="91">
         <v>9.4709000000000003</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="91">
         <v>-12.868</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H28" s="86">
         <v>45.835000000000001</v>
       </c>
-      <c r="I28" s="88">
+      <c r="I28" s="87">
         <v>13.367000000000001</v>
       </c>
-      <c r="J28" s="105">
+      <c r="J28" s="104">
         <v>-1.1874</v>
       </c>
-      <c r="K28" s="106">
+      <c r="K28" s="105">
         <v>-484.81</v>
       </c>
-      <c r="L28" s="106">
+      <c r="L28" s="105">
         <v>8.4835999999999991</v>
       </c>
-      <c r="M28" s="106">
+      <c r="M28" s="105">
         <v>-12.295999999999999</v>
       </c>
-      <c r="N28" s="106">
+      <c r="N28" s="105">
         <v>14.547000000000001</v>
       </c>
-      <c r="O28" s="107">
+      <c r="O28" s="106">
         <v>16.831</v>
       </c>
-      <c r="P28" s="47">
+      <c r="P28" s="46">
         <f t="shared" si="5"/>
         <v>1.3170944827586482</v>
       </c>
@@ -9061,7 +9061,7 @@
         <f t="shared" si="7"/>
         <v>1.3087379310345</v>
       </c>
-      <c r="S28" s="48">
+      <c r="S28" s="47">
         <f t="shared" si="8"/>
         <v>-224.07279310344828</v>
       </c>
@@ -9072,49 +9072,49 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
-      <c r="B29" s="54">
+      <c r="B29" s="53">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="56">
         <v>0.2416666666666667</v>
       </c>
-      <c r="D29" s="93">
+      <c r="D29" s="92">
         <v>1.9333</v>
       </c>
-      <c r="E29" s="93">
+      <c r="E29" s="92">
         <v>-155.99</v>
       </c>
-      <c r="F29" s="93">
+      <c r="F29" s="92">
         <v>5.3272000000000004</v>
       </c>
-      <c r="G29" s="93">
+      <c r="G29" s="92">
         <v>-14.849</v>
       </c>
-      <c r="H29" s="89">
+      <c r="H29" s="88">
         <v>72.200999999999993</v>
       </c>
-      <c r="I29" s="90">
+      <c r="I29" s="89">
         <v>0.38102000000000003</v>
       </c>
-      <c r="J29" s="108">
+      <c r="J29" s="107">
         <v>-2.0988000000000002</v>
       </c>
-      <c r="K29" s="109">
+      <c r="K29" s="108">
         <v>-114.5</v>
       </c>
-      <c r="L29" s="109">
+      <c r="L29" s="108">
         <v>4.0963000000000003</v>
       </c>
-      <c r="M29" s="109">
+      <c r="M29" s="108">
         <v>-10.342000000000001</v>
       </c>
-      <c r="N29" s="109">
+      <c r="N29" s="108">
         <v>-43.709000000000003</v>
       </c>
-      <c r="O29" s="110">
+      <c r="O29" s="109">
         <v>11.728999999999999</v>
       </c>
-      <c r="P29" s="47">
+      <c r="P29" s="46">
         <f t="shared" si="5"/>
         <v>0.89798965517245222</v>
       </c>
@@ -9126,7 +9126,7 @@
         <f t="shared" si="7"/>
         <v>0.86168275862071653</v>
       </c>
-      <c r="S29" s="48">
+      <c r="S29" s="47">
         <f t="shared" si="8"/>
         <v>-225.25513793103448</v>
       </c>
@@ -9139,61 +9139,61 @@
       <c r="A30" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="52">
         <v>0</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="55">
         <v>0.24444444444444444</v>
       </c>
-      <c r="D30" s="92">
+      <c r="D30" s="91">
         <v>3.2982999999999998</v>
       </c>
-      <c r="E30" s="92">
+      <c r="E30" s="91">
         <v>-208.33</v>
       </c>
-      <c r="F30" s="92">
+      <c r="F30" s="91">
         <v>-5.5690000000000003E-2</v>
       </c>
-      <c r="G30" s="92">
+      <c r="G30" s="91">
         <v>-9.4495000000000005</v>
       </c>
-      <c r="H30" s="87">
+      <c r="H30" s="86">
         <v>8.7942999999999998</v>
       </c>
-      <c r="I30" s="88">
+      <c r="I30" s="87">
         <v>-4.1233000000000004</v>
       </c>
-      <c r="J30" s="96">
+      <c r="J30" s="95">
         <v>3.9163000000000001</v>
       </c>
-      <c r="K30" s="97">
+      <c r="K30" s="96">
         <v>82.153999999999996</v>
       </c>
-      <c r="L30" s="97">
+      <c r="L30" s="96">
         <v>-8.8328000000000004E-2</v>
       </c>
-      <c r="M30" s="97">
+      <c r="M30" s="96">
         <v>-9.7835999999999999</v>
       </c>
-      <c r="N30" s="97">
+      <c r="N30" s="96">
         <v>-34.344999999999999</v>
       </c>
-      <c r="O30" s="98">
+      <c r="O30" s="97">
         <v>14.659000000000001</v>
       </c>
-      <c r="P30" s="44">
+      <c r="P30" s="43">
         <f t="shared" si="5"/>
         <v>2.1844999999999999</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="44">
         <f t="shared" si="6"/>
         <v>-193.11330000000001</v>
       </c>
-      <c r="R30" s="45">
+      <c r="R30" s="44">
         <f t="shared" si="7"/>
         <v>2.14974</v>
       </c>
-      <c r="S30" s="46">
+      <c r="S30" s="45">
         <f t="shared" si="8"/>
         <v>-181.01300000000001</v>
       </c>
@@ -9204,49 +9204,49 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
-      <c r="B31" s="53">
+      <c r="B31" s="52">
         <v>2.6666666666666731E-2</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="55">
         <v>0.24444444444444444</v>
       </c>
-      <c r="D31" s="92">
+      <c r="D31" s="91">
         <v>-2.8809</v>
       </c>
-      <c r="E31" s="92">
+      <c r="E31" s="91">
         <v>-772.85</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="91">
         <v>4.452</v>
       </c>
-      <c r="G31" s="92">
+      <c r="G31" s="91">
         <v>-14.285</v>
       </c>
-      <c r="H31" s="87">
+      <c r="H31" s="86">
         <v>-87.47</v>
       </c>
-      <c r="I31" s="88">
+      <c r="I31" s="87">
         <v>9.7019000000000002</v>
       </c>
-      <c r="J31" s="96">
+      <c r="J31" s="95">
         <v>-3.1850000000000001</v>
       </c>
-      <c r="K31" s="97">
+      <c r="K31" s="96">
         <v>-765.31</v>
       </c>
-      <c r="L31" s="97">
+      <c r="L31" s="96">
         <v>4.4238999999999997</v>
       </c>
-      <c r="M31" s="97">
+      <c r="M31" s="96">
         <v>-13.186</v>
       </c>
-      <c r="N31" s="97">
+      <c r="N31" s="96">
         <v>-84.834000000000003</v>
       </c>
-      <c r="O31" s="98">
+      <c r="O31" s="97">
         <v>10.084</v>
       </c>
-      <c r="P31" s="47">
+      <c r="P31" s="46">
         <f t="shared" si="5"/>
         <v>1.8481909090906896</v>
       </c>
@@ -9258,7 +9258,7 @@
         <f t="shared" si="7"/>
         <v>1.8046363636361491</v>
       </c>
-      <c r="S31" s="48">
+      <c r="S31" s="47">
         <f t="shared" si="8"/>
         <v>-262.89061818181824</v>
       </c>
@@ -9269,61 +9269,61 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
-      <c r="B32" s="53">
+      <c r="B32" s="52">
         <v>7.111111111111118E-2</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="55">
         <v>0.24444444444444444</v>
       </c>
-      <c r="D32" s="92">
+      <c r="D32" s="91">
         <v>1.5848</v>
       </c>
-      <c r="E32" s="92">
+      <c r="E32" s="91">
         <v>118.7</v>
       </c>
-      <c r="F32" s="92">
+      <c r="F32" s="91">
         <v>-1.7302999999999999</v>
       </c>
-      <c r="G32" s="92">
+      <c r="G32" s="91">
         <v>-15.548</v>
       </c>
-      <c r="H32" s="87">
+      <c r="H32" s="86">
         <v>58.555</v>
       </c>
-      <c r="I32" s="88">
+      <c r="I32" s="87">
         <v>-5.7403000000000004</v>
       </c>
-      <c r="J32" s="96">
+      <c r="J32" s="95">
         <v>-0.10642</v>
       </c>
-      <c r="K32" s="97">
+      <c r="K32" s="96">
         <v>-60.106000000000002</v>
       </c>
-      <c r="L32" s="97">
+      <c r="L32" s="96">
         <v>0.95269999999999999</v>
       </c>
-      <c r="M32" s="97">
+      <c r="M32" s="96">
         <v>-14.26</v>
       </c>
-      <c r="N32" s="97">
+      <c r="N32" s="96">
         <v>36.384</v>
       </c>
-      <c r="O32" s="98">
+      <c r="O32" s="97">
         <v>1.2051000000000001</v>
       </c>
-      <c r="P32" s="49">
+      <c r="P32" s="48">
         <f t="shared" si="5"/>
         <v>1.5097090909091264</v>
       </c>
-      <c r="Q32" s="50">
+      <c r="Q32" s="49">
         <f t="shared" si="6"/>
         <v>-299.66611818181815</v>
       </c>
-      <c r="R32" s="50">
+      <c r="R32" s="49">
         <f t="shared" si="7"/>
         <v>1.4621981818181595</v>
       </c>
-      <c r="S32" s="51">
+      <c r="S32" s="50">
         <f t="shared" si="8"/>
         <v>-273.4104636363636</v>
       </c>
@@ -9336,49 +9336,49 @@
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="52">
+      <c r="B33" s="51">
         <v>0</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="59">
         <v>0.24452554744525545</v>
       </c>
-      <c r="D33" s="85">
+      <c r="D33" s="84">
         <v>2.0655000000000001</v>
       </c>
-      <c r="E33" s="85">
+      <c r="E33" s="84">
         <v>-153.66999999999999</v>
       </c>
-      <c r="F33" s="85">
+      <c r="F33" s="84">
         <v>1.2455000000000001E-2</v>
       </c>
-      <c r="G33" s="85">
+      <c r="G33" s="84">
         <v>-6.9154999999999998</v>
       </c>
-      <c r="H33" s="85">
+      <c r="H33" s="84">
         <v>-2.2528000000000001</v>
       </c>
-      <c r="I33" s="86">
+      <c r="I33" s="85">
         <v>-0.10705000000000001</v>
       </c>
-      <c r="J33" s="102">
+      <c r="J33" s="101">
         <v>1.5102</v>
       </c>
-      <c r="K33" s="103">
+      <c r="K33" s="102">
         <v>-26.844000000000001</v>
       </c>
-      <c r="L33" s="103">
+      <c r="L33" s="102">
         <v>3.9067999999999999E-2</v>
       </c>
-      <c r="M33" s="103">
+      <c r="M33" s="102">
         <v>-6.9574999999999996</v>
       </c>
-      <c r="N33" s="103">
+      <c r="N33" s="102">
         <v>10.144</v>
       </c>
-      <c r="O33" s="104">
+      <c r="O33" s="103">
         <v>6.4831000000000003</v>
       </c>
-      <c r="P33" s="47">
+      <c r="P33" s="46">
         <f t="shared" si="5"/>
         <v>2.3146</v>
       </c>
@@ -9390,7 +9390,7 @@
         <f t="shared" si="7"/>
         <v>2.29156</v>
       </c>
-      <c r="S33" s="48">
+      <c r="S33" s="47">
         <f t="shared" si="8"/>
         <v>-132.66689999999997</v>
       </c>
@@ -9401,49 +9401,49 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-      <c r="B34" s="53">
+      <c r="B34" s="52">
         <v>4.7445255474452455E-2</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="55">
         <v>0.24452554744525545</v>
       </c>
-      <c r="D34" s="87">
+      <c r="D34" s="86">
         <v>-5.9234999999999998</v>
       </c>
-      <c r="E34" s="87">
+      <c r="E34" s="86">
         <v>-630.75</v>
       </c>
-      <c r="F34" s="87">
+      <c r="F34" s="86">
         <v>6.5182000000000002</v>
       </c>
-      <c r="G34" s="87">
+      <c r="G34" s="86">
         <v>-14.914999999999999</v>
       </c>
-      <c r="H34" s="87">
+      <c r="H34" s="86">
         <v>29.056000000000001</v>
       </c>
-      <c r="I34" s="88">
+      <c r="I34" s="87">
         <v>8.2053999999999991</v>
       </c>
-      <c r="J34" s="105">
+      <c r="J34" s="104">
         <v>0.48388999999999999</v>
       </c>
-      <c r="K34" s="106">
+      <c r="K34" s="105">
         <v>-269.74</v>
       </c>
-      <c r="L34" s="106">
+      <c r="L34" s="105">
         <v>2.694</v>
       </c>
-      <c r="M34" s="106">
+      <c r="M34" s="105">
         <v>-13.686999999999999</v>
       </c>
-      <c r="N34" s="106">
+      <c r="N34" s="105">
         <v>10.519</v>
       </c>
-      <c r="O34" s="107">
+      <c r="O34" s="106">
         <v>1.7613000000000001</v>
       </c>
-      <c r="P34" s="47">
+      <c r="P34" s="46">
         <f t="shared" si="5"/>
         <v>2.0561716417912805</v>
       </c>
@@ -9455,7 +9455,7 @@
         <f t="shared" si="7"/>
         <v>2.026278059701589</v>
       </c>
-      <c r="S34" s="48">
+      <c r="S34" s="47">
         <f t="shared" si="8"/>
         <v>-269.93770000000001</v>
       </c>
@@ -9466,49 +9466,49 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="53">
+      <c r="B35" s="52">
         <v>8.0291970802919679E-2</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="55">
         <v>0.24452554744525545</v>
       </c>
-      <c r="D35" s="87">
+      <c r="D35" s="86">
         <v>0.23874999999999999</v>
       </c>
-      <c r="E35" s="87">
+      <c r="E35" s="86">
         <v>-515</v>
       </c>
-      <c r="F35" s="87">
+      <c r="F35" s="86">
         <v>8.5371000000000006</v>
       </c>
-      <c r="G35" s="87">
+      <c r="G35" s="86">
         <v>-15.965</v>
       </c>
-      <c r="H35" s="87">
+      <c r="H35" s="86">
         <v>-13.3</v>
       </c>
-      <c r="I35" s="88">
+      <c r="I35" s="87">
         <v>13.887</v>
       </c>
-      <c r="J35" s="105">
+      <c r="J35" s="104">
         <v>-1.8734</v>
       </c>
-      <c r="K35" s="106">
+      <c r="K35" s="105">
         <v>-907.74</v>
       </c>
-      <c r="L35" s="106">
+      <c r="L35" s="105">
         <v>15.089</v>
       </c>
-      <c r="M35" s="106">
+      <c r="M35" s="105">
         <v>-15.593</v>
       </c>
-      <c r="N35" s="106">
+      <c r="N35" s="105">
         <v>-12.805</v>
       </c>
-      <c r="O35" s="107">
+      <c r="O35" s="106">
         <v>25.082000000000001</v>
       </c>
-      <c r="P35" s="47">
+      <c r="P35" s="46">
         <f t="shared" si="5"/>
         <v>1.8762723880597889</v>
       </c>
@@ -9520,7 +9520,7 @@
         <f t="shared" si="7"/>
         <v>1.8427194029852103</v>
       </c>
-      <c r="S35" s="48">
+      <c r="S35" s="47">
         <f t="shared" si="8"/>
         <v>-290.98262686567165</v>
       </c>
@@ -9531,49 +9531,49 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
-      <c r="B36" s="54">
+      <c r="B36" s="53">
         <v>0.12043795620437947</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="56">
         <v>0.24452554744525545</v>
       </c>
-      <c r="D36" s="89">
+      <c r="D36" s="88">
         <v>1.6337999999999999</v>
       </c>
-      <c r="E36" s="89">
+      <c r="E36" s="88">
         <v>40.323</v>
       </c>
-      <c r="F36" s="89">
+      <c r="F36" s="88">
         <v>-1.0009999999999999</v>
       </c>
-      <c r="G36" s="89">
+      <c r="G36" s="88">
         <v>-16.773</v>
       </c>
-      <c r="H36" s="89">
+      <c r="H36" s="88">
         <v>-0.98214000000000001</v>
       </c>
-      <c r="I36" s="90">
+      <c r="I36" s="89">
         <v>4.7637999999999998</v>
       </c>
-      <c r="J36" s="108">
+      <c r="J36" s="107">
         <v>-0.61090999999999995</v>
       </c>
-      <c r="K36" s="109">
+      <c r="K36" s="108">
         <v>-277.69</v>
       </c>
-      <c r="L36" s="109">
+      <c r="L36" s="108">
         <v>6.9404000000000003</v>
       </c>
-      <c r="M36" s="109">
+      <c r="M36" s="108">
         <v>-15.148</v>
       </c>
-      <c r="N36" s="109">
+      <c r="N36" s="108">
         <v>-4.4676999999999998</v>
       </c>
-      <c r="O36" s="110">
+      <c r="O36" s="109">
         <v>0.81752000000000002</v>
       </c>
-      <c r="P36" s="47">
+      <c r="P36" s="46">
         <f t="shared" si="5"/>
         <v>1.474382089552229</v>
       </c>
@@ -9585,7 +9585,7 @@
         <f t="shared" si="7"/>
         <v>1.4244034328359305</v>
       </c>
-      <c r="S36" s="48">
+      <c r="S36" s="47">
         <f t="shared" si="8"/>
         <v>-304.34298895522386</v>
       </c>
@@ -9598,61 +9598,61 @@
       <c r="A37" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="54">
+      <c r="B37" s="53">
         <v>0</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="56">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D37" s="89">
+      <c r="D37" s="88">
         <v>0.22861999999999999</v>
       </c>
-      <c r="E37" s="89">
+      <c r="E37" s="88">
         <v>-27.027999999999999</v>
       </c>
-      <c r="F37" s="89">
+      <c r="F37" s="88">
         <v>0.1031</v>
       </c>
-      <c r="G37" s="89">
+      <c r="G37" s="88">
         <v>-8.3736999999999995</v>
       </c>
-      <c r="H37" s="89">
+      <c r="H37" s="88">
         <v>23.407</v>
       </c>
-      <c r="I37" s="90">
+      <c r="I37" s="89">
         <v>4.9283999999999999</v>
       </c>
-      <c r="J37" s="99">
+      <c r="J37" s="98">
         <v>2.6471</v>
       </c>
-      <c r="K37" s="100">
+      <c r="K37" s="99">
         <v>14.065</v>
       </c>
-      <c r="L37" s="100">
+      <c r="L37" s="99">
         <v>-1.9262000000000001E-2</v>
       </c>
-      <c r="M37" s="100">
+      <c r="M37" s="99">
         <v>-8.0183</v>
       </c>
-      <c r="N37" s="100">
+      <c r="N37" s="99">
         <v>-8.1674000000000007</v>
       </c>
-      <c r="O37" s="101">
+      <c r="O37" s="100">
         <v>7.0495000000000001</v>
       </c>
-      <c r="P37" s="49">
+      <c r="P37" s="48">
         <f t="shared" si="5"/>
         <v>2.2906199999999997</v>
       </c>
-      <c r="Q37" s="50">
+      <c r="Q37" s="49">
         <f t="shared" si="6"/>
         <v>-162.54559999999998</v>
       </c>
-      <c r="R37" s="50">
+      <c r="R37" s="49">
         <f t="shared" si="7"/>
         <v>2.26186</v>
       </c>
-      <c r="S37" s="51">
+      <c r="S37" s="50">
         <f t="shared" si="8"/>
         <v>-153.31649999999999</v>
       </c>
@@ -9665,49 +9665,49 @@
       <c r="A38" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="53">
+      <c r="B38" s="52">
         <v>9.0452261306532528E-2</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="55">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="86">
         <v>1.6681999999999999</v>
       </c>
-      <c r="E38" s="87">
+      <c r="E38" s="86">
         <v>-244.18</v>
       </c>
-      <c r="F38" s="87">
+      <c r="F38" s="86">
         <v>4.4455</v>
       </c>
-      <c r="G38" s="87">
+      <c r="G38" s="86">
         <v>-17.353000000000002</v>
       </c>
-      <c r="H38" s="87">
+      <c r="H38" s="86">
         <v>3.9733000000000001</v>
       </c>
-      <c r="I38" s="88">
+      <c r="I38" s="87">
         <v>4.9619</v>
       </c>
-      <c r="J38" s="96">
+      <c r="J38" s="95">
         <v>1.4964</v>
       </c>
-      <c r="K38" s="97">
+      <c r="K38" s="96">
         <v>-67.885000000000005</v>
       </c>
-      <c r="L38" s="97">
+      <c r="L38" s="96">
         <v>1.2465999999999999</v>
       </c>
-      <c r="M38" s="97">
+      <c r="M38" s="96">
         <v>-16.440999999999999</v>
       </c>
-      <c r="N38" s="97">
+      <c r="N38" s="96">
         <v>28.65</v>
       </c>
-      <c r="O38" s="98">
+      <c r="O38" s="97">
         <v>-0.50266999999999995</v>
       </c>
-      <c r="P38" s="47">
+      <c r="P38" s="46">
         <f t="shared" si="5"/>
         <v>1.7854727272728468</v>
       </c>
@@ -9719,7 +9719,7 @@
         <f t="shared" si="7"/>
         <v>1.7429454545454881</v>
       </c>
-      <c r="S38" s="48">
+      <c r="S38" s="47">
         <f t="shared" si="8"/>
         <v>-318.90448818181824</v>
       </c>
@@ -9730,49 +9730,49 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="B39" s="53">
+      <c r="B39" s="52">
         <v>0.11809045226130643</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39" s="55">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D39" s="87">
+      <c r="D39" s="86">
         <v>8.4464000000000006</v>
       </c>
-      <c r="E39" s="87">
+      <c r="E39" s="86">
         <v>176.02</v>
       </c>
-      <c r="F39" s="87">
+      <c r="F39" s="86">
         <v>-4.5232999999999999</v>
       </c>
-      <c r="G39" s="87">
+      <c r="G39" s="86">
         <v>-16.759</v>
       </c>
-      <c r="H39" s="87">
+      <c r="H39" s="86">
         <v>-29.588000000000001</v>
       </c>
-      <c r="I39" s="88">
+      <c r="I39" s="87">
         <v>4.9997999999999996</v>
       </c>
-      <c r="J39" s="96">
+      <c r="J39" s="95">
         <v>4.5803000000000003</v>
       </c>
-      <c r="K39" s="97">
+      <c r="K39" s="96">
         <v>36.128</v>
       </c>
-      <c r="L39" s="97">
+      <c r="L39" s="96">
         <v>-1.0118</v>
       </c>
-      <c r="M39" s="97">
+      <c r="M39" s="96">
         <v>-15.994</v>
       </c>
-      <c r="N39" s="97">
+      <c r="N39" s="96">
         <v>-8.0814000000000004</v>
       </c>
-      <c r="O39" s="98">
+      <c r="O39" s="97">
         <v>4.3227000000000002</v>
       </c>
-      <c r="P39" s="47">
+      <c r="P39" s="46">
         <f t="shared" si="5"/>
         <v>1.5454505050504395</v>
       </c>
@@ -9784,7 +9784,7 @@
         <f t="shared" si="7"/>
         <v>1.4959767676767548</v>
       </c>
-      <c r="S39" s="48">
+      <c r="S39" s="47">
         <f t="shared" si="8"/>
         <v>-319.39392424242425</v>
       </c>
@@ -9795,61 +9795,61 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="34"/>
-      <c r="B40" s="54">
+      <c r="B40" s="53">
         <v>0.17587939698492464</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="56">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D40" s="89">
+      <c r="D40" s="88">
         <v>-3.5436999999999999</v>
       </c>
-      <c r="E40" s="89">
+      <c r="E40" s="88">
         <v>75.686999999999998</v>
       </c>
-      <c r="F40" s="89">
+      <c r="F40" s="88">
         <v>-2.4432999999999998</v>
       </c>
-      <c r="G40" s="89">
+      <c r="G40" s="88">
         <v>-19.321999999999999</v>
       </c>
-      <c r="H40" s="89">
+      <c r="H40" s="88">
         <v>28.091000000000001</v>
       </c>
-      <c r="I40" s="90">
+      <c r="I40" s="89">
         <v>11.29</v>
       </c>
-      <c r="J40" s="99">
+      <c r="J40" s="98">
         <v>8.2227999999999996E-2</v>
       </c>
-      <c r="K40" s="100">
+      <c r="K40" s="99">
         <v>-221.04</v>
       </c>
-      <c r="L40" s="100">
+      <c r="L40" s="99">
         <v>7.8624000000000001</v>
       </c>
-      <c r="M40" s="100">
+      <c r="M40" s="99">
         <v>-16.234999999999999</v>
       </c>
-      <c r="N40" s="100">
+      <c r="N40" s="99">
         <v>6.9039000000000001</v>
       </c>
-      <c r="O40" s="101">
+      <c r="O40" s="100">
         <v>-1.3651</v>
       </c>
-      <c r="P40" s="49">
+      <c r="P40" s="48">
         <f t="shared" si="5"/>
         <v>1.1063606060606119</v>
       </c>
-      <c r="Q40" s="50">
+      <c r="Q40" s="49">
         <f t="shared" si="6"/>
         <v>-355.28767676767671</v>
       </c>
-      <c r="R40" s="50">
+      <c r="R40" s="49">
         <f t="shared" si="7"/>
         <v>1.0393189090908663</v>
       </c>
-      <c r="S40" s="51">
+      <c r="S40" s="50">
         <f t="shared" si="8"/>
         <v>-321.18355454545451</v>
       </c>

--- a/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E677D9-B9EC-4051-B75E-914C22C6C004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2F5B2E-5284-4526-8C84-1499BC0DED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
@@ -7385,7 +7385,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2F5B2E-5284-4526-8C84-1499BC0DED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40562124-0CCA-44F7-B009-9EA22D3B5493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Model1" sheetId="1" r:id="rId1"/>
     <sheet name="Model2" sheetId="2" r:id="rId2"/>
+    <sheet name="Model 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
   <si>
     <t>Data</t>
   </si>
@@ -148,6 +149,30 @@
   </si>
   <si>
     <t>a1*sttrain</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>test 9</t>
+  </si>
+  <si>
+    <t>Optimized Parameters(Regression)</t>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.0e+03 *</t>
   </si>
 </sst>
 </file>
@@ -456,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,6 +829,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7384,8 +7490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB9165-0AC4-4E02-9FE6-56899BB84B47}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection sqref="A1:T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9862,4 +9968,2515 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0888F2-2C2B-4470-8C56-2D382F0DA6F3}">
+  <dimension ref="A1:U55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="138" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="138" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="139" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="51">
+        <v>0</v>
+      </c>
+      <c r="C5" s="58">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D5" s="144">
+        <v>-0.14654</v>
+      </c>
+      <c r="E5" s="145">
+        <v>-100.34</v>
+      </c>
+      <c r="F5" s="145">
+        <v>-0.25108000000000003</v>
+      </c>
+      <c r="G5" s="145">
+        <v>-4.0141999999999998</v>
+      </c>
+      <c r="H5" s="145">
+        <v>3.0356999999999998</v>
+      </c>
+      <c r="I5" s="145">
+        <v>-2.9142999999999999</v>
+      </c>
+      <c r="J5" s="145">
+        <v>-6.9932999999999996</v>
+      </c>
+      <c r="K5" s="145">
+        <v>10.099</v>
+      </c>
+      <c r="L5" s="142">
+        <v>16.413</v>
+      </c>
+      <c r="M5" s="140">
+        <v>-1.3574999999999999</v>
+      </c>
+      <c r="N5" s="133">
+        <v>-97.218000000000004</v>
+      </c>
+      <c r="O5" s="133">
+        <v>1.0496000000000001</v>
+      </c>
+      <c r="P5" s="133">
+        <v>-5.0976999999999997</v>
+      </c>
+      <c r="Q5" s="133">
+        <v>-1.9936</v>
+      </c>
+      <c r="R5" s="133">
+        <v>0.12033000000000001</v>
+      </c>
+      <c r="S5" s="133">
+        <v>1.74</v>
+      </c>
+      <c r="T5" s="44">
+        <v>9.7834000000000003</v>
+      </c>
+      <c r="U5" s="142">
+        <v>16.059999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="52">
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D6" s="146">
+        <v>-3.2618999999999998</v>
+      </c>
+      <c r="E6" s="147">
+        <v>-242.54</v>
+      </c>
+      <c r="F6" s="147">
+        <v>-15.316000000000001</v>
+      </c>
+      <c r="G6" s="147">
+        <v>4.8616000000000001</v>
+      </c>
+      <c r="H6" s="147">
+        <v>-1.8576999999999999</v>
+      </c>
+      <c r="I6" s="147">
+        <v>-4.8540000000000001</v>
+      </c>
+      <c r="J6" s="147">
+        <v>-26.946999999999999</v>
+      </c>
+      <c r="K6" s="147">
+        <v>24.318000000000001</v>
+      </c>
+      <c r="L6" s="134">
+        <v>-10.513</v>
+      </c>
+      <c r="M6" s="122">
+        <v>-0.17573</v>
+      </c>
+      <c r="N6" s="118">
+        <v>-131.63999999999999</v>
+      </c>
+      <c r="O6" s="118">
+        <v>-3.4184000000000001</v>
+      </c>
+      <c r="P6" s="118">
+        <v>-5.5959000000000003</v>
+      </c>
+      <c r="Q6" s="118">
+        <v>0.66727999999999998</v>
+      </c>
+      <c r="R6" s="118">
+        <v>-3.7286999999999999</v>
+      </c>
+      <c r="S6" s="118">
+        <v>12.596</v>
+      </c>
+      <c r="T6" s="3">
+        <v>13.223000000000001</v>
+      </c>
+      <c r="U6" s="134">
+        <v>-14.061999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="52">
+        <v>6.6666666666666721E-2</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D7" s="146">
+        <v>-1.0245</v>
+      </c>
+      <c r="E7" s="147">
+        <v>-195</v>
+      </c>
+      <c r="F7" s="147">
+        <v>-17.02</v>
+      </c>
+      <c r="G7" s="147">
+        <v>-0.28097</v>
+      </c>
+      <c r="H7" s="147">
+        <v>-8.6083999999999996</v>
+      </c>
+      <c r="I7" s="147">
+        <v>0.39716000000000001</v>
+      </c>
+      <c r="J7" s="147">
+        <v>-15.497</v>
+      </c>
+      <c r="K7" s="147">
+        <v>19.559000000000001</v>
+      </c>
+      <c r="L7" s="134">
+        <v>-14.164999999999999</v>
+      </c>
+      <c r="M7" s="122">
+        <v>-0.15273999999999999</v>
+      </c>
+      <c r="N7" s="118">
+        <v>-172.8</v>
+      </c>
+      <c r="O7" s="118">
+        <v>-11.032999999999999</v>
+      </c>
+      <c r="P7" s="118">
+        <v>-4.3224999999999998</v>
+      </c>
+      <c r="Q7" s="118">
+        <v>-7.0297000000000001</v>
+      </c>
+      <c r="R7" s="118">
+        <v>-1.2588999999999999</v>
+      </c>
+      <c r="S7" s="118">
+        <v>10.14</v>
+      </c>
+      <c r="T7" s="3">
+        <v>17.335000000000001</v>
+      </c>
+      <c r="U7" s="134">
+        <v>-6.4264999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="53">
+        <v>9.9999999999999936E-2</v>
+      </c>
+      <c r="C8" s="57">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D8" s="148">
+        <v>-1.5396000000000001</v>
+      </c>
+      <c r="E8" s="149">
+        <v>-203.32</v>
+      </c>
+      <c r="F8" s="149">
+        <v>-13.372</v>
+      </c>
+      <c r="G8" s="149">
+        <v>-6.0415999999999999</v>
+      </c>
+      <c r="H8" s="149">
+        <v>-23.056999999999999</v>
+      </c>
+      <c r="I8" s="149">
+        <v>-1.3548</v>
+      </c>
+      <c r="J8" s="149">
+        <v>-11.930999999999999</v>
+      </c>
+      <c r="K8" s="149">
+        <v>20.382999999999999</v>
+      </c>
+      <c r="L8" s="136">
+        <v>0.39867999999999998</v>
+      </c>
+      <c r="M8" s="126">
+        <v>-0.90824000000000005</v>
+      </c>
+      <c r="N8" s="127">
+        <v>-189.97</v>
+      </c>
+      <c r="O8" s="127">
+        <v>-4.5197000000000003</v>
+      </c>
+      <c r="P8" s="127">
+        <v>-8.7174999999999994</v>
+      </c>
+      <c r="Q8" s="127">
+        <v>-27.661000000000001</v>
+      </c>
+      <c r="R8" s="127">
+        <v>-0.32386999999999999</v>
+      </c>
+      <c r="S8" s="127">
+        <v>16.672000000000001</v>
+      </c>
+      <c r="T8" s="49">
+        <v>19.042000000000002</v>
+      </c>
+      <c r="U8" s="136">
+        <v>-26.968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="51">
+        <v>0</v>
+      </c>
+      <c r="C9" s="58">
+        <v>0.15909090909090909</v>
+      </c>
+      <c r="D9" s="144">
+        <v>0.11762</v>
+      </c>
+      <c r="E9" s="145">
+        <v>-81.442999999999998</v>
+      </c>
+      <c r="F9" s="145">
+        <v>0.24160000000000001</v>
+      </c>
+      <c r="G9" s="145">
+        <v>-2.5825</v>
+      </c>
+      <c r="H9" s="145">
+        <v>2.8748999999999998</v>
+      </c>
+      <c r="I9" s="145">
+        <v>-2.1414</v>
+      </c>
+      <c r="J9" s="145">
+        <v>-3.4134000000000002</v>
+      </c>
+      <c r="K9" s="145">
+        <v>8.2142999999999997</v>
+      </c>
+      <c r="L9" s="145">
+        <v>13.545</v>
+      </c>
+      <c r="M9" s="140">
+        <v>-0.44779999999999998</v>
+      </c>
+      <c r="N9" s="133">
+        <v>-52.439</v>
+      </c>
+      <c r="O9" s="133">
+        <v>0.87909000000000004</v>
+      </c>
+      <c r="P9" s="133">
+        <v>-2.5809000000000002</v>
+      </c>
+      <c r="Q9" s="133">
+        <v>0.97331000000000001</v>
+      </c>
+      <c r="R9" s="133">
+        <v>1.0592999999999999</v>
+      </c>
+      <c r="S9" s="133">
+        <v>2.5495000000000001</v>
+      </c>
+      <c r="T9" s="44">
+        <v>5.3098999999999998</v>
+      </c>
+      <c r="U9" s="142">
+        <v>10.526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="52">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="C10" s="54">
+        <v>0.15909090909090909</v>
+      </c>
+      <c r="D10" s="146">
+        <v>-2.0030999999999999</v>
+      </c>
+      <c r="E10" s="147">
+        <v>-123.79</v>
+      </c>
+      <c r="F10" s="147">
+        <v>2.2191999999999998</v>
+      </c>
+      <c r="G10" s="147">
+        <v>-12.669</v>
+      </c>
+      <c r="H10" s="147">
+        <v>-7.8507999999999996</v>
+      </c>
+      <c r="I10" s="147">
+        <v>0.67681000000000002</v>
+      </c>
+      <c r="J10" s="147">
+        <v>-10.558</v>
+      </c>
+      <c r="K10" s="147">
+        <v>12.446999999999999</v>
+      </c>
+      <c r="L10" s="147">
+        <v>-0.53522000000000003</v>
+      </c>
+      <c r="M10" s="122">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="N10" s="118">
+        <v>0.32716000000000001</v>
+      </c>
+      <c r="O10" s="118">
+        <v>11.289</v>
+      </c>
+      <c r="P10" s="118">
+        <v>-15.25</v>
+      </c>
+      <c r="Q10" s="118">
+        <v>-7.1700999999999997</v>
+      </c>
+      <c r="R10" s="118">
+        <v>1.2542</v>
+      </c>
+      <c r="S10" s="118">
+        <v>17.850999999999999</v>
+      </c>
+      <c r="T10" s="3">
+        <v>2.8497999999999999E-2</v>
+      </c>
+      <c r="U10" s="134">
+        <v>2.1139999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="53">
+        <v>0.14090909090909098</v>
+      </c>
+      <c r="C11" s="57">
+        <v>0.15909090909090909</v>
+      </c>
+      <c r="D11" s="148">
+        <v>0.34733000000000003</v>
+      </c>
+      <c r="E11" s="149">
+        <v>-32.326000000000001</v>
+      </c>
+      <c r="F11" s="149">
+        <v>12.788</v>
+      </c>
+      <c r="G11" s="149">
+        <v>-20.943000000000001</v>
+      </c>
+      <c r="H11" s="149">
+        <v>-11.566000000000001</v>
+      </c>
+      <c r="I11" s="149">
+        <v>3.0844</v>
+      </c>
+      <c r="J11" s="149">
+        <v>4.3314000000000004</v>
+      </c>
+      <c r="K11" s="149">
+        <v>3.2915999999999999</v>
+      </c>
+      <c r="L11" s="149">
+        <v>-5.0648999999999997</v>
+      </c>
+      <c r="M11" s="126">
+        <v>0.61890999999999996</v>
+      </c>
+      <c r="N11" s="127">
+        <v>-12.638999999999999</v>
+      </c>
+      <c r="O11" s="127">
+        <v>2.2761</v>
+      </c>
+      <c r="P11" s="127">
+        <v>2.8654999999999999</v>
+      </c>
+      <c r="Q11" s="127">
+        <v>5.4404000000000003</v>
+      </c>
+      <c r="R11" s="127">
+        <v>1.4087000000000001</v>
+      </c>
+      <c r="S11" s="127">
+        <v>2.8153999999999999</v>
+      </c>
+      <c r="T11" s="49">
+        <v>1.2542</v>
+      </c>
+      <c r="U11" s="136">
+        <v>4.8281000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="52">
+        <v>0</v>
+      </c>
+      <c r="C12" s="54">
+        <v>0.15175097276264587</v>
+      </c>
+      <c r="D12" s="140">
+        <v>0.30271999999999999</v>
+      </c>
+      <c r="E12" s="133">
+        <v>-62.170999999999999</v>
+      </c>
+      <c r="F12" s="133">
+        <v>2.2332000000000001</v>
+      </c>
+      <c r="G12" s="133">
+        <v>-2.5506000000000002</v>
+      </c>
+      <c r="H12" s="133">
+        <v>3.9817999999999998</v>
+      </c>
+      <c r="I12" s="133">
+        <v>-1.4577</v>
+      </c>
+      <c r="J12" s="133">
+        <v>-3.222</v>
+      </c>
+      <c r="K12" s="133">
+        <v>6.2859999999999996</v>
+      </c>
+      <c r="L12" s="141">
+        <v>12.503</v>
+      </c>
+      <c r="M12" s="140">
+        <v>0.33611999999999997</v>
+      </c>
+      <c r="N12" s="133">
+        <v>-18.817</v>
+      </c>
+      <c r="O12" s="133">
+        <v>4.1753999999999998</v>
+      </c>
+      <c r="P12" s="133">
+        <v>-2.7096</v>
+      </c>
+      <c r="Q12" s="133">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="R12" s="133">
+        <v>1.1386000000000001</v>
+      </c>
+      <c r="S12" s="133">
+        <v>6.5682999999999998</v>
+      </c>
+      <c r="T12" s="44">
+        <v>1.9449000000000001</v>
+      </c>
+      <c r="U12" s="142">
+        <v>9.4631000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="52">
+        <v>2.7237354085603085E-2</v>
+      </c>
+      <c r="C13" s="54">
+        <v>0.15175097276264587</v>
+      </c>
+      <c r="D13" s="122">
+        <v>-2.6251000000000002</v>
+      </c>
+      <c r="E13" s="118">
+        <v>-122.19</v>
+      </c>
+      <c r="F13" s="118">
+        <v>1.2003999999999999</v>
+      </c>
+      <c r="G13" s="118">
+        <v>-7.4591000000000003</v>
+      </c>
+      <c r="H13" s="118">
+        <v>5.9443999999999999</v>
+      </c>
+      <c r="I13" s="118">
+        <v>-1.3875999999999999</v>
+      </c>
+      <c r="J13" s="118">
+        <v>-10.829000000000001</v>
+      </c>
+      <c r="K13" s="118">
+        <v>12.291</v>
+      </c>
+      <c r="L13" s="123">
+        <v>-1.2983</v>
+      </c>
+      <c r="M13" s="122">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="N13" s="118">
+        <v>-20.390999999999998</v>
+      </c>
+      <c r="O13" s="118">
+        <v>8.2360000000000007</v>
+      </c>
+      <c r="P13" s="118">
+        <v>-9.1881000000000004</v>
+      </c>
+      <c r="Q13" s="118">
+        <v>4.6184000000000003</v>
+      </c>
+      <c r="R13" s="118">
+        <v>-0.92452000000000001</v>
+      </c>
+      <c r="S13" s="118">
+        <v>15.913</v>
+      </c>
+      <c r="T13" s="3">
+        <v>2.1057000000000001</v>
+      </c>
+      <c r="U13" s="134">
+        <v>-7.1691000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="52">
+        <v>5.8365758754863814E-2</v>
+      </c>
+      <c r="C14" s="54">
+        <v>0.15175097276264587</v>
+      </c>
+      <c r="D14" s="122">
+        <v>-4.4539999999999997</v>
+      </c>
+      <c r="E14" s="118">
+        <v>-236.86</v>
+      </c>
+      <c r="F14" s="118">
+        <v>-10.430999999999999</v>
+      </c>
+      <c r="G14" s="118">
+        <v>-4.6643999999999997</v>
+      </c>
+      <c r="H14" s="118">
+        <v>-11.074999999999999</v>
+      </c>
+      <c r="I14" s="118">
+        <v>-3.0769000000000002</v>
+      </c>
+      <c r="J14" s="118">
+        <v>-11.698</v>
+      </c>
+      <c r="K14" s="118">
+        <v>23.754999999999999</v>
+      </c>
+      <c r="L14" s="123">
+        <v>-2.9097</v>
+      </c>
+      <c r="M14" s="122">
+        <v>-0.42759999999999998</v>
+      </c>
+      <c r="N14" s="118">
+        <v>-191.15</v>
+      </c>
+      <c r="O14" s="118">
+        <v>-8.1915999999999993</v>
+      </c>
+      <c r="P14" s="118">
+        <v>-3.9922</v>
+      </c>
+      <c r="Q14" s="118">
+        <v>-15.352</v>
+      </c>
+      <c r="R14" s="118">
+        <v>-2.0750999999999999</v>
+      </c>
+      <c r="S14" s="118">
+        <v>10.234</v>
+      </c>
+      <c r="T14" s="3">
+        <v>19.177</v>
+      </c>
+      <c r="U14" s="134">
+        <v>-14.769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="52">
+        <v>0.12062256809338513</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0.15175097276264587</v>
+      </c>
+      <c r="D15" s="126">
+        <v>-2.7572000000000001</v>
+      </c>
+      <c r="E15" s="127">
+        <v>-174.76</v>
+      </c>
+      <c r="F15" s="127">
+        <v>-2.3965999999999998</v>
+      </c>
+      <c r="G15" s="127">
+        <v>-9.8663000000000007</v>
+      </c>
+      <c r="H15" s="127">
+        <v>-11.192</v>
+      </c>
+      <c r="I15" s="127">
+        <v>-1.8243</v>
+      </c>
+      <c r="J15" s="127">
+        <v>-0.51114000000000004</v>
+      </c>
+      <c r="K15" s="127">
+        <v>17.533000000000001</v>
+      </c>
+      <c r="L15" s="143">
+        <v>-18.893999999999998</v>
+      </c>
+      <c r="M15" s="126">
+        <v>0.28503000000000001</v>
+      </c>
+      <c r="N15" s="127">
+        <v>-34.679000000000002</v>
+      </c>
+      <c r="O15" s="127">
+        <v>11.044</v>
+      </c>
+      <c r="P15" s="127">
+        <v>-12.092000000000001</v>
+      </c>
+      <c r="Q15" s="127">
+        <v>-2.2652000000000001</v>
+      </c>
+      <c r="R15" s="127">
+        <v>0.23315</v>
+      </c>
+      <c r="S15" s="127">
+        <v>13.01</v>
+      </c>
+      <c r="T15" s="49">
+        <v>3.5118</v>
+      </c>
+      <c r="U15" s="136">
+        <v>-8.4347999999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="51">
+        <v>0</v>
+      </c>
+      <c r="C16" s="58">
+        <v>0.16370106761565842</v>
+      </c>
+      <c r="D16" s="122">
+        <v>0.36532999999999999</v>
+      </c>
+      <c r="E16" s="118">
+        <v>-52.441000000000003</v>
+      </c>
+      <c r="F16" s="118">
+        <v>2.6497000000000002</v>
+      </c>
+      <c r="G16" s="118">
+        <v>-1.6591</v>
+      </c>
+      <c r="H16" s="118">
+        <v>6.5846999999999998</v>
+      </c>
+      <c r="I16" s="118">
+        <v>-1.1065</v>
+      </c>
+      <c r="J16" s="118">
+        <v>-2.3748</v>
+      </c>
+      <c r="K16" s="118">
+        <v>5.3150000000000004</v>
+      </c>
+      <c r="L16" s="123">
+        <v>11.352</v>
+      </c>
+      <c r="M16" s="122">
+        <v>0.11663</v>
+      </c>
+      <c r="N16" s="118">
+        <v>-11.324</v>
+      </c>
+      <c r="O16" s="118">
+        <v>5.7057000000000002</v>
+      </c>
+      <c r="P16" s="118">
+        <v>-2.4161000000000001</v>
+      </c>
+      <c r="Q16" s="118">
+        <v>5.1359000000000004</v>
+      </c>
+      <c r="R16" s="118">
+        <v>0.90820999999999996</v>
+      </c>
+      <c r="S16" s="118">
+        <v>5.6952999999999996</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1.1987000000000001</v>
+      </c>
+      <c r="U16" s="134">
+        <v>9.2192000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="52">
+        <v>6.0498220640569492E-2</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0.16370106761565842</v>
+      </c>
+      <c r="D17" s="122">
+        <v>-1.7504999999999999</v>
+      </c>
+      <c r="E17" s="118">
+        <v>-46.872</v>
+      </c>
+      <c r="F17" s="118">
+        <v>11.007</v>
+      </c>
+      <c r="G17" s="118">
+        <v>-11.811</v>
+      </c>
+      <c r="H17" s="118">
+        <v>5.3025000000000002</v>
+      </c>
+      <c r="I17" s="118">
+        <v>2.6848000000000001</v>
+      </c>
+      <c r="J17" s="118">
+        <v>-8.077</v>
+      </c>
+      <c r="K17" s="118">
+        <v>4.7591999999999999</v>
+      </c>
+      <c r="L17" s="123">
+        <v>4.6032000000000002</v>
+      </c>
+      <c r="M17" s="122">
+        <v>7.7407000000000004E-2</v>
+      </c>
+      <c r="N17" s="118">
+        <v>-78.685000000000002</v>
+      </c>
+      <c r="O17" s="118">
+        <v>4.3616999999999999</v>
+      </c>
+      <c r="P17" s="118">
+        <v>-7.9272999999999998</v>
+      </c>
+      <c r="Q17" s="118">
+        <v>-13.618</v>
+      </c>
+      <c r="R17" s="118">
+        <v>-1.5740000000000001</v>
+      </c>
+      <c r="S17" s="118">
+        <v>22.798999999999999</v>
+      </c>
+      <c r="T17" s="3">
+        <v>7.9340999999999999</v>
+      </c>
+      <c r="U17" s="134">
+        <v>-21.030999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="52">
+        <v>9.964412811387903E-2</v>
+      </c>
+      <c r="C18" s="54">
+        <v>0.16370106761565842</v>
+      </c>
+      <c r="D18" s="122">
+        <v>-1.1762999999999999</v>
+      </c>
+      <c r="E18" s="118">
+        <v>-147.69999999999999</v>
+      </c>
+      <c r="F18" s="118">
+        <v>0.57830999999999999</v>
+      </c>
+      <c r="G18" s="118">
+        <v>-9.2867999999999995</v>
+      </c>
+      <c r="H18" s="118">
+        <v>-9.2269000000000005</v>
+      </c>
+      <c r="I18" s="118">
+        <v>-1.0376000000000001</v>
+      </c>
+      <c r="J18" s="118">
+        <v>-14.173999999999999</v>
+      </c>
+      <c r="K18" s="118">
+        <v>14.831</v>
+      </c>
+      <c r="L18" s="123">
+        <v>-1.1712</v>
+      </c>
+      <c r="M18" s="122">
+        <v>9.3332999999999999E-2</v>
+      </c>
+      <c r="N18" s="118">
+        <v>-54.652999999999999</v>
+      </c>
+      <c r="O18" s="118">
+        <v>3.2770999999999999</v>
+      </c>
+      <c r="P18" s="118">
+        <v>-8.5608000000000004</v>
+      </c>
+      <c r="Q18" s="118">
+        <v>-2.2042999999999999</v>
+      </c>
+      <c r="R18" s="118">
+        <v>0.86284000000000005</v>
+      </c>
+      <c r="S18" s="118">
+        <v>12.632</v>
+      </c>
+      <c r="T18" s="3">
+        <v>5.5179</v>
+      </c>
+      <c r="U18" s="134">
+        <v>-7.7309999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="53">
+        <v>0.14590747330960857</v>
+      </c>
+      <c r="C19" s="57">
+        <v>0.16370106761565842</v>
+      </c>
+      <c r="D19" s="126">
+        <v>-2.1554000000000002</v>
+      </c>
+      <c r="E19" s="127">
+        <v>-143.76</v>
+      </c>
+      <c r="F19" s="127">
+        <v>9.0713000000000008</v>
+      </c>
+      <c r="G19" s="127">
+        <v>-13.983000000000001</v>
+      </c>
+      <c r="H19" s="127">
+        <v>-22.608000000000001</v>
+      </c>
+      <c r="I19" s="127">
+        <v>-2.6248</v>
+      </c>
+      <c r="J19" s="127">
+        <v>3.0617000000000001</v>
+      </c>
+      <c r="K19" s="127">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="L19" s="143">
+        <v>-23.06</v>
+      </c>
+      <c r="M19" s="126">
+        <v>0.61821999999999999</v>
+      </c>
+      <c r="N19" s="127">
+        <v>-12.673</v>
+      </c>
+      <c r="O19" s="127">
+        <v>2.2810000000000001</v>
+      </c>
+      <c r="P19" s="127">
+        <v>2.8597000000000001</v>
+      </c>
+      <c r="Q19" s="127">
+        <v>5.4363000000000001</v>
+      </c>
+      <c r="R19" s="127">
+        <v>1.4076</v>
+      </c>
+      <c r="S19" s="127">
+        <v>2.8153999999999999</v>
+      </c>
+      <c r="T19" s="49">
+        <v>1.2543</v>
+      </c>
+      <c r="U19" s="136">
+        <v>4.8289999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="51">
+        <v>0</v>
+      </c>
+      <c r="C20" s="58">
+        <v>0.14590747330960857</v>
+      </c>
+      <c r="D20" s="140">
+        <v>2.0253E-2</v>
+      </c>
+      <c r="E20" s="133">
+        <v>-96.725999999999999</v>
+      </c>
+      <c r="F20" s="133">
+        <v>-1.9977</v>
+      </c>
+      <c r="G20" s="133">
+        <v>-0.50956000000000001</v>
+      </c>
+      <c r="H20" s="133">
+        <v>5.2313000000000001</v>
+      </c>
+      <c r="I20" s="133">
+        <v>-2.6738</v>
+      </c>
+      <c r="J20" s="120">
+        <v>-5.1687000000000003</v>
+      </c>
+      <c r="K20" s="120">
+        <v>9.7445000000000004</v>
+      </c>
+      <c r="L20" s="121">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="M20" s="119">
+        <v>6.3047000000000006E-2</v>
+      </c>
+      <c r="N20" s="120">
+        <v>-17.193999999999999</v>
+      </c>
+      <c r="O20" s="120">
+        <v>5.8102999999999998</v>
+      </c>
+      <c r="P20" s="133">
+        <v>-3.0207999999999999</v>
+      </c>
+      <c r="Q20" s="133">
+        <v>6.0452000000000004</v>
+      </c>
+      <c r="R20" s="133">
+        <v>1.4394</v>
+      </c>
+      <c r="S20" s="133">
+        <v>3.8174000000000001</v>
+      </c>
+      <c r="T20" s="44">
+        <v>1.786</v>
+      </c>
+      <c r="U20" s="142">
+        <v>8.3911999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="52">
+        <v>4.2704626334519671E-2</v>
+      </c>
+      <c r="C21" s="54">
+        <v>0.14590747330960857</v>
+      </c>
+      <c r="D21" s="122">
+        <v>-2.7054999999999998</v>
+      </c>
+      <c r="E21" s="118">
+        <v>-143.71</v>
+      </c>
+      <c r="F21" s="118">
+        <v>0.61726999999999999</v>
+      </c>
+      <c r="G21" s="118">
+        <v>-8.16</v>
+      </c>
+      <c r="H21" s="118">
+        <v>0.71565000000000001</v>
+      </c>
+      <c r="I21" s="118">
+        <v>9.1567999999999997E-2</v>
+      </c>
+      <c r="J21" s="117">
+        <v>-15.417999999999999</v>
+      </c>
+      <c r="K21" s="117">
+        <v>14.445</v>
+      </c>
+      <c r="L21" s="124">
+        <v>-2.4670999999999998</v>
+      </c>
+      <c r="M21" s="125">
+        <v>0.56972</v>
+      </c>
+      <c r="N21" s="117">
+        <v>-74.608999999999995</v>
+      </c>
+      <c r="O21" s="117">
+        <v>6.1196000000000002</v>
+      </c>
+      <c r="P21" s="118">
+        <v>-8.9961000000000002</v>
+      </c>
+      <c r="Q21" s="118">
+        <v>-12.542</v>
+      </c>
+      <c r="R21" s="118">
+        <v>-0.18448999999999999</v>
+      </c>
+      <c r="S21" s="118">
+        <v>14.624000000000001</v>
+      </c>
+      <c r="T21" s="3">
+        <v>7.5279999999999996</v>
+      </c>
+      <c r="U21" s="134">
+        <v>-11.696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="52">
+        <v>7.8291814946619312E-2</v>
+      </c>
+      <c r="C22" s="54">
+        <v>0.14590747330960857</v>
+      </c>
+      <c r="D22" s="122">
+        <v>-1.7605999999999999</v>
+      </c>
+      <c r="E22" s="118">
+        <v>-110.76</v>
+      </c>
+      <c r="F22" s="118">
+        <v>4.2702</v>
+      </c>
+      <c r="G22" s="118">
+        <v>-11.15</v>
+      </c>
+      <c r="H22" s="118">
+        <v>-3.0038999999999998</v>
+      </c>
+      <c r="I22" s="118">
+        <v>2.2372999999999998</v>
+      </c>
+      <c r="J22" s="117">
+        <v>-13.916</v>
+      </c>
+      <c r="K22" s="117">
+        <v>11.145</v>
+      </c>
+      <c r="L22" s="124">
+        <v>-0.36942999999999998</v>
+      </c>
+      <c r="M22" s="125">
+        <v>0.61558000000000002</v>
+      </c>
+      <c r="N22" s="117">
+        <v>-50.067</v>
+      </c>
+      <c r="O22" s="117">
+        <v>5.4813999999999998</v>
+      </c>
+      <c r="P22" s="118">
+        <v>-10.057</v>
+      </c>
+      <c r="Q22" s="118">
+        <v>-1.9735</v>
+      </c>
+      <c r="R22" s="118">
+        <v>0.51741999999999999</v>
+      </c>
+      <c r="S22" s="118">
+        <v>12.984</v>
+      </c>
+      <c r="T22" s="3">
+        <v>5.0679999999999996</v>
+      </c>
+      <c r="U22" s="134">
+        <v>-6.3330000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="53">
+        <v>0.11743772241992885</v>
+      </c>
+      <c r="C23" s="57">
+        <v>0.14590747330960857</v>
+      </c>
+      <c r="D23" s="126">
+        <v>-1.3996</v>
+      </c>
+      <c r="E23" s="127">
+        <v>-25.449000000000002</v>
+      </c>
+      <c r="F23" s="127">
+        <v>11.907999999999999</v>
+      </c>
+      <c r="G23" s="127">
+        <v>-14.863</v>
+      </c>
+      <c r="H23" s="127">
+        <v>4.2558999999999996</v>
+      </c>
+      <c r="I23" s="127">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="J23" s="128">
+        <v>4.6393000000000004</v>
+      </c>
+      <c r="K23" s="128">
+        <v>2.6052</v>
+      </c>
+      <c r="L23" s="129">
+        <v>-11.409000000000001</v>
+      </c>
+      <c r="M23" s="135">
+        <v>0.48504999999999998</v>
+      </c>
+      <c r="N23" s="128">
+        <v>-49.402000000000001</v>
+      </c>
+      <c r="O23" s="128">
+        <v>4.8667999999999996</v>
+      </c>
+      <c r="P23" s="127">
+        <v>-9.8699999999999992</v>
+      </c>
+      <c r="Q23" s="127">
+        <v>-4.7282000000000002</v>
+      </c>
+      <c r="R23" s="127">
+        <v>0.45667999999999997</v>
+      </c>
+      <c r="S23" s="127">
+        <v>12.805999999999999</v>
+      </c>
+      <c r="T23" s="49">
+        <v>4.9903000000000004</v>
+      </c>
+      <c r="U23" s="136">
+        <v>-6.2267999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="52">
+        <v>0</v>
+      </c>
+      <c r="C24" s="55">
+        <v>0.22448979591836743</v>
+      </c>
+      <c r="D24" s="140">
+        <v>4.1081000000000003</v>
+      </c>
+      <c r="E24" s="133">
+        <v>-86.870999999999995</v>
+      </c>
+      <c r="F24" s="133">
+        <v>-2.0537000000000001</v>
+      </c>
+      <c r="G24" s="133">
+        <v>-7.7523</v>
+      </c>
+      <c r="H24" s="133">
+        <v>7.6155999999999997</v>
+      </c>
+      <c r="I24" s="133">
+        <v>4.0735000000000001</v>
+      </c>
+      <c r="J24" s="120">
+        <v>-9.9522999999999993</v>
+      </c>
+      <c r="K24" s="120">
+        <v>4.4302999999999999</v>
+      </c>
+      <c r="L24" s="121">
+        <v>5.8593999999999999</v>
+      </c>
+      <c r="M24" s="119">
+        <v>1.8922000000000001</v>
+      </c>
+      <c r="N24" s="120">
+        <v>-75.656000000000006</v>
+      </c>
+      <c r="O24" s="120">
+        <v>-8.9059000000000008</v>
+      </c>
+      <c r="P24" s="133">
+        <v>6.1264000000000003</v>
+      </c>
+      <c r="Q24" s="133">
+        <v>0.34098000000000001</v>
+      </c>
+      <c r="R24" s="133">
+        <v>1.2392000000000001</v>
+      </c>
+      <c r="S24" s="133">
+        <v>-0.11892999999999999</v>
+      </c>
+      <c r="T24" s="44">
+        <v>3.8666999999999998</v>
+      </c>
+      <c r="U24" s="142">
+        <v>-1.0390999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="52">
+        <v>0.13265306122448986</v>
+      </c>
+      <c r="C25" s="55">
+        <v>0.22448979591836743</v>
+      </c>
+      <c r="D25" s="122">
+        <v>6.9478</v>
+      </c>
+      <c r="E25" s="118">
+        <v>-56.582999999999998</v>
+      </c>
+      <c r="F25" s="118">
+        <v>-38.71</v>
+      </c>
+      <c r="G25" s="118">
+        <v>41.542000000000002</v>
+      </c>
+      <c r="H25" s="118">
+        <v>-253.52</v>
+      </c>
+      <c r="I25" s="118">
+        <v>4.1860999999999997</v>
+      </c>
+      <c r="J25" s="117">
+        <v>24.507999999999999</v>
+      </c>
+      <c r="K25" s="117">
+        <v>2.8713000000000002</v>
+      </c>
+      <c r="L25" s="124">
+        <v>196.6</v>
+      </c>
+      <c r="M25" s="125">
+        <v>-16.370999999999999</v>
+      </c>
+      <c r="N25" s="117">
+        <v>-33.091000000000001</v>
+      </c>
+      <c r="O25" s="117">
+        <v>-26.067</v>
+      </c>
+      <c r="P25" s="118">
+        <v>25.460999999999999</v>
+      </c>
+      <c r="Q25" s="118">
+        <v>154.34</v>
+      </c>
+      <c r="R25" s="118">
+        <v>7.0884</v>
+      </c>
+      <c r="S25" s="118">
+        <v>-22.478000000000002</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1.6954</v>
+      </c>
+      <c r="U25" s="134">
+        <v>54.234999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="52">
+        <v>0.20408163265306131</v>
+      </c>
+      <c r="C26" s="55">
+        <v>0.22448979591836743</v>
+      </c>
+      <c r="D26" s="126">
+        <v>0.20502999999999999</v>
+      </c>
+      <c r="E26" s="127">
+        <v>-148.16</v>
+      </c>
+      <c r="F26" s="127">
+        <v>-16.940000000000001</v>
+      </c>
+      <c r="G26" s="127">
+        <v>7.2615999999999996</v>
+      </c>
+      <c r="H26" s="127">
+        <v>-4.7667999999999999</v>
+      </c>
+      <c r="I26" s="127">
+        <v>-0.54754000000000003</v>
+      </c>
+      <c r="J26" s="128">
+        <v>7.8263999999999996</v>
+      </c>
+      <c r="K26" s="128">
+        <v>7.4337999999999997</v>
+      </c>
+      <c r="L26" s="129">
+        <v>12.669</v>
+      </c>
+      <c r="M26" s="135">
+        <v>1.91</v>
+      </c>
+      <c r="N26" s="128">
+        <v>-145.79</v>
+      </c>
+      <c r="O26" s="128">
+        <v>-12.752000000000001</v>
+      </c>
+      <c r="P26" s="127">
+        <v>2.6358999999999999</v>
+      </c>
+      <c r="Q26" s="127">
+        <v>-7.4954999999999998</v>
+      </c>
+      <c r="R26" s="127">
+        <v>-1.8769</v>
+      </c>
+      <c r="S26" s="127">
+        <v>5.0731999999999999</v>
+      </c>
+      <c r="T26" s="49">
+        <v>7.3137999999999996</v>
+      </c>
+      <c r="U26" s="136">
+        <v>8.0754999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="51">
+        <v>0</v>
+      </c>
+      <c r="C27" s="59">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="D27" s="119">
+        <v>3.9788999999999999</v>
+      </c>
+      <c r="E27" s="120">
+        <v>-46.371000000000002</v>
+      </c>
+      <c r="F27" s="120">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="G27" s="120">
+        <v>-6.2805999999999997</v>
+      </c>
+      <c r="H27" s="133">
+        <v>10.281000000000001</v>
+      </c>
+      <c r="I27" s="133">
+        <v>3.7357999999999998</v>
+      </c>
+      <c r="J27" s="133">
+        <v>-12.525</v>
+      </c>
+      <c r="K27" s="133">
+        <v>2.4096000000000002</v>
+      </c>
+      <c r="L27" s="141">
+        <v>9.9717000000000002</v>
+      </c>
+      <c r="M27" s="140">
+        <v>-2.09</v>
+      </c>
+      <c r="N27" s="133">
+        <v>-47.606000000000002</v>
+      </c>
+      <c r="O27" s="133">
+        <v>-0.43118000000000001</v>
+      </c>
+      <c r="P27" s="133">
+        <v>-5.9588000000000001</v>
+      </c>
+      <c r="Q27" s="133">
+        <v>-3.7559</v>
+      </c>
+      <c r="R27" s="133">
+        <v>6.5609999999999999</v>
+      </c>
+      <c r="S27" s="133">
+        <v>4.0868000000000002</v>
+      </c>
+      <c r="T27" s="44">
+        <v>2.4714999999999998</v>
+      </c>
+      <c r="U27" s="142">
+        <v>9.8011999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="52">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C28" s="55">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="D28" s="125">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E28" s="117">
+        <v>-120.28</v>
+      </c>
+      <c r="F28" s="117">
+        <v>-12.066000000000001</v>
+      </c>
+      <c r="G28" s="117">
+        <v>1.0046999999999999</v>
+      </c>
+      <c r="H28" s="118">
+        <v>0.18396000000000001</v>
+      </c>
+      <c r="I28" s="118">
+        <v>4.0011999999999999</v>
+      </c>
+      <c r="J28" s="118">
+        <v>0.2349</v>
+      </c>
+      <c r="K28" s="118">
+        <v>6.0796999999999999</v>
+      </c>
+      <c r="L28" s="123">
+        <v>0.54674</v>
+      </c>
+      <c r="M28" s="122">
+        <v>11.791</v>
+      </c>
+      <c r="N28" s="118">
+        <v>-123.68</v>
+      </c>
+      <c r="O28" s="118">
+        <v>-18.271000000000001</v>
+      </c>
+      <c r="P28" s="118">
+        <v>10.975</v>
+      </c>
+      <c r="Q28" s="118">
+        <v>-100.98</v>
+      </c>
+      <c r="R28" s="118">
+        <v>0.33209</v>
+      </c>
+      <c r="S28" s="118">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="T28" s="3">
+        <v>6.2493999999999996</v>
+      </c>
+      <c r="U28" s="134">
+        <v>13.996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="53">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C29" s="56">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="D29" s="135">
+        <v>-0.50504000000000004</v>
+      </c>
+      <c r="E29" s="128">
+        <v>-132.21</v>
+      </c>
+      <c r="F29" s="128">
+        <v>-20.175999999999998</v>
+      </c>
+      <c r="G29" s="128">
+        <v>10.138</v>
+      </c>
+      <c r="H29" s="127">
+        <v>-29.99</v>
+      </c>
+      <c r="I29" s="127">
+        <v>-1.6402000000000001</v>
+      </c>
+      <c r="J29" s="127">
+        <v>16.760999999999999</v>
+      </c>
+      <c r="K29" s="127">
+        <v>6.6554000000000002</v>
+      </c>
+      <c r="L29" s="143">
+        <v>38.155999999999999</v>
+      </c>
+      <c r="M29" s="126">
+        <v>-15.795</v>
+      </c>
+      <c r="N29" s="127">
+        <v>-55.234999999999999</v>
+      </c>
+      <c r="O29" s="127">
+        <v>-25.138000000000002</v>
+      </c>
+      <c r="P29" s="127">
+        <v>19.289000000000001</v>
+      </c>
+      <c r="Q29" s="127">
+        <v>145.1</v>
+      </c>
+      <c r="R29" s="127">
+        <v>6.5373999999999999</v>
+      </c>
+      <c r="S29" s="127">
+        <v>-20.25</v>
+      </c>
+      <c r="T29" s="49">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="U29" s="136">
+        <v>48.593000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="52">
+        <v>0</v>
+      </c>
+      <c r="C30" s="55">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D30" s="119">
+        <v>4.6760000000000002</v>
+      </c>
+      <c r="E30" s="120">
+        <v>-62.959000000000003</v>
+      </c>
+      <c r="F30" s="120">
+        <v>-4.4667000000000003</v>
+      </c>
+      <c r="G30" s="120">
+        <v>-4.4866000000000001</v>
+      </c>
+      <c r="H30" s="133">
+        <v>8.9542000000000002</v>
+      </c>
+      <c r="I30" s="133">
+        <v>2.9653</v>
+      </c>
+      <c r="J30" s="120">
+        <v>-8.8863000000000003</v>
+      </c>
+      <c r="K30" s="120">
+        <v>3.2572999999999999</v>
+      </c>
+      <c r="L30" s="121">
+        <v>9.2225000000000001</v>
+      </c>
+      <c r="M30" s="119">
+        <v>-0.89464999999999995</v>
+      </c>
+      <c r="N30" s="120">
+        <v>-67.665000000000006</v>
+      </c>
+      <c r="O30" s="120">
+        <v>-2.6949999999999998</v>
+      </c>
+      <c r="P30" s="133">
+        <v>-5.7282000000000002</v>
+      </c>
+      <c r="Q30" s="133">
+        <v>-9.9219000000000008</v>
+      </c>
+      <c r="R30" s="133">
+        <v>7.4881000000000002</v>
+      </c>
+      <c r="S30" s="133">
+        <v>4.3714000000000004</v>
+      </c>
+      <c r="T30" s="44">
+        <v>3.4908000000000001</v>
+      </c>
+      <c r="U30" s="142">
+        <v>9.4243000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="52">
+        <v>2.6666666666666731E-2</v>
+      </c>
+      <c r="C31" s="55">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D31" s="125">
+        <v>2.5430999999999999</v>
+      </c>
+      <c r="E31" s="117">
+        <v>-70.027000000000001</v>
+      </c>
+      <c r="F31" s="117">
+        <v>1.5405</v>
+      </c>
+      <c r="G31" s="117">
+        <v>-13.683</v>
+      </c>
+      <c r="H31" s="118">
+        <v>8.5996000000000006</v>
+      </c>
+      <c r="I31" s="118">
+        <v>-6.7466999999999999E-2</v>
+      </c>
+      <c r="J31" s="117">
+        <v>-9.2927</v>
+      </c>
+      <c r="K31" s="117">
+        <v>3.5933999999999999</v>
+      </c>
+      <c r="L31" s="124">
+        <v>18.888999999999999</v>
+      </c>
+      <c r="M31" s="125">
+        <v>1.1221000000000001</v>
+      </c>
+      <c r="N31" s="117">
+        <v>-68.001999999999995</v>
+      </c>
+      <c r="O31" s="117">
+        <v>-0.15085999999999999</v>
+      </c>
+      <c r="P31" s="118">
+        <v>-11.712</v>
+      </c>
+      <c r="Q31" s="118">
+        <v>-4.8654999999999999</v>
+      </c>
+      <c r="R31" s="118">
+        <v>-2.5211999999999998E-2</v>
+      </c>
+      <c r="S31" s="118">
+        <v>5.1736000000000004</v>
+      </c>
+      <c r="T31" s="3">
+        <v>3.4903</v>
+      </c>
+      <c r="U31" s="134">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="52">
+        <v>7.111111111111118E-2</v>
+      </c>
+      <c r="C32" s="55">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D32" s="135">
+        <v>2.5236999999999998</v>
+      </c>
+      <c r="E32" s="128">
+        <v>-146.34</v>
+      </c>
+      <c r="F32" s="128">
+        <v>-3.27</v>
+      </c>
+      <c r="G32" s="128">
+        <v>-10.263999999999999</v>
+      </c>
+      <c r="H32" s="127">
+        <v>-8.3668999999999993</v>
+      </c>
+      <c r="I32" s="127">
+        <v>1.5076000000000001</v>
+      </c>
+      <c r="J32" s="128">
+        <v>-3.9817999999999998</v>
+      </c>
+      <c r="K32" s="128">
+        <v>7.3922999999999996</v>
+      </c>
+      <c r="L32" s="129">
+        <v>-4.6486999999999998</v>
+      </c>
+      <c r="M32" s="135">
+        <v>1.478</v>
+      </c>
+      <c r="N32" s="128">
+        <v>-90.028999999999996</v>
+      </c>
+      <c r="O32" s="128">
+        <v>1.3775999999999999</v>
+      </c>
+      <c r="P32" s="127">
+        <v>-13.615</v>
+      </c>
+      <c r="Q32" s="127">
+        <v>8.9337</v>
+      </c>
+      <c r="R32" s="127">
+        <v>0.56616999999999995</v>
+      </c>
+      <c r="S32" s="127">
+        <v>0.51436999999999999</v>
+      </c>
+      <c r="T32" s="49">
+        <v>4.5747</v>
+      </c>
+      <c r="U32" s="136">
+        <v>9.4882000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="51">
+        <v>0</v>
+      </c>
+      <c r="C33" s="59">
+        <v>0.24452554744525545</v>
+      </c>
+      <c r="D33" s="140">
+        <v>8.1687999999999992</v>
+      </c>
+      <c r="E33" s="133">
+        <v>-29.175000000000001</v>
+      </c>
+      <c r="F33" s="133">
+        <v>-9.9099000000000004</v>
+      </c>
+      <c r="G33" s="133">
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="H33" s="133">
+        <v>19.297999999999998</v>
+      </c>
+      <c r="I33" s="133">
+        <v>3.8601000000000001</v>
+      </c>
+      <c r="J33" s="133">
+        <v>-21.831</v>
+      </c>
+      <c r="K33" s="133">
+        <v>1.5745</v>
+      </c>
+      <c r="L33" s="141">
+        <v>15.08</v>
+      </c>
+      <c r="M33" s="140">
+        <v>-1.5144</v>
+      </c>
+      <c r="N33" s="133">
+        <v>-59.365000000000002</v>
+      </c>
+      <c r="O33" s="133">
+        <v>-4.7648999999999999</v>
+      </c>
+      <c r="P33" s="133">
+        <v>-1.3531</v>
+      </c>
+      <c r="Q33" s="133">
+        <v>-9.5587</v>
+      </c>
+      <c r="R33" s="133">
+        <v>7.8682999999999996</v>
+      </c>
+      <c r="S33" s="133">
+        <v>3.5301999999999998</v>
+      </c>
+      <c r="T33" s="44">
+        <v>3.0827</v>
+      </c>
+      <c r="U33" s="142">
+        <v>6.8985000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="52">
+        <v>4.7445255474452455E-2</v>
+      </c>
+      <c r="C34" s="55">
+        <v>0.24452554744525545</v>
+      </c>
+      <c r="D34" s="122">
+        <v>1.5909</v>
+      </c>
+      <c r="E34" s="118">
+        <v>-95.483999999999995</v>
+      </c>
+      <c r="F34" s="118">
+        <v>1.9131</v>
+      </c>
+      <c r="G34" s="118">
+        <v>-11.927</v>
+      </c>
+      <c r="H34" s="118">
+        <v>1.1365000000000001</v>
+      </c>
+      <c r="I34" s="118">
+        <v>-3.5268999999999999</v>
+      </c>
+      <c r="J34" s="118">
+        <v>3.2776000000000001</v>
+      </c>
+      <c r="K34" s="118">
+        <v>4.8766999999999996</v>
+      </c>
+      <c r="L34" s="123">
+        <v>14.936</v>
+      </c>
+      <c r="M34" s="122">
+        <v>1.4681</v>
+      </c>
+      <c r="N34" s="118">
+        <v>-101.38</v>
+      </c>
+      <c r="O34" s="118">
+        <v>0.57962000000000002</v>
+      </c>
+      <c r="P34" s="118">
+        <v>-10.292</v>
+      </c>
+      <c r="Q34" s="118">
+        <v>-5.0022000000000002</v>
+      </c>
+      <c r="R34" s="118">
+        <v>2.742</v>
+      </c>
+      <c r="S34" s="118">
+        <v>5.3800999999999997</v>
+      </c>
+      <c r="T34" s="3">
+        <v>5.1703999999999999</v>
+      </c>
+      <c r="U34" s="134">
+        <v>-3.4754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="52">
+        <v>8.0291970802919679E-2</v>
+      </c>
+      <c r="C35" s="55">
+        <v>0.24452554744525545</v>
+      </c>
+      <c r="D35" s="122">
+        <v>1.6073</v>
+      </c>
+      <c r="E35" s="118">
+        <v>-91.153000000000006</v>
+      </c>
+      <c r="F35" s="118">
+        <v>-0.71841999999999995</v>
+      </c>
+      <c r="G35" s="118">
+        <v>-10.773</v>
+      </c>
+      <c r="H35" s="118">
+        <v>-5.4015000000000004</v>
+      </c>
+      <c r="I35" s="118">
+        <v>1.1404000000000001</v>
+      </c>
+      <c r="J35" s="118">
+        <v>-3.528</v>
+      </c>
+      <c r="K35" s="118">
+        <v>4.6513</v>
+      </c>
+      <c r="L35" s="123">
+        <v>15.923999999999999</v>
+      </c>
+      <c r="M35" s="122">
+        <v>4.2137000000000002</v>
+      </c>
+      <c r="N35" s="118">
+        <v>-50.238</v>
+      </c>
+      <c r="O35" s="118">
+        <v>-2.1852999999999998</v>
+      </c>
+      <c r="P35" s="118">
+        <v>-9.1275999999999993</v>
+      </c>
+      <c r="Q35" s="118">
+        <v>-6.5529000000000002</v>
+      </c>
+      <c r="R35" s="118">
+        <v>0.54278000000000004</v>
+      </c>
+      <c r="S35" s="118">
+        <v>6.1988000000000003</v>
+      </c>
+      <c r="T35" s="3">
+        <v>2.6038000000000001</v>
+      </c>
+      <c r="U35" s="134">
+        <v>1.2688999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="52">
+        <v>0.12043795620437947</v>
+      </c>
+      <c r="C36" s="55">
+        <v>0.24452554744525545</v>
+      </c>
+      <c r="D36" s="126">
+        <v>3.6173000000000002</v>
+      </c>
+      <c r="E36" s="127">
+        <v>-91.738</v>
+      </c>
+      <c r="F36" s="127">
+        <v>-1.4398</v>
+      </c>
+      <c r="G36" s="127">
+        <v>-11.284000000000001</v>
+      </c>
+      <c r="H36" s="127">
+        <v>-18.018000000000001</v>
+      </c>
+      <c r="I36" s="127">
+        <v>0.95960999999999996</v>
+      </c>
+      <c r="J36" s="127">
+        <v>8.6525999999999996</v>
+      </c>
+      <c r="K36" s="127">
+        <v>4.6604000000000001</v>
+      </c>
+      <c r="L36" s="143">
+        <v>-2.3953000000000002</v>
+      </c>
+      <c r="M36" s="126">
+        <v>0.71501999999999999</v>
+      </c>
+      <c r="N36" s="127">
+        <v>-96.430999999999997</v>
+      </c>
+      <c r="O36" s="127">
+        <v>1.7850999999999999</v>
+      </c>
+      <c r="P36" s="127">
+        <v>-12.643000000000001</v>
+      </c>
+      <c r="Q36" s="127">
+        <v>3.7347999999999999</v>
+      </c>
+      <c r="R36" s="127">
+        <v>-1.0205</v>
+      </c>
+      <c r="S36" s="127">
+        <v>3.4659</v>
+      </c>
+      <c r="T36" s="49">
+        <v>4.8925999999999998</v>
+      </c>
+      <c r="U36" s="136">
+        <v>11.868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="51">
+        <v>0</v>
+      </c>
+      <c r="C37" s="59">
+        <v>0.24874371859296482</v>
+      </c>
+      <c r="D37" s="122">
+        <v>2.9131</v>
+      </c>
+      <c r="E37" s="118">
+        <v>-69.602000000000004</v>
+      </c>
+      <c r="F37" s="118">
+        <v>-2.8733</v>
+      </c>
+      <c r="G37" s="118">
+        <v>-2.5457999999999998</v>
+      </c>
+      <c r="H37" s="118">
+        <v>7.1676000000000002</v>
+      </c>
+      <c r="I37" s="118">
+        <v>3.0798999999999999</v>
+      </c>
+      <c r="J37" s="117">
+        <v>-7.7545999999999999</v>
+      </c>
+      <c r="K37" s="117">
+        <v>3.5948000000000002</v>
+      </c>
+      <c r="L37" s="124">
+        <v>8.7003000000000004</v>
+      </c>
+      <c r="M37" s="125">
+        <v>0.23018</v>
+      </c>
+      <c r="N37" s="117">
+        <v>-49.405000000000001</v>
+      </c>
+      <c r="O37" s="117">
+        <v>1.4733000000000001</v>
+      </c>
+      <c r="P37" s="118">
+        <v>-4.6216999999999997</v>
+      </c>
+      <c r="Q37" s="118">
+        <v>-4.9783999999999997</v>
+      </c>
+      <c r="R37" s="118">
+        <v>4.3315000000000001</v>
+      </c>
+      <c r="S37" s="118">
+        <v>3.7541000000000002</v>
+      </c>
+      <c r="T37" s="3">
+        <v>2.5834000000000001</v>
+      </c>
+      <c r="U37" s="134">
+        <v>3.8875999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="52">
+        <v>9.0452261306532528E-2</v>
+      </c>
+      <c r="C38" s="55">
+        <v>0.24874371859296482</v>
+      </c>
+      <c r="D38" s="122">
+        <v>-0.51915999999999995</v>
+      </c>
+      <c r="E38" s="118">
+        <v>-74.228999999999999</v>
+      </c>
+      <c r="F38" s="118">
+        <v>3.7292000000000001</v>
+      </c>
+      <c r="G38" s="118">
+        <v>-10.616</v>
+      </c>
+      <c r="H38" s="118">
+        <v>7.7590000000000003</v>
+      </c>
+      <c r="I38" s="118">
+        <v>0.19542000000000001</v>
+      </c>
+      <c r="J38" s="117">
+        <v>5.3388999999999998</v>
+      </c>
+      <c r="K38" s="117">
+        <v>3.8003999999999998</v>
+      </c>
+      <c r="L38" s="124">
+        <v>14.417999999999999</v>
+      </c>
+      <c r="M38" s="125">
+        <v>4.0274000000000001</v>
+      </c>
+      <c r="N38" s="117">
+        <v>-65.781999999999996</v>
+      </c>
+      <c r="O38" s="117">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="P38" s="118">
+        <v>-9.6801999999999992</v>
+      </c>
+      <c r="Q38" s="118">
+        <v>-7.4583000000000004</v>
+      </c>
+      <c r="R38" s="118">
+        <v>0.26129999999999998</v>
+      </c>
+      <c r="S38" s="118">
+        <v>-0.33080999999999999</v>
+      </c>
+      <c r="T38" s="3">
+        <v>3.3761000000000001</v>
+      </c>
+      <c r="U38" s="134">
+        <v>7.4980000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="52">
+        <v>0.11809045226130643</v>
+      </c>
+      <c r="C39" s="55">
+        <v>0.24874371859296482</v>
+      </c>
+      <c r="D39" s="122">
+        <v>-1.8940999999999999</v>
+      </c>
+      <c r="E39" s="118">
+        <v>-69.644000000000005</v>
+      </c>
+      <c r="F39" s="118">
+        <v>1.1922999999999999</v>
+      </c>
+      <c r="G39" s="118">
+        <v>-9.6075999999999997</v>
+      </c>
+      <c r="H39" s="118">
+        <v>2.3428</v>
+      </c>
+      <c r="I39" s="118">
+        <v>0.30256</v>
+      </c>
+      <c r="J39" s="117">
+        <v>3.8828999999999998</v>
+      </c>
+      <c r="K39" s="117">
+        <v>3.5592000000000001</v>
+      </c>
+      <c r="L39" s="124">
+        <v>31.111000000000001</v>
+      </c>
+      <c r="M39" s="125">
+        <v>8.2735000000000003</v>
+      </c>
+      <c r="N39" s="117">
+        <v>-33.267000000000003</v>
+      </c>
+      <c r="O39" s="117">
+        <v>7.9954000000000001</v>
+      </c>
+      <c r="P39" s="118">
+        <v>-12.335000000000001</v>
+      </c>
+      <c r="Q39" s="118">
+        <v>-52.701000000000001</v>
+      </c>
+      <c r="R39" s="118">
+        <v>3.2797999999999998</v>
+      </c>
+      <c r="S39" s="118">
+        <v>-5.7079000000000004</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1.7381</v>
+      </c>
+      <c r="U39" s="134">
+        <v>17.686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="34"/>
+      <c r="B40" s="53">
+        <v>0.17587939698492464</v>
+      </c>
+      <c r="C40" s="56">
+        <v>0.24874371859296482</v>
+      </c>
+      <c r="D40" s="126">
+        <v>7.1447000000000004E-3</v>
+      </c>
+      <c r="E40" s="127">
+        <v>-78.569999999999993</v>
+      </c>
+      <c r="F40" s="127">
+        <v>4.3131000000000004</v>
+      </c>
+      <c r="G40" s="127">
+        <v>-11.454000000000001</v>
+      </c>
+      <c r="H40" s="127">
+        <v>1.0954999999999999</v>
+      </c>
+      <c r="I40" s="127">
+        <v>6.2129999999999998E-2</v>
+      </c>
+      <c r="J40" s="128">
+        <v>10.212999999999999</v>
+      </c>
+      <c r="K40" s="128">
+        <v>3.9836</v>
+      </c>
+      <c r="L40" s="129">
+        <v>9.2063000000000006</v>
+      </c>
+      <c r="M40" s="135">
+        <v>8.1809999999999994E-2</v>
+      </c>
+      <c r="N40" s="128">
+        <v>-76.593000000000004</v>
+      </c>
+      <c r="O40" s="128">
+        <v>3.1956000000000002</v>
+      </c>
+      <c r="P40" s="127">
+        <v>-10.003</v>
+      </c>
+      <c r="Q40" s="127">
+        <v>10.855</v>
+      </c>
+      <c r="R40" s="127">
+        <v>0.64822999999999997</v>
+      </c>
+      <c r="S40" s="127">
+        <v>0.13633000000000001</v>
+      </c>
+      <c r="T40" s="49">
+        <v>3.8818999999999999</v>
+      </c>
+      <c r="U40" s="136">
+        <v>10.984999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-4.02E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-6.7763999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4.5141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-0.46450000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40562124-0CCA-44F7-B009-9EA22D3B5493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF36C40-9DF1-4BD8-88BE-A7355F6F5726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>Data</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">   1.0e+03 *</t>
+  </si>
+  <si>
+    <t>Force  = a0 + a1*Pressure + a2*Diameter + a3*Lo + a4*E + a5*Emax +a6*State + a7*Pressure(Diameter)+a8*(E/Emax)</t>
   </si>
 </sst>
 </file>
@@ -826,9 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,6 +910,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5408,11 +5411,11 @@
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -9974,8 +9977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0888F2-2C2B-4470-8C56-2D382F0DA6F3}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9992,7 +9995,9 @@
       <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -10069,58 +10074,58 @@
       <c r="C4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="131" t="s">
+      <c r="E4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="131" t="s">
+      <c r="K4" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="132" t="s">
+      <c r="L4" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="131" t="s">
+      <c r="N4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="137" t="s">
+      <c r="O4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="137" t="s">
+      <c r="P4" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="137" t="s">
+      <c r="Q4" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="137" t="s">
+      <c r="R4" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="138" t="s">
+      <c r="S4" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="138" t="s">
+      <c r="T4" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="139" t="s">
+      <c r="U4" s="138" t="s">
         <v>41</v>
       </c>
     </row>
@@ -10134,58 +10139,58 @@
       <c r="C5" s="58">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D5" s="144">
+      <c r="D5" s="143">
         <v>-0.14654</v>
       </c>
-      <c r="E5" s="145">
+      <c r="E5" s="144">
         <v>-100.34</v>
       </c>
-      <c r="F5" s="145">
+      <c r="F5" s="144">
         <v>-0.25108000000000003</v>
       </c>
-      <c r="G5" s="145">
+      <c r="G5" s="144">
         <v>-4.0141999999999998</v>
       </c>
-      <c r="H5" s="145">
+      <c r="H5" s="144">
         <v>3.0356999999999998</v>
       </c>
-      <c r="I5" s="145">
+      <c r="I5" s="144">
         <v>-2.9142999999999999</v>
       </c>
-      <c r="J5" s="145">
+      <c r="J5" s="144">
         <v>-6.9932999999999996</v>
       </c>
-      <c r="K5" s="145">
+      <c r="K5" s="144">
         <v>10.099</v>
       </c>
-      <c r="L5" s="142">
+      <c r="L5" s="141">
         <v>16.413</v>
       </c>
-      <c r="M5" s="140">
+      <c r="M5" s="139">
         <v>-1.3574999999999999</v>
       </c>
-      <c r="N5" s="133">
+      <c r="N5" s="132">
         <v>-97.218000000000004</v>
       </c>
-      <c r="O5" s="133">
+      <c r="O5" s="132">
         <v>1.0496000000000001</v>
       </c>
-      <c r="P5" s="133">
+      <c r="P5" s="132">
         <v>-5.0976999999999997</v>
       </c>
-      <c r="Q5" s="133">
+      <c r="Q5" s="132">
         <v>-1.9936</v>
       </c>
-      <c r="R5" s="133">
+      <c r="R5" s="132">
         <v>0.12033000000000001</v>
       </c>
-      <c r="S5" s="133">
+      <c r="S5" s="132">
         <v>1.74</v>
       </c>
       <c r="T5" s="44">
         <v>9.7834000000000003</v>
       </c>
-      <c r="U5" s="142">
+      <c r="U5" s="141">
         <v>16.059999999999999</v>
       </c>
     </row>
@@ -10197,58 +10202,58 @@
       <c r="C6" s="54">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="146">
+      <c r="D6" s="145">
         <v>-3.2618999999999998</v>
       </c>
-      <c r="E6" s="147">
+      <c r="E6" s="146">
         <v>-242.54</v>
       </c>
-      <c r="F6" s="147">
+      <c r="F6" s="146">
         <v>-15.316000000000001</v>
       </c>
-      <c r="G6" s="147">
+      <c r="G6" s="146">
         <v>4.8616000000000001</v>
       </c>
-      <c r="H6" s="147">
+      <c r="H6" s="146">
         <v>-1.8576999999999999</v>
       </c>
-      <c r="I6" s="147">
+      <c r="I6" s="146">
         <v>-4.8540000000000001</v>
       </c>
-      <c r="J6" s="147">
+      <c r="J6" s="146">
         <v>-26.946999999999999</v>
       </c>
-      <c r="K6" s="147">
+      <c r="K6" s="146">
         <v>24.318000000000001</v>
       </c>
-      <c r="L6" s="134">
+      <c r="L6" s="133">
         <v>-10.513</v>
       </c>
-      <c r="M6" s="122">
+      <c r="M6" s="121">
         <v>-0.17573</v>
       </c>
-      <c r="N6" s="118">
+      <c r="N6" s="117">
         <v>-131.63999999999999</v>
       </c>
-      <c r="O6" s="118">
+      <c r="O6" s="117">
         <v>-3.4184000000000001</v>
       </c>
-      <c r="P6" s="118">
+      <c r="P6" s="117">
         <v>-5.5959000000000003</v>
       </c>
-      <c r="Q6" s="118">
+      <c r="Q6" s="117">
         <v>0.66727999999999998</v>
       </c>
-      <c r="R6" s="118">
+      <c r="R6" s="117">
         <v>-3.7286999999999999</v>
       </c>
-      <c r="S6" s="118">
+      <c r="S6" s="117">
         <v>12.596</v>
       </c>
       <c r="T6" s="3">
         <v>13.223000000000001</v>
       </c>
-      <c r="U6" s="134">
+      <c r="U6" s="133">
         <v>-14.061999999999999</v>
       </c>
     </row>
@@ -10260,58 +10265,58 @@
       <c r="C7" s="54">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D7" s="146">
+      <c r="D7" s="145">
         <v>-1.0245</v>
       </c>
-      <c r="E7" s="147">
+      <c r="E7" s="146">
         <v>-195</v>
       </c>
-      <c r="F7" s="147">
+      <c r="F7" s="146">
         <v>-17.02</v>
       </c>
-      <c r="G7" s="147">
+      <c r="G7" s="146">
         <v>-0.28097</v>
       </c>
-      <c r="H7" s="147">
+      <c r="H7" s="146">
         <v>-8.6083999999999996</v>
       </c>
-      <c r="I7" s="147">
+      <c r="I7" s="146">
         <v>0.39716000000000001</v>
       </c>
-      <c r="J7" s="147">
+      <c r="J7" s="146">
         <v>-15.497</v>
       </c>
-      <c r="K7" s="147">
+      <c r="K7" s="146">
         <v>19.559000000000001</v>
       </c>
-      <c r="L7" s="134">
+      <c r="L7" s="133">
         <v>-14.164999999999999</v>
       </c>
-      <c r="M7" s="122">
+      <c r="M7" s="121">
         <v>-0.15273999999999999</v>
       </c>
-      <c r="N7" s="118">
+      <c r="N7" s="117">
         <v>-172.8</v>
       </c>
-      <c r="O7" s="118">
+      <c r="O7" s="117">
         <v>-11.032999999999999</v>
       </c>
-      <c r="P7" s="118">
+      <c r="P7" s="117">
         <v>-4.3224999999999998</v>
       </c>
-      <c r="Q7" s="118">
+      <c r="Q7" s="117">
         <v>-7.0297000000000001</v>
       </c>
-      <c r="R7" s="118">
+      <c r="R7" s="117">
         <v>-1.2588999999999999</v>
       </c>
-      <c r="S7" s="118">
+      <c r="S7" s="117">
         <v>10.14</v>
       </c>
       <c r="T7" s="3">
         <v>17.335000000000001</v>
       </c>
-      <c r="U7" s="134">
+      <c r="U7" s="133">
         <v>-6.4264999999999999</v>
       </c>
     </row>
@@ -10323,58 +10328,58 @@
       <c r="C8" s="57">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="148">
+      <c r="D8" s="147">
         <v>-1.5396000000000001</v>
       </c>
-      <c r="E8" s="149">
+      <c r="E8" s="148">
         <v>-203.32</v>
       </c>
-      <c r="F8" s="149">
+      <c r="F8" s="148">
         <v>-13.372</v>
       </c>
-      <c r="G8" s="149">
+      <c r="G8" s="148">
         <v>-6.0415999999999999</v>
       </c>
-      <c r="H8" s="149">
+      <c r="H8" s="148">
         <v>-23.056999999999999</v>
       </c>
-      <c r="I8" s="149">
+      <c r="I8" s="148">
         <v>-1.3548</v>
       </c>
-      <c r="J8" s="149">
+      <c r="J8" s="148">
         <v>-11.930999999999999</v>
       </c>
-      <c r="K8" s="149">
+      <c r="K8" s="148">
         <v>20.382999999999999</v>
       </c>
-      <c r="L8" s="136">
+      <c r="L8" s="135">
         <v>0.39867999999999998</v>
       </c>
-      <c r="M8" s="126">
+      <c r="M8" s="125">
         <v>-0.90824000000000005</v>
       </c>
-      <c r="N8" s="127">
+      <c r="N8" s="126">
         <v>-189.97</v>
       </c>
-      <c r="O8" s="127">
+      <c r="O8" s="126">
         <v>-4.5197000000000003</v>
       </c>
-      <c r="P8" s="127">
+      <c r="P8" s="126">
         <v>-8.7174999999999994</v>
       </c>
-      <c r="Q8" s="127">
+      <c r="Q8" s="126">
         <v>-27.661000000000001</v>
       </c>
-      <c r="R8" s="127">
+      <c r="R8" s="126">
         <v>-0.32386999999999999</v>
       </c>
-      <c r="S8" s="127">
+      <c r="S8" s="126">
         <v>16.672000000000001</v>
       </c>
       <c r="T8" s="49">
         <v>19.042000000000002</v>
       </c>
-      <c r="U8" s="136">
+      <c r="U8" s="135">
         <v>-26.968</v>
       </c>
     </row>
@@ -10388,58 +10393,58 @@
       <c r="C9" s="58">
         <v>0.15909090909090909</v>
       </c>
-      <c r="D9" s="144">
+      <c r="D9" s="143">
         <v>0.11762</v>
       </c>
-      <c r="E9" s="145">
+      <c r="E9" s="144">
         <v>-81.442999999999998</v>
       </c>
-      <c r="F9" s="145">
+      <c r="F9" s="144">
         <v>0.24160000000000001</v>
       </c>
-      <c r="G9" s="145">
+      <c r="G9" s="144">
         <v>-2.5825</v>
       </c>
-      <c r="H9" s="145">
+      <c r="H9" s="144">
         <v>2.8748999999999998</v>
       </c>
-      <c r="I9" s="145">
+      <c r="I9" s="144">
         <v>-2.1414</v>
       </c>
-      <c r="J9" s="145">
+      <c r="J9" s="144">
         <v>-3.4134000000000002</v>
       </c>
-      <c r="K9" s="145">
+      <c r="K9" s="144">
         <v>8.2142999999999997</v>
       </c>
-      <c r="L9" s="145">
+      <c r="L9" s="144">
         <v>13.545</v>
       </c>
-      <c r="M9" s="140">
+      <c r="M9" s="139">
         <v>-0.44779999999999998</v>
       </c>
-      <c r="N9" s="133">
+      <c r="N9" s="132">
         <v>-52.439</v>
       </c>
-      <c r="O9" s="133">
+      <c r="O9" s="132">
         <v>0.87909000000000004</v>
       </c>
-      <c r="P9" s="133">
+      <c r="P9" s="132">
         <v>-2.5809000000000002</v>
       </c>
-      <c r="Q9" s="133">
+      <c r="Q9" s="132">
         <v>0.97331000000000001</v>
       </c>
-      <c r="R9" s="133">
+      <c r="R9" s="132">
         <v>1.0592999999999999</v>
       </c>
-      <c r="S9" s="133">
+      <c r="S9" s="132">
         <v>2.5495000000000001</v>
       </c>
       <c r="T9" s="44">
         <v>5.3098999999999998</v>
       </c>
-      <c r="U9" s="142">
+      <c r="U9" s="141">
         <v>10.526</v>
       </c>
     </row>
@@ -10451,58 +10456,58 @@
       <c r="C10" s="54">
         <v>0.15909090909090909</v>
       </c>
-      <c r="D10" s="146">
+      <c r="D10" s="145">
         <v>-2.0030999999999999</v>
       </c>
-      <c r="E10" s="147">
+      <c r="E10" s="146">
         <v>-123.79</v>
       </c>
-      <c r="F10" s="147">
+      <c r="F10" s="146">
         <v>2.2191999999999998</v>
       </c>
-      <c r="G10" s="147">
+      <c r="G10" s="146">
         <v>-12.669</v>
       </c>
-      <c r="H10" s="147">
+      <c r="H10" s="146">
         <v>-7.8507999999999996</v>
       </c>
-      <c r="I10" s="147">
+      <c r="I10" s="146">
         <v>0.67681000000000002</v>
       </c>
-      <c r="J10" s="147">
+      <c r="J10" s="146">
         <v>-10.558</v>
       </c>
-      <c r="K10" s="147">
+      <c r="K10" s="146">
         <v>12.446999999999999</v>
       </c>
-      <c r="L10" s="147">
+      <c r="L10" s="146">
         <v>-0.53522000000000003</v>
       </c>
-      <c r="M10" s="122">
+      <c r="M10" s="121">
         <v>1.1259999999999999</v>
       </c>
-      <c r="N10" s="118">
+      <c r="N10" s="117">
         <v>0.32716000000000001</v>
       </c>
-      <c r="O10" s="118">
+      <c r="O10" s="117">
         <v>11.289</v>
       </c>
-      <c r="P10" s="118">
+      <c r="P10" s="117">
         <v>-15.25</v>
       </c>
-      <c r="Q10" s="118">
+      <c r="Q10" s="117">
         <v>-7.1700999999999997</v>
       </c>
-      <c r="R10" s="118">
+      <c r="R10" s="117">
         <v>1.2542</v>
       </c>
-      <c r="S10" s="118">
+      <c r="S10" s="117">
         <v>17.850999999999999</v>
       </c>
       <c r="T10" s="3">
         <v>2.8497999999999999E-2</v>
       </c>
-      <c r="U10" s="134">
+      <c r="U10" s="133">
         <v>2.1139999999999999</v>
       </c>
     </row>
@@ -10514,58 +10519,58 @@
       <c r="C11" s="57">
         <v>0.15909090909090909</v>
       </c>
-      <c r="D11" s="148">
+      <c r="D11" s="147">
         <v>0.34733000000000003</v>
       </c>
-      <c r="E11" s="149">
+      <c r="E11" s="148">
         <v>-32.326000000000001</v>
       </c>
-      <c r="F11" s="149">
+      <c r="F11" s="148">
         <v>12.788</v>
       </c>
-      <c r="G11" s="149">
+      <c r="G11" s="148">
         <v>-20.943000000000001</v>
       </c>
-      <c r="H11" s="149">
+      <c r="H11" s="148">
         <v>-11.566000000000001</v>
       </c>
-      <c r="I11" s="149">
+      <c r="I11" s="148">
         <v>3.0844</v>
       </c>
-      <c r="J11" s="149">
+      <c r="J11" s="148">
         <v>4.3314000000000004</v>
       </c>
-      <c r="K11" s="149">
+      <c r="K11" s="148">
         <v>3.2915999999999999</v>
       </c>
-      <c r="L11" s="149">
+      <c r="L11" s="148">
         <v>-5.0648999999999997</v>
       </c>
-      <c r="M11" s="126">
+      <c r="M11" s="125">
         <v>0.61890999999999996</v>
       </c>
-      <c r="N11" s="127">
+      <c r="N11" s="126">
         <v>-12.638999999999999</v>
       </c>
-      <c r="O11" s="127">
+      <c r="O11" s="126">
         <v>2.2761</v>
       </c>
-      <c r="P11" s="127">
+      <c r="P11" s="126">
         <v>2.8654999999999999</v>
       </c>
-      <c r="Q11" s="127">
+      <c r="Q11" s="126">
         <v>5.4404000000000003</v>
       </c>
-      <c r="R11" s="127">
+      <c r="R11" s="126">
         <v>1.4087000000000001</v>
       </c>
-      <c r="S11" s="127">
+      <c r="S11" s="126">
         <v>2.8153999999999999</v>
       </c>
       <c r="T11" s="49">
         <v>1.2542</v>
       </c>
-      <c r="U11" s="136">
+      <c r="U11" s="135">
         <v>4.8281000000000001</v>
       </c>
     </row>
@@ -10579,58 +10584,58 @@
       <c r="C12" s="54">
         <v>0.15175097276264587</v>
       </c>
-      <c r="D12" s="140">
+      <c r="D12" s="139">
         <v>0.30271999999999999</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="132">
         <v>-62.170999999999999</v>
       </c>
-      <c r="F12" s="133">
+      <c r="F12" s="132">
         <v>2.2332000000000001</v>
       </c>
-      <c r="G12" s="133">
+      <c r="G12" s="132">
         <v>-2.5506000000000002</v>
       </c>
-      <c r="H12" s="133">
+      <c r="H12" s="132">
         <v>3.9817999999999998</v>
       </c>
-      <c r="I12" s="133">
+      <c r="I12" s="132">
         <v>-1.4577</v>
       </c>
-      <c r="J12" s="133">
+      <c r="J12" s="132">
         <v>-3.222</v>
       </c>
-      <c r="K12" s="133">
+      <c r="K12" s="132">
         <v>6.2859999999999996</v>
       </c>
-      <c r="L12" s="141">
+      <c r="L12" s="140">
         <v>12.503</v>
       </c>
-      <c r="M12" s="140">
+      <c r="M12" s="139">
         <v>0.33611999999999997</v>
       </c>
-      <c r="N12" s="133">
+      <c r="N12" s="132">
         <v>-18.817</v>
       </c>
-      <c r="O12" s="133">
+      <c r="O12" s="132">
         <v>4.1753999999999998</v>
       </c>
-      <c r="P12" s="133">
+      <c r="P12" s="132">
         <v>-2.7096</v>
       </c>
-      <c r="Q12" s="133">
+      <c r="Q12" s="132">
         <v>1.3839999999999999</v>
       </c>
-      <c r="R12" s="133">
+      <c r="R12" s="132">
         <v>1.1386000000000001</v>
       </c>
-      <c r="S12" s="133">
+      <c r="S12" s="132">
         <v>6.5682999999999998</v>
       </c>
       <c r="T12" s="44">
         <v>1.9449000000000001</v>
       </c>
-      <c r="U12" s="142">
+      <c r="U12" s="141">
         <v>9.4631000000000007</v>
       </c>
     </row>
@@ -10642,58 +10647,58 @@
       <c r="C13" s="54">
         <v>0.15175097276264587</v>
       </c>
-      <c r="D13" s="122">
+      <c r="D13" s="121">
         <v>-2.6251000000000002</v>
       </c>
-      <c r="E13" s="118">
+      <c r="E13" s="117">
         <v>-122.19</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="117">
         <v>1.2003999999999999</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="117">
         <v>-7.4591000000000003</v>
       </c>
-      <c r="H13" s="118">
+      <c r="H13" s="117">
         <v>5.9443999999999999</v>
       </c>
-      <c r="I13" s="118">
+      <c r="I13" s="117">
         <v>-1.3875999999999999</v>
       </c>
-      <c r="J13" s="118">
+      <c r="J13" s="117">
         <v>-10.829000000000001</v>
       </c>
-      <c r="K13" s="118">
+      <c r="K13" s="117">
         <v>12.291</v>
       </c>
-      <c r="L13" s="123">
+      <c r="L13" s="122">
         <v>-1.2983</v>
       </c>
-      <c r="M13" s="122">
+      <c r="M13" s="121">
         <v>0.18279999999999999</v>
       </c>
-      <c r="N13" s="118">
+      <c r="N13" s="117">
         <v>-20.390999999999998</v>
       </c>
-      <c r="O13" s="118">
+      <c r="O13" s="117">
         <v>8.2360000000000007</v>
       </c>
-      <c r="P13" s="118">
+      <c r="P13" s="117">
         <v>-9.1881000000000004</v>
       </c>
-      <c r="Q13" s="118">
+      <c r="Q13" s="117">
         <v>4.6184000000000003</v>
       </c>
-      <c r="R13" s="118">
+      <c r="R13" s="117">
         <v>-0.92452000000000001</v>
       </c>
-      <c r="S13" s="118">
+      <c r="S13" s="117">
         <v>15.913</v>
       </c>
       <c r="T13" s="3">
         <v>2.1057000000000001</v>
       </c>
-      <c r="U13" s="134">
+      <c r="U13" s="133">
         <v>-7.1691000000000003</v>
       </c>
     </row>
@@ -10705,58 +10710,58 @@
       <c r="C14" s="54">
         <v>0.15175097276264587</v>
       </c>
-      <c r="D14" s="122">
+      <c r="D14" s="121">
         <v>-4.4539999999999997</v>
       </c>
-      <c r="E14" s="118">
+      <c r="E14" s="117">
         <v>-236.86</v>
       </c>
-      <c r="F14" s="118">
+      <c r="F14" s="117">
         <v>-10.430999999999999</v>
       </c>
-      <c r="G14" s="118">
+      <c r="G14" s="117">
         <v>-4.6643999999999997</v>
       </c>
-      <c r="H14" s="118">
+      <c r="H14" s="117">
         <v>-11.074999999999999</v>
       </c>
-      <c r="I14" s="118">
+      <c r="I14" s="117">
         <v>-3.0769000000000002</v>
       </c>
-      <c r="J14" s="118">
+      <c r="J14" s="117">
         <v>-11.698</v>
       </c>
-      <c r="K14" s="118">
+      <c r="K14" s="117">
         <v>23.754999999999999</v>
       </c>
-      <c r="L14" s="123">
+      <c r="L14" s="122">
         <v>-2.9097</v>
       </c>
-      <c r="M14" s="122">
+      <c r="M14" s="121">
         <v>-0.42759999999999998</v>
       </c>
-      <c r="N14" s="118">
+      <c r="N14" s="117">
         <v>-191.15</v>
       </c>
-      <c r="O14" s="118">
+      <c r="O14" s="117">
         <v>-8.1915999999999993</v>
       </c>
-      <c r="P14" s="118">
+      <c r="P14" s="117">
         <v>-3.9922</v>
       </c>
-      <c r="Q14" s="118">
+      <c r="Q14" s="117">
         <v>-15.352</v>
       </c>
-      <c r="R14" s="118">
+      <c r="R14" s="117">
         <v>-2.0750999999999999</v>
       </c>
-      <c r="S14" s="118">
+      <c r="S14" s="117">
         <v>10.234</v>
       </c>
       <c r="T14" s="3">
         <v>19.177</v>
       </c>
-      <c r="U14" s="134">
+      <c r="U14" s="133">
         <v>-14.769</v>
       </c>
     </row>
@@ -10768,58 +10773,58 @@
       <c r="C15" s="54">
         <v>0.15175097276264587</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="125">
         <v>-2.7572000000000001</v>
       </c>
-      <c r="E15" s="127">
+      <c r="E15" s="126">
         <v>-174.76</v>
       </c>
-      <c r="F15" s="127">
+      <c r="F15" s="126">
         <v>-2.3965999999999998</v>
       </c>
-      <c r="G15" s="127">
+      <c r="G15" s="126">
         <v>-9.8663000000000007</v>
       </c>
-      <c r="H15" s="127">
+      <c r="H15" s="126">
         <v>-11.192</v>
       </c>
-      <c r="I15" s="127">
+      <c r="I15" s="126">
         <v>-1.8243</v>
       </c>
-      <c r="J15" s="127">
+      <c r="J15" s="126">
         <v>-0.51114000000000004</v>
       </c>
-      <c r="K15" s="127">
+      <c r="K15" s="126">
         <v>17.533000000000001</v>
       </c>
-      <c r="L15" s="143">
+      <c r="L15" s="142">
         <v>-18.893999999999998</v>
       </c>
-      <c r="M15" s="126">
+      <c r="M15" s="125">
         <v>0.28503000000000001</v>
       </c>
-      <c r="N15" s="127">
+      <c r="N15" s="126">
         <v>-34.679000000000002</v>
       </c>
-      <c r="O15" s="127">
+      <c r="O15" s="126">
         <v>11.044</v>
       </c>
-      <c r="P15" s="127">
+      <c r="P15" s="126">
         <v>-12.092000000000001</v>
       </c>
-      <c r="Q15" s="127">
+      <c r="Q15" s="126">
         <v>-2.2652000000000001</v>
       </c>
-      <c r="R15" s="127">
+      <c r="R15" s="126">
         <v>0.23315</v>
       </c>
-      <c r="S15" s="127">
+      <c r="S15" s="126">
         <v>13.01</v>
       </c>
       <c r="T15" s="49">
         <v>3.5118</v>
       </c>
-      <c r="U15" s="136">
+      <c r="U15" s="135">
         <v>-8.4347999999999992</v>
       </c>
     </row>
@@ -10833,58 +10838,58 @@
       <c r="C16" s="58">
         <v>0.16370106761565842</v>
       </c>
-      <c r="D16" s="122">
+      <c r="D16" s="121">
         <v>0.36532999999999999</v>
       </c>
-      <c r="E16" s="118">
+      <c r="E16" s="117">
         <v>-52.441000000000003</v>
       </c>
-      <c r="F16" s="118">
+      <c r="F16" s="117">
         <v>2.6497000000000002</v>
       </c>
-      <c r="G16" s="118">
+      <c r="G16" s="117">
         <v>-1.6591</v>
       </c>
-      <c r="H16" s="118">
+      <c r="H16" s="117">
         <v>6.5846999999999998</v>
       </c>
-      <c r="I16" s="118">
+      <c r="I16" s="117">
         <v>-1.1065</v>
       </c>
-      <c r="J16" s="118">
+      <c r="J16" s="117">
         <v>-2.3748</v>
       </c>
-      <c r="K16" s="118">
+      <c r="K16" s="117">
         <v>5.3150000000000004</v>
       </c>
-      <c r="L16" s="123">
+      <c r="L16" s="122">
         <v>11.352</v>
       </c>
-      <c r="M16" s="122">
+      <c r="M16" s="121">
         <v>0.11663</v>
       </c>
-      <c r="N16" s="118">
+      <c r="N16" s="117">
         <v>-11.324</v>
       </c>
-      <c r="O16" s="118">
+      <c r="O16" s="117">
         <v>5.7057000000000002</v>
       </c>
-      <c r="P16" s="118">
+      <c r="P16" s="117">
         <v>-2.4161000000000001</v>
       </c>
-      <c r="Q16" s="118">
+      <c r="Q16" s="117">
         <v>5.1359000000000004</v>
       </c>
-      <c r="R16" s="118">
+      <c r="R16" s="117">
         <v>0.90820999999999996</v>
       </c>
-      <c r="S16" s="118">
+      <c r="S16" s="117">
         <v>5.6952999999999996</v>
       </c>
       <c r="T16" s="3">
         <v>1.1987000000000001</v>
       </c>
-      <c r="U16" s="134">
+      <c r="U16" s="133">
         <v>9.2192000000000007</v>
       </c>
     </row>
@@ -10896,58 +10901,58 @@
       <c r="C17" s="54">
         <v>0.16370106761565842</v>
       </c>
-      <c r="D17" s="122">
+      <c r="D17" s="121">
         <v>-1.7504999999999999</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="117">
         <v>-46.872</v>
       </c>
-      <c r="F17" s="118">
+      <c r="F17" s="117">
         <v>11.007</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="117">
         <v>-11.811</v>
       </c>
-      <c r="H17" s="118">
+      <c r="H17" s="117">
         <v>5.3025000000000002</v>
       </c>
-      <c r="I17" s="118">
+      <c r="I17" s="117">
         <v>2.6848000000000001</v>
       </c>
-      <c r="J17" s="118">
+      <c r="J17" s="117">
         <v>-8.077</v>
       </c>
-      <c r="K17" s="118">
+      <c r="K17" s="117">
         <v>4.7591999999999999</v>
       </c>
-      <c r="L17" s="123">
+      <c r="L17" s="122">
         <v>4.6032000000000002</v>
       </c>
-      <c r="M17" s="122">
+      <c r="M17" s="121">
         <v>7.7407000000000004E-2</v>
       </c>
-      <c r="N17" s="118">
+      <c r="N17" s="117">
         <v>-78.685000000000002</v>
       </c>
-      <c r="O17" s="118">
+      <c r="O17" s="117">
         <v>4.3616999999999999</v>
       </c>
-      <c r="P17" s="118">
+      <c r="P17" s="117">
         <v>-7.9272999999999998</v>
       </c>
-      <c r="Q17" s="118">
+      <c r="Q17" s="117">
         <v>-13.618</v>
       </c>
-      <c r="R17" s="118">
+      <c r="R17" s="117">
         <v>-1.5740000000000001</v>
       </c>
-      <c r="S17" s="118">
+      <c r="S17" s="117">
         <v>22.798999999999999</v>
       </c>
       <c r="T17" s="3">
         <v>7.9340999999999999</v>
       </c>
-      <c r="U17" s="134">
+      <c r="U17" s="133">
         <v>-21.030999999999999</v>
       </c>
     </row>
@@ -10959,58 +10964,58 @@
       <c r="C18" s="54">
         <v>0.16370106761565842</v>
       </c>
-      <c r="D18" s="122">
+      <c r="D18" s="121">
         <v>-1.1762999999999999</v>
       </c>
-      <c r="E18" s="118">
+      <c r="E18" s="117">
         <v>-147.69999999999999</v>
       </c>
-      <c r="F18" s="118">
+      <c r="F18" s="117">
         <v>0.57830999999999999</v>
       </c>
-      <c r="G18" s="118">
+      <c r="G18" s="117">
         <v>-9.2867999999999995</v>
       </c>
-      <c r="H18" s="118">
+      <c r="H18" s="117">
         <v>-9.2269000000000005</v>
       </c>
-      <c r="I18" s="118">
+      <c r="I18" s="117">
         <v>-1.0376000000000001</v>
       </c>
-      <c r="J18" s="118">
+      <c r="J18" s="117">
         <v>-14.173999999999999</v>
       </c>
-      <c r="K18" s="118">
+      <c r="K18" s="117">
         <v>14.831</v>
       </c>
-      <c r="L18" s="123">
+      <c r="L18" s="122">
         <v>-1.1712</v>
       </c>
-      <c r="M18" s="122">
+      <c r="M18" s="121">
         <v>9.3332999999999999E-2</v>
       </c>
-      <c r="N18" s="118">
+      <c r="N18" s="117">
         <v>-54.652999999999999</v>
       </c>
-      <c r="O18" s="118">
+      <c r="O18" s="117">
         <v>3.2770999999999999</v>
       </c>
-      <c r="P18" s="118">
+      <c r="P18" s="117">
         <v>-8.5608000000000004</v>
       </c>
-      <c r="Q18" s="118">
+      <c r="Q18" s="117">
         <v>-2.2042999999999999</v>
       </c>
-      <c r="R18" s="118">
+      <c r="R18" s="117">
         <v>0.86284000000000005</v>
       </c>
-      <c r="S18" s="118">
+      <c r="S18" s="117">
         <v>12.632</v>
       </c>
       <c r="T18" s="3">
         <v>5.5179</v>
       </c>
-      <c r="U18" s="134">
+      <c r="U18" s="133">
         <v>-7.7309999999999999</v>
       </c>
     </row>
@@ -11022,58 +11027,58 @@
       <c r="C19" s="57">
         <v>0.16370106761565842</v>
       </c>
-      <c r="D19" s="126">
+      <c r="D19" s="125">
         <v>-2.1554000000000002</v>
       </c>
-      <c r="E19" s="127">
+      <c r="E19" s="126">
         <v>-143.76</v>
       </c>
-      <c r="F19" s="127">
+      <c r="F19" s="126">
         <v>9.0713000000000008</v>
       </c>
-      <c r="G19" s="127">
+      <c r="G19" s="126">
         <v>-13.983000000000001</v>
       </c>
-      <c r="H19" s="127">
+      <c r="H19" s="126">
         <v>-22.608000000000001</v>
       </c>
-      <c r="I19" s="127">
+      <c r="I19" s="126">
         <v>-2.6248</v>
       </c>
-      <c r="J19" s="127">
+      <c r="J19" s="126">
         <v>3.0617000000000001</v>
       </c>
-      <c r="K19" s="127">
+      <c r="K19" s="126">
         <v>14.433999999999999</v>
       </c>
-      <c r="L19" s="143">
+      <c r="L19" s="142">
         <v>-23.06</v>
       </c>
-      <c r="M19" s="126">
+      <c r="M19" s="125">
         <v>0.61821999999999999</v>
       </c>
-      <c r="N19" s="127">
+      <c r="N19" s="126">
         <v>-12.673</v>
       </c>
-      <c r="O19" s="127">
+      <c r="O19" s="126">
         <v>2.2810000000000001</v>
       </c>
-      <c r="P19" s="127">
+      <c r="P19" s="126">
         <v>2.8597000000000001</v>
       </c>
-      <c r="Q19" s="127">
+      <c r="Q19" s="126">
         <v>5.4363000000000001</v>
       </c>
-      <c r="R19" s="127">
+      <c r="R19" s="126">
         <v>1.4076</v>
       </c>
-      <c r="S19" s="127">
+      <c r="S19" s="126">
         <v>2.8153999999999999</v>
       </c>
       <c r="T19" s="49">
         <v>1.2543</v>
       </c>
-      <c r="U19" s="136">
+      <c r="U19" s="135">
         <v>4.8289999999999997</v>
       </c>
     </row>
@@ -11087,58 +11092,58 @@
       <c r="C20" s="58">
         <v>0.14590747330960857</v>
       </c>
-      <c r="D20" s="140">
+      <c r="D20" s="139">
         <v>2.0253E-2</v>
       </c>
-      <c r="E20" s="133">
+      <c r="E20" s="132">
         <v>-96.725999999999999</v>
       </c>
-      <c r="F20" s="133">
+      <c r="F20" s="132">
         <v>-1.9977</v>
       </c>
-      <c r="G20" s="133">
+      <c r="G20" s="132">
         <v>-0.50956000000000001</v>
       </c>
-      <c r="H20" s="133">
+      <c r="H20" s="132">
         <v>5.2313000000000001</v>
       </c>
-      <c r="I20" s="133">
+      <c r="I20" s="132">
         <v>-2.6738</v>
       </c>
-      <c r="J20" s="120">
+      <c r="J20" s="119">
         <v>-5.1687000000000003</v>
       </c>
-      <c r="K20" s="120">
+      <c r="K20" s="119">
         <v>9.7445000000000004</v>
       </c>
-      <c r="L20" s="121">
+      <c r="L20" s="120">
         <v>12.082000000000001</v>
       </c>
-      <c r="M20" s="119">
+      <c r="M20" s="118">
         <v>6.3047000000000006E-2</v>
       </c>
-      <c r="N20" s="120">
+      <c r="N20" s="119">
         <v>-17.193999999999999</v>
       </c>
-      <c r="O20" s="120">
+      <c r="O20" s="119">
         <v>5.8102999999999998</v>
       </c>
-      <c r="P20" s="133">
+      <c r="P20" s="132">
         <v>-3.0207999999999999</v>
       </c>
-      <c r="Q20" s="133">
+      <c r="Q20" s="132">
         <v>6.0452000000000004</v>
       </c>
-      <c r="R20" s="133">
+      <c r="R20" s="132">
         <v>1.4394</v>
       </c>
-      <c r="S20" s="133">
+      <c r="S20" s="132">
         <v>3.8174000000000001</v>
       </c>
       <c r="T20" s="44">
         <v>1.786</v>
       </c>
-      <c r="U20" s="142">
+      <c r="U20" s="141">
         <v>8.3911999999999995</v>
       </c>
     </row>
@@ -11152,58 +11157,58 @@
       <c r="C21" s="54">
         <v>0.14590747330960857</v>
       </c>
-      <c r="D21" s="122">
+      <c r="D21" s="121">
         <v>-2.7054999999999998</v>
       </c>
-      <c r="E21" s="118">
+      <c r="E21" s="117">
         <v>-143.71</v>
       </c>
-      <c r="F21" s="118">
+      <c r="F21" s="117">
         <v>0.61726999999999999</v>
       </c>
-      <c r="G21" s="118">
+      <c r="G21" s="117">
         <v>-8.16</v>
       </c>
-      <c r="H21" s="118">
+      <c r="H21" s="117">
         <v>0.71565000000000001</v>
       </c>
-      <c r="I21" s="118">
+      <c r="I21" s="117">
         <v>9.1567999999999997E-2</v>
       </c>
-      <c r="J21" s="117">
+      <c r="J21" s="116">
         <v>-15.417999999999999</v>
       </c>
-      <c r="K21" s="117">
+      <c r="K21" s="116">
         <v>14.445</v>
       </c>
-      <c r="L21" s="124">
+      <c r="L21" s="123">
         <v>-2.4670999999999998</v>
       </c>
-      <c r="M21" s="125">
+      <c r="M21" s="124">
         <v>0.56972</v>
       </c>
-      <c r="N21" s="117">
+      <c r="N21" s="116">
         <v>-74.608999999999995</v>
       </c>
-      <c r="O21" s="117">
+      <c r="O21" s="116">
         <v>6.1196000000000002</v>
       </c>
-      <c r="P21" s="118">
+      <c r="P21" s="117">
         <v>-8.9961000000000002</v>
       </c>
-      <c r="Q21" s="118">
+      <c r="Q21" s="117">
         <v>-12.542</v>
       </c>
-      <c r="R21" s="118">
+      <c r="R21" s="117">
         <v>-0.18448999999999999</v>
       </c>
-      <c r="S21" s="118">
+      <c r="S21" s="117">
         <v>14.624000000000001</v>
       </c>
       <c r="T21" s="3">
         <v>7.5279999999999996</v>
       </c>
-      <c r="U21" s="134">
+      <c r="U21" s="133">
         <v>-11.696</v>
       </c>
     </row>
@@ -11215,58 +11220,58 @@
       <c r="C22" s="54">
         <v>0.14590747330960857</v>
       </c>
-      <c r="D22" s="122">
+      <c r="D22" s="121">
         <v>-1.7605999999999999</v>
       </c>
-      <c r="E22" s="118">
+      <c r="E22" s="117">
         <v>-110.76</v>
       </c>
-      <c r="F22" s="118">
+      <c r="F22" s="117">
         <v>4.2702</v>
       </c>
-      <c r="G22" s="118">
+      <c r="G22" s="117">
         <v>-11.15</v>
       </c>
-      <c r="H22" s="118">
+      <c r="H22" s="117">
         <v>-3.0038999999999998</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="117">
         <v>2.2372999999999998</v>
       </c>
-      <c r="J22" s="117">
+      <c r="J22" s="116">
         <v>-13.916</v>
       </c>
-      <c r="K22" s="117">
+      <c r="K22" s="116">
         <v>11.145</v>
       </c>
-      <c r="L22" s="124">
+      <c r="L22" s="123">
         <v>-0.36942999999999998</v>
       </c>
-      <c r="M22" s="125">
+      <c r="M22" s="124">
         <v>0.61558000000000002</v>
       </c>
-      <c r="N22" s="117">
+      <c r="N22" s="116">
         <v>-50.067</v>
       </c>
-      <c r="O22" s="117">
+      <c r="O22" s="116">
         <v>5.4813999999999998</v>
       </c>
-      <c r="P22" s="118">
+      <c r="P22" s="117">
         <v>-10.057</v>
       </c>
-      <c r="Q22" s="118">
+      <c r="Q22" s="117">
         <v>-1.9735</v>
       </c>
-      <c r="R22" s="118">
+      <c r="R22" s="117">
         <v>0.51741999999999999</v>
       </c>
-      <c r="S22" s="118">
+      <c r="S22" s="117">
         <v>12.984</v>
       </c>
       <c r="T22" s="3">
         <v>5.0679999999999996</v>
       </c>
-      <c r="U22" s="134">
+      <c r="U22" s="133">
         <v>-6.3330000000000002</v>
       </c>
     </row>
@@ -11278,58 +11283,58 @@
       <c r="C23" s="57">
         <v>0.14590747330960857</v>
       </c>
-      <c r="D23" s="126">
+      <c r="D23" s="125">
         <v>-1.3996</v>
       </c>
-      <c r="E23" s="127">
+      <c r="E23" s="126">
         <v>-25.449000000000002</v>
       </c>
-      <c r="F23" s="127">
+      <c r="F23" s="126">
         <v>11.907999999999999</v>
       </c>
-      <c r="G23" s="127">
+      <c r="G23" s="126">
         <v>-14.863</v>
       </c>
-      <c r="H23" s="127">
+      <c r="H23" s="126">
         <v>4.2558999999999996</v>
       </c>
-      <c r="I23" s="127">
+      <c r="I23" s="126">
         <v>3.4529999999999998</v>
       </c>
-      <c r="J23" s="128">
+      <c r="J23" s="127">
         <v>4.6393000000000004</v>
       </c>
-      <c r="K23" s="128">
+      <c r="K23" s="127">
         <v>2.6052</v>
       </c>
-      <c r="L23" s="129">
+      <c r="L23" s="128">
         <v>-11.409000000000001</v>
       </c>
-      <c r="M23" s="135">
+      <c r="M23" s="134">
         <v>0.48504999999999998</v>
       </c>
-      <c r="N23" s="128">
+      <c r="N23" s="127">
         <v>-49.402000000000001</v>
       </c>
-      <c r="O23" s="128">
+      <c r="O23" s="127">
         <v>4.8667999999999996</v>
       </c>
-      <c r="P23" s="127">
+      <c r="P23" s="126">
         <v>-9.8699999999999992</v>
       </c>
-      <c r="Q23" s="127">
+      <c r="Q23" s="126">
         <v>-4.7282000000000002</v>
       </c>
-      <c r="R23" s="127">
+      <c r="R23" s="126">
         <v>0.45667999999999997</v>
       </c>
-      <c r="S23" s="127">
+      <c r="S23" s="126">
         <v>12.805999999999999</v>
       </c>
       <c r="T23" s="49">
         <v>4.9903000000000004</v>
       </c>
-      <c r="U23" s="136">
+      <c r="U23" s="135">
         <v>-6.2267999999999999</v>
       </c>
     </row>
@@ -11343,58 +11348,58 @@
       <c r="C24" s="55">
         <v>0.22448979591836743</v>
       </c>
-      <c r="D24" s="140">
+      <c r="D24" s="139">
         <v>4.1081000000000003</v>
       </c>
-      <c r="E24" s="133">
+      <c r="E24" s="132">
         <v>-86.870999999999995</v>
       </c>
-      <c r="F24" s="133">
+      <c r="F24" s="132">
         <v>-2.0537000000000001</v>
       </c>
-      <c r="G24" s="133">
+      <c r="G24" s="132">
         <v>-7.7523</v>
       </c>
-      <c r="H24" s="133">
+      <c r="H24" s="132">
         <v>7.6155999999999997</v>
       </c>
-      <c r="I24" s="133">
+      <c r="I24" s="132">
         <v>4.0735000000000001</v>
       </c>
-      <c r="J24" s="120">
+      <c r="J24" s="119">
         <v>-9.9522999999999993</v>
       </c>
-      <c r="K24" s="120">
+      <c r="K24" s="119">
         <v>4.4302999999999999</v>
       </c>
-      <c r="L24" s="121">
+      <c r="L24" s="120">
         <v>5.8593999999999999</v>
       </c>
-      <c r="M24" s="119">
+      <c r="M24" s="118">
         <v>1.8922000000000001</v>
       </c>
-      <c r="N24" s="120">
+      <c r="N24" s="119">
         <v>-75.656000000000006</v>
       </c>
-      <c r="O24" s="120">
+      <c r="O24" s="119">
         <v>-8.9059000000000008</v>
       </c>
-      <c r="P24" s="133">
+      <c r="P24" s="132">
         <v>6.1264000000000003</v>
       </c>
-      <c r="Q24" s="133">
+      <c r="Q24" s="132">
         <v>0.34098000000000001</v>
       </c>
-      <c r="R24" s="133">
+      <c r="R24" s="132">
         <v>1.2392000000000001</v>
       </c>
-      <c r="S24" s="133">
+      <c r="S24" s="132">
         <v>-0.11892999999999999</v>
       </c>
       <c r="T24" s="44">
         <v>3.8666999999999998</v>
       </c>
-      <c r="U24" s="142">
+      <c r="U24" s="141">
         <v>-1.0390999999999999</v>
       </c>
     </row>
@@ -11406,58 +11411,58 @@
       <c r="C25" s="55">
         <v>0.22448979591836743</v>
       </c>
-      <c r="D25" s="122">
+      <c r="D25" s="121">
         <v>6.9478</v>
       </c>
-      <c r="E25" s="118">
+      <c r="E25" s="117">
         <v>-56.582999999999998</v>
       </c>
-      <c r="F25" s="118">
+      <c r="F25" s="117">
         <v>-38.71</v>
       </c>
-      <c r="G25" s="118">
+      <c r="G25" s="117">
         <v>41.542000000000002</v>
       </c>
-      <c r="H25" s="118">
+      <c r="H25" s="117">
         <v>-253.52</v>
       </c>
-      <c r="I25" s="118">
+      <c r="I25" s="117">
         <v>4.1860999999999997</v>
       </c>
-      <c r="J25" s="117">
+      <c r="J25" s="116">
         <v>24.507999999999999</v>
       </c>
-      <c r="K25" s="117">
+      <c r="K25" s="116">
         <v>2.8713000000000002</v>
       </c>
-      <c r="L25" s="124">
+      <c r="L25" s="123">
         <v>196.6</v>
       </c>
-      <c r="M25" s="125">
+      <c r="M25" s="124">
         <v>-16.370999999999999</v>
       </c>
-      <c r="N25" s="117">
+      <c r="N25" s="116">
         <v>-33.091000000000001</v>
       </c>
-      <c r="O25" s="117">
+      <c r="O25" s="116">
         <v>-26.067</v>
       </c>
-      <c r="P25" s="118">
+      <c r="P25" s="117">
         <v>25.460999999999999</v>
       </c>
-      <c r="Q25" s="118">
+      <c r="Q25" s="117">
         <v>154.34</v>
       </c>
-      <c r="R25" s="118">
+      <c r="R25" s="117">
         <v>7.0884</v>
       </c>
-      <c r="S25" s="118">
+      <c r="S25" s="117">
         <v>-22.478000000000002</v>
       </c>
       <c r="T25" s="3">
         <v>1.6954</v>
       </c>
-      <c r="U25" s="134">
+      <c r="U25" s="133">
         <v>54.234999999999999</v>
       </c>
     </row>
@@ -11469,58 +11474,58 @@
       <c r="C26" s="55">
         <v>0.22448979591836743</v>
       </c>
-      <c r="D26" s="126">
+      <c r="D26" s="125">
         <v>0.20502999999999999</v>
       </c>
-      <c r="E26" s="127">
+      <c r="E26" s="126">
         <v>-148.16</v>
       </c>
-      <c r="F26" s="127">
+      <c r="F26" s="126">
         <v>-16.940000000000001</v>
       </c>
-      <c r="G26" s="127">
+      <c r="G26" s="126">
         <v>7.2615999999999996</v>
       </c>
-      <c r="H26" s="127">
+      <c r="H26" s="126">
         <v>-4.7667999999999999</v>
       </c>
-      <c r="I26" s="127">
+      <c r="I26" s="126">
         <v>-0.54754000000000003</v>
       </c>
-      <c r="J26" s="128">
+      <c r="J26" s="127">
         <v>7.8263999999999996</v>
       </c>
-      <c r="K26" s="128">
+      <c r="K26" s="127">
         <v>7.4337999999999997</v>
       </c>
-      <c r="L26" s="129">
+      <c r="L26" s="128">
         <v>12.669</v>
       </c>
-      <c r="M26" s="135">
+      <c r="M26" s="134">
         <v>1.91</v>
       </c>
-      <c r="N26" s="128">
+      <c r="N26" s="127">
         <v>-145.79</v>
       </c>
-      <c r="O26" s="128">
+      <c r="O26" s="127">
         <v>-12.752000000000001</v>
       </c>
-      <c r="P26" s="127">
+      <c r="P26" s="126">
         <v>2.6358999999999999</v>
       </c>
-      <c r="Q26" s="127">
+      <c r="Q26" s="126">
         <v>-7.4954999999999998</v>
       </c>
-      <c r="R26" s="127">
+      <c r="R26" s="126">
         <v>-1.8769</v>
       </c>
-      <c r="S26" s="127">
+      <c r="S26" s="126">
         <v>5.0731999999999999</v>
       </c>
       <c r="T26" s="49">
         <v>7.3137999999999996</v>
       </c>
-      <c r="U26" s="136">
+      <c r="U26" s="135">
         <v>8.0754999999999999</v>
       </c>
     </row>
@@ -11534,58 +11539,58 @@
       <c r="C27" s="59">
         <v>0.2416666666666667</v>
       </c>
-      <c r="D27" s="119">
+      <c r="D27" s="118">
         <v>3.9788999999999999</v>
       </c>
-      <c r="E27" s="120">
+      <c r="E27" s="119">
         <v>-46.371000000000002</v>
       </c>
-      <c r="F27" s="120">
+      <c r="F27" s="119">
         <v>0.64754999999999996</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="119">
         <v>-6.2805999999999997</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="132">
         <v>10.281000000000001</v>
       </c>
-      <c r="I27" s="133">
+      <c r="I27" s="132">
         <v>3.7357999999999998</v>
       </c>
-      <c r="J27" s="133">
+      <c r="J27" s="132">
         <v>-12.525</v>
       </c>
-      <c r="K27" s="133">
+      <c r="K27" s="132">
         <v>2.4096000000000002</v>
       </c>
-      <c r="L27" s="141">
+      <c r="L27" s="140">
         <v>9.9717000000000002</v>
       </c>
-      <c r="M27" s="140">
+      <c r="M27" s="139">
         <v>-2.09</v>
       </c>
-      <c r="N27" s="133">
+      <c r="N27" s="132">
         <v>-47.606000000000002</v>
       </c>
-      <c r="O27" s="133">
+      <c r="O27" s="132">
         <v>-0.43118000000000001</v>
       </c>
-      <c r="P27" s="133">
+      <c r="P27" s="132">
         <v>-5.9588000000000001</v>
       </c>
-      <c r="Q27" s="133">
+      <c r="Q27" s="132">
         <v>-3.7559</v>
       </c>
-      <c r="R27" s="133">
+      <c r="R27" s="132">
         <v>6.5609999999999999</v>
       </c>
-      <c r="S27" s="133">
+      <c r="S27" s="132">
         <v>4.0868000000000002</v>
       </c>
       <c r="T27" s="44">
         <v>2.4714999999999998</v>
       </c>
-      <c r="U27" s="142">
+      <c r="U27" s="141">
         <v>9.8011999999999997</v>
       </c>
     </row>
@@ -11597,58 +11602,58 @@
       <c r="C28" s="55">
         <v>0.2416666666666667</v>
       </c>
-      <c r="D28" s="125">
+      <c r="D28" s="124">
         <v>1.0009999999999999</v>
       </c>
-      <c r="E28" s="117">
+      <c r="E28" s="116">
         <v>-120.28</v>
       </c>
-      <c r="F28" s="117">
+      <c r="F28" s="116">
         <v>-12.066000000000001</v>
       </c>
-      <c r="G28" s="117">
+      <c r="G28" s="116">
         <v>1.0046999999999999</v>
       </c>
-      <c r="H28" s="118">
+      <c r="H28" s="117">
         <v>0.18396000000000001</v>
       </c>
-      <c r="I28" s="118">
+      <c r="I28" s="117">
         <v>4.0011999999999999</v>
       </c>
-      <c r="J28" s="118">
+      <c r="J28" s="117">
         <v>0.2349</v>
       </c>
-      <c r="K28" s="118">
+      <c r="K28" s="117">
         <v>6.0796999999999999</v>
       </c>
-      <c r="L28" s="123">
+      <c r="L28" s="122">
         <v>0.54674</v>
       </c>
-      <c r="M28" s="122">
+      <c r="M28" s="121">
         <v>11.791</v>
       </c>
-      <c r="N28" s="118">
+      <c r="N28" s="117">
         <v>-123.68</v>
       </c>
-      <c r="O28" s="118">
+      <c r="O28" s="117">
         <v>-18.271000000000001</v>
       </c>
-      <c r="P28" s="118">
+      <c r="P28" s="117">
         <v>10.975</v>
       </c>
-      <c r="Q28" s="118">
+      <c r="Q28" s="117">
         <v>-100.98</v>
       </c>
-      <c r="R28" s="118">
+      <c r="R28" s="117">
         <v>0.33209</v>
       </c>
-      <c r="S28" s="118">
+      <c r="S28" s="117">
         <v>2.6349999999999998</v>
       </c>
       <c r="T28" s="3">
         <v>6.2493999999999996</v>
       </c>
-      <c r="U28" s="134">
+      <c r="U28" s="133">
         <v>13.996</v>
       </c>
     </row>
@@ -11660,58 +11665,58 @@
       <c r="C29" s="56">
         <v>0.2416666666666667</v>
       </c>
-      <c r="D29" s="135">
+      <c r="D29" s="134">
         <v>-0.50504000000000004</v>
       </c>
-      <c r="E29" s="128">
+      <c r="E29" s="127">
         <v>-132.21</v>
       </c>
-      <c r="F29" s="128">
+      <c r="F29" s="127">
         <v>-20.175999999999998</v>
       </c>
-      <c r="G29" s="128">
+      <c r="G29" s="127">
         <v>10.138</v>
       </c>
-      <c r="H29" s="127">
+      <c r="H29" s="126">
         <v>-29.99</v>
       </c>
-      <c r="I29" s="127">
+      <c r="I29" s="126">
         <v>-1.6402000000000001</v>
       </c>
-      <c r="J29" s="127">
+      <c r="J29" s="126">
         <v>16.760999999999999</v>
       </c>
-      <c r="K29" s="127">
+      <c r="K29" s="126">
         <v>6.6554000000000002</v>
       </c>
-      <c r="L29" s="143">
+      <c r="L29" s="142">
         <v>38.155999999999999</v>
       </c>
-      <c r="M29" s="126">
+      <c r="M29" s="125">
         <v>-15.795</v>
       </c>
-      <c r="N29" s="127">
+      <c r="N29" s="126">
         <v>-55.234999999999999</v>
       </c>
-      <c r="O29" s="127">
+      <c r="O29" s="126">
         <v>-25.138000000000002</v>
       </c>
-      <c r="P29" s="127">
+      <c r="P29" s="126">
         <v>19.289000000000001</v>
       </c>
-      <c r="Q29" s="127">
+      <c r="Q29" s="126">
         <v>145.1</v>
       </c>
-      <c r="R29" s="127">
+      <c r="R29" s="126">
         <v>6.5373999999999999</v>
       </c>
-      <c r="S29" s="127">
+      <c r="S29" s="126">
         <v>-20.25</v>
       </c>
       <c r="T29" s="49">
         <v>2.8050000000000002</v>
       </c>
-      <c r="U29" s="136">
+      <c r="U29" s="135">
         <v>48.593000000000004</v>
       </c>
     </row>
@@ -11725,58 +11730,58 @@
       <c r="C30" s="55">
         <v>0.24444444444444444</v>
       </c>
-      <c r="D30" s="119">
+      <c r="D30" s="118">
         <v>4.6760000000000002</v>
       </c>
-      <c r="E30" s="120">
+      <c r="E30" s="119">
         <v>-62.959000000000003</v>
       </c>
-      <c r="F30" s="120">
+      <c r="F30" s="119">
         <v>-4.4667000000000003</v>
       </c>
-      <c r="G30" s="120">
+      <c r="G30" s="119">
         <v>-4.4866000000000001</v>
       </c>
-      <c r="H30" s="133">
+      <c r="H30" s="132">
         <v>8.9542000000000002</v>
       </c>
-      <c r="I30" s="133">
+      <c r="I30" s="132">
         <v>2.9653</v>
       </c>
-      <c r="J30" s="120">
+      <c r="J30" s="119">
         <v>-8.8863000000000003</v>
       </c>
-      <c r="K30" s="120">
+      <c r="K30" s="119">
         <v>3.2572999999999999</v>
       </c>
-      <c r="L30" s="121">
+      <c r="L30" s="120">
         <v>9.2225000000000001</v>
       </c>
-      <c r="M30" s="119">
+      <c r="M30" s="118">
         <v>-0.89464999999999995</v>
       </c>
-      <c r="N30" s="120">
+      <c r="N30" s="119">
         <v>-67.665000000000006</v>
       </c>
-      <c r="O30" s="120">
+      <c r="O30" s="119">
         <v>-2.6949999999999998</v>
       </c>
-      <c r="P30" s="133">
+      <c r="P30" s="132">
         <v>-5.7282000000000002</v>
       </c>
-      <c r="Q30" s="133">
+      <c r="Q30" s="132">
         <v>-9.9219000000000008</v>
       </c>
-      <c r="R30" s="133">
+      <c r="R30" s="132">
         <v>7.4881000000000002</v>
       </c>
-      <c r="S30" s="133">
+      <c r="S30" s="132">
         <v>4.3714000000000004</v>
       </c>
       <c r="T30" s="44">
         <v>3.4908000000000001</v>
       </c>
-      <c r="U30" s="142">
+      <c r="U30" s="141">
         <v>9.4243000000000006</v>
       </c>
     </row>
@@ -11788,58 +11793,58 @@
       <c r="C31" s="55">
         <v>0.24444444444444444</v>
       </c>
-      <c r="D31" s="125">
+      <c r="D31" s="124">
         <v>2.5430999999999999</v>
       </c>
-      <c r="E31" s="117">
+      <c r="E31" s="116">
         <v>-70.027000000000001</v>
       </c>
-      <c r="F31" s="117">
+      <c r="F31" s="116">
         <v>1.5405</v>
       </c>
-      <c r="G31" s="117">
+      <c r="G31" s="116">
         <v>-13.683</v>
       </c>
-      <c r="H31" s="118">
+      <c r="H31" s="117">
         <v>8.5996000000000006</v>
       </c>
-      <c r="I31" s="118">
+      <c r="I31" s="117">
         <v>-6.7466999999999999E-2</v>
       </c>
-      <c r="J31" s="117">
+      <c r="J31" s="116">
         <v>-9.2927</v>
       </c>
-      <c r="K31" s="117">
+      <c r="K31" s="116">
         <v>3.5933999999999999</v>
       </c>
-      <c r="L31" s="124">
+      <c r="L31" s="123">
         <v>18.888999999999999</v>
       </c>
-      <c r="M31" s="125">
+      <c r="M31" s="124">
         <v>1.1221000000000001</v>
       </c>
-      <c r="N31" s="117">
+      <c r="N31" s="116">
         <v>-68.001999999999995</v>
       </c>
-      <c r="O31" s="117">
+      <c r="O31" s="116">
         <v>-0.15085999999999999</v>
       </c>
-      <c r="P31" s="118">
+      <c r="P31" s="117">
         <v>-11.712</v>
       </c>
-      <c r="Q31" s="118">
+      <c r="Q31" s="117">
         <v>-4.8654999999999999</v>
       </c>
-      <c r="R31" s="118">
+      <c r="R31" s="117">
         <v>-2.5211999999999998E-2</v>
       </c>
-      <c r="S31" s="118">
+      <c r="S31" s="117">
         <v>5.1736000000000004</v>
       </c>
       <c r="T31" s="3">
         <v>3.4903</v>
       </c>
-      <c r="U31" s="134">
+      <c r="U31" s="133">
         <v>22.63</v>
       </c>
     </row>
@@ -11851,58 +11856,58 @@
       <c r="C32" s="55">
         <v>0.24444444444444444</v>
       </c>
-      <c r="D32" s="135">
+      <c r="D32" s="134">
         <v>2.5236999999999998</v>
       </c>
-      <c r="E32" s="128">
+      <c r="E32" s="127">
         <v>-146.34</v>
       </c>
-      <c r="F32" s="128">
+      <c r="F32" s="127">
         <v>-3.27</v>
       </c>
-      <c r="G32" s="128">
+      <c r="G32" s="127">
         <v>-10.263999999999999</v>
       </c>
-      <c r="H32" s="127">
+      <c r="H32" s="126">
         <v>-8.3668999999999993</v>
       </c>
-      <c r="I32" s="127">
+      <c r="I32" s="126">
         <v>1.5076000000000001</v>
       </c>
-      <c r="J32" s="128">
+      <c r="J32" s="127">
         <v>-3.9817999999999998</v>
       </c>
-      <c r="K32" s="128">
+      <c r="K32" s="127">
         <v>7.3922999999999996</v>
       </c>
-      <c r="L32" s="129">
+      <c r="L32" s="128">
         <v>-4.6486999999999998</v>
       </c>
-      <c r="M32" s="135">
+      <c r="M32" s="134">
         <v>1.478</v>
       </c>
-      <c r="N32" s="128">
+      <c r="N32" s="127">
         <v>-90.028999999999996</v>
       </c>
-      <c r="O32" s="128">
+      <c r="O32" s="127">
         <v>1.3775999999999999</v>
       </c>
-      <c r="P32" s="127">
+      <c r="P32" s="126">
         <v>-13.615</v>
       </c>
-      <c r="Q32" s="127">
+      <c r="Q32" s="126">
         <v>8.9337</v>
       </c>
-      <c r="R32" s="127">
+      <c r="R32" s="126">
         <v>0.56616999999999995</v>
       </c>
-      <c r="S32" s="127">
+      <c r="S32" s="126">
         <v>0.51436999999999999</v>
       </c>
       <c r="T32" s="49">
         <v>4.5747</v>
       </c>
-      <c r="U32" s="136">
+      <c r="U32" s="135">
         <v>9.4882000000000009</v>
       </c>
     </row>
@@ -11916,58 +11921,58 @@
       <c r="C33" s="59">
         <v>0.24452554744525545</v>
       </c>
-      <c r="D33" s="140">
+      <c r="D33" s="139">
         <v>8.1687999999999992</v>
       </c>
-      <c r="E33" s="133">
+      <c r="E33" s="132">
         <v>-29.175000000000001</v>
       </c>
-      <c r="F33" s="133">
+      <c r="F33" s="132">
         <v>-9.9099000000000004</v>
       </c>
-      <c r="G33" s="133">
+      <c r="G33" s="132">
         <v>2.6139999999999999</v>
       </c>
-      <c r="H33" s="133">
+      <c r="H33" s="132">
         <v>19.297999999999998</v>
       </c>
-      <c r="I33" s="133">
+      <c r="I33" s="132">
         <v>3.8601000000000001</v>
       </c>
-      <c r="J33" s="133">
+      <c r="J33" s="132">
         <v>-21.831</v>
       </c>
-      <c r="K33" s="133">
+      <c r="K33" s="132">
         <v>1.5745</v>
       </c>
-      <c r="L33" s="141">
+      <c r="L33" s="140">
         <v>15.08</v>
       </c>
-      <c r="M33" s="140">
+      <c r="M33" s="139">
         <v>-1.5144</v>
       </c>
-      <c r="N33" s="133">
+      <c r="N33" s="132">
         <v>-59.365000000000002</v>
       </c>
-      <c r="O33" s="133">
+      <c r="O33" s="132">
         <v>-4.7648999999999999</v>
       </c>
-      <c r="P33" s="133">
+      <c r="P33" s="132">
         <v>-1.3531</v>
       </c>
-      <c r="Q33" s="133">
+      <c r="Q33" s="132">
         <v>-9.5587</v>
       </c>
-      <c r="R33" s="133">
+      <c r="R33" s="132">
         <v>7.8682999999999996</v>
       </c>
-      <c r="S33" s="133">
+      <c r="S33" s="132">
         <v>3.5301999999999998</v>
       </c>
       <c r="T33" s="44">
         <v>3.0827</v>
       </c>
-      <c r="U33" s="142">
+      <c r="U33" s="141">
         <v>6.8985000000000003</v>
       </c>
     </row>
@@ -11979,58 +11984,58 @@
       <c r="C34" s="55">
         <v>0.24452554744525545</v>
       </c>
-      <c r="D34" s="122">
+      <c r="D34" s="121">
         <v>1.5909</v>
       </c>
-      <c r="E34" s="118">
+      <c r="E34" s="117">
         <v>-95.483999999999995</v>
       </c>
-      <c r="F34" s="118">
+      <c r="F34" s="117">
         <v>1.9131</v>
       </c>
-      <c r="G34" s="118">
+      <c r="G34" s="117">
         <v>-11.927</v>
       </c>
-      <c r="H34" s="118">
+      <c r="H34" s="117">
         <v>1.1365000000000001</v>
       </c>
-      <c r="I34" s="118">
+      <c r="I34" s="117">
         <v>-3.5268999999999999</v>
       </c>
-      <c r="J34" s="118">
+      <c r="J34" s="117">
         <v>3.2776000000000001</v>
       </c>
-      <c r="K34" s="118">
+      <c r="K34" s="117">
         <v>4.8766999999999996</v>
       </c>
-      <c r="L34" s="123">
+      <c r="L34" s="122">
         <v>14.936</v>
       </c>
-      <c r="M34" s="122">
+      <c r="M34" s="121">
         <v>1.4681</v>
       </c>
-      <c r="N34" s="118">
+      <c r="N34" s="117">
         <v>-101.38</v>
       </c>
-      <c r="O34" s="118">
+      <c r="O34" s="117">
         <v>0.57962000000000002</v>
       </c>
-      <c r="P34" s="118">
+      <c r="P34" s="117">
         <v>-10.292</v>
       </c>
-      <c r="Q34" s="118">
+      <c r="Q34" s="117">
         <v>-5.0022000000000002</v>
       </c>
-      <c r="R34" s="118">
+      <c r="R34" s="117">
         <v>2.742</v>
       </c>
-      <c r="S34" s="118">
+      <c r="S34" s="117">
         <v>5.3800999999999997</v>
       </c>
       <c r="T34" s="3">
         <v>5.1703999999999999</v>
       </c>
-      <c r="U34" s="134">
+      <c r="U34" s="133">
         <v>-3.4754</v>
       </c>
     </row>
@@ -12042,58 +12047,58 @@
       <c r="C35" s="55">
         <v>0.24452554744525545</v>
       </c>
-      <c r="D35" s="122">
+      <c r="D35" s="121">
         <v>1.6073</v>
       </c>
-      <c r="E35" s="118">
+      <c r="E35" s="117">
         <v>-91.153000000000006</v>
       </c>
-      <c r="F35" s="118">
+      <c r="F35" s="117">
         <v>-0.71841999999999995</v>
       </c>
-      <c r="G35" s="118">
+      <c r="G35" s="117">
         <v>-10.773</v>
       </c>
-      <c r="H35" s="118">
+      <c r="H35" s="117">
         <v>-5.4015000000000004</v>
       </c>
-      <c r="I35" s="118">
+      <c r="I35" s="117">
         <v>1.1404000000000001</v>
       </c>
-      <c r="J35" s="118">
+      <c r="J35" s="117">
         <v>-3.528</v>
       </c>
-      <c r="K35" s="118">
+      <c r="K35" s="117">
         <v>4.6513</v>
       </c>
-      <c r="L35" s="123">
+      <c r="L35" s="122">
         <v>15.923999999999999</v>
       </c>
-      <c r="M35" s="122">
+      <c r="M35" s="121">
         <v>4.2137000000000002</v>
       </c>
-      <c r="N35" s="118">
+      <c r="N35" s="117">
         <v>-50.238</v>
       </c>
-      <c r="O35" s="118">
+      <c r="O35" s="117">
         <v>-2.1852999999999998</v>
       </c>
-      <c r="P35" s="118">
+      <c r="P35" s="117">
         <v>-9.1275999999999993</v>
       </c>
-      <c r="Q35" s="118">
+      <c r="Q35" s="117">
         <v>-6.5529000000000002</v>
       </c>
-      <c r="R35" s="118">
+      <c r="R35" s="117">
         <v>0.54278000000000004</v>
       </c>
-      <c r="S35" s="118">
+      <c r="S35" s="117">
         <v>6.1988000000000003</v>
       </c>
       <c r="T35" s="3">
         <v>2.6038000000000001</v>
       </c>
-      <c r="U35" s="134">
+      <c r="U35" s="133">
         <v>1.2688999999999999</v>
       </c>
     </row>
@@ -12105,58 +12110,58 @@
       <c r="C36" s="55">
         <v>0.24452554744525545</v>
       </c>
-      <c r="D36" s="126">
+      <c r="D36" s="125">
         <v>3.6173000000000002</v>
       </c>
-      <c r="E36" s="127">
+      <c r="E36" s="126">
         <v>-91.738</v>
       </c>
-      <c r="F36" s="127">
+      <c r="F36" s="126">
         <v>-1.4398</v>
       </c>
-      <c r="G36" s="127">
+      <c r="G36" s="126">
         <v>-11.284000000000001</v>
       </c>
-      <c r="H36" s="127">
+      <c r="H36" s="126">
         <v>-18.018000000000001</v>
       </c>
-      <c r="I36" s="127">
+      <c r="I36" s="126">
         <v>0.95960999999999996</v>
       </c>
-      <c r="J36" s="127">
+      <c r="J36" s="126">
         <v>8.6525999999999996</v>
       </c>
-      <c r="K36" s="127">
+      <c r="K36" s="126">
         <v>4.6604000000000001</v>
       </c>
-      <c r="L36" s="143">
+      <c r="L36" s="142">
         <v>-2.3953000000000002</v>
       </c>
-      <c r="M36" s="126">
+      <c r="M36" s="125">
         <v>0.71501999999999999</v>
       </c>
-      <c r="N36" s="127">
+      <c r="N36" s="126">
         <v>-96.430999999999997</v>
       </c>
-      <c r="O36" s="127">
+      <c r="O36" s="126">
         <v>1.7850999999999999</v>
       </c>
-      <c r="P36" s="127">
+      <c r="P36" s="126">
         <v>-12.643000000000001</v>
       </c>
-      <c r="Q36" s="127">
+      <c r="Q36" s="126">
         <v>3.7347999999999999</v>
       </c>
-      <c r="R36" s="127">
+      <c r="R36" s="126">
         <v>-1.0205</v>
       </c>
-      <c r="S36" s="127">
+      <c r="S36" s="126">
         <v>3.4659</v>
       </c>
       <c r="T36" s="49">
         <v>4.8925999999999998</v>
       </c>
-      <c r="U36" s="136">
+      <c r="U36" s="135">
         <v>11.868</v>
       </c>
     </row>
@@ -12170,58 +12175,58 @@
       <c r="C37" s="59">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D37" s="122">
+      <c r="D37" s="121">
         <v>2.9131</v>
       </c>
-      <c r="E37" s="118">
+      <c r="E37" s="117">
         <v>-69.602000000000004</v>
       </c>
-      <c r="F37" s="118">
+      <c r="F37" s="117">
         <v>-2.8733</v>
       </c>
-      <c r="G37" s="118">
+      <c r="G37" s="117">
         <v>-2.5457999999999998</v>
       </c>
-      <c r="H37" s="118">
+      <c r="H37" s="117">
         <v>7.1676000000000002</v>
       </c>
-      <c r="I37" s="118">
+      <c r="I37" s="117">
         <v>3.0798999999999999</v>
       </c>
-      <c r="J37" s="117">
+      <c r="J37" s="116">
         <v>-7.7545999999999999</v>
       </c>
-      <c r="K37" s="117">
+      <c r="K37" s="116">
         <v>3.5948000000000002</v>
       </c>
-      <c r="L37" s="124">
+      <c r="L37" s="123">
         <v>8.7003000000000004</v>
       </c>
-      <c r="M37" s="125">
+      <c r="M37" s="124">
         <v>0.23018</v>
       </c>
-      <c r="N37" s="117">
+      <c r="N37" s="116">
         <v>-49.405000000000001</v>
       </c>
-      <c r="O37" s="117">
+      <c r="O37" s="116">
         <v>1.4733000000000001</v>
       </c>
-      <c r="P37" s="118">
+      <c r="P37" s="117">
         <v>-4.6216999999999997</v>
       </c>
-      <c r="Q37" s="118">
+      <c r="Q37" s="117">
         <v>-4.9783999999999997</v>
       </c>
-      <c r="R37" s="118">
+      <c r="R37" s="117">
         <v>4.3315000000000001</v>
       </c>
-      <c r="S37" s="118">
+      <c r="S37" s="117">
         <v>3.7541000000000002</v>
       </c>
       <c r="T37" s="3">
         <v>2.5834000000000001</v>
       </c>
-      <c r="U37" s="134">
+      <c r="U37" s="133">
         <v>3.8875999999999999</v>
       </c>
     </row>
@@ -12235,58 +12240,58 @@
       <c r="C38" s="55">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D38" s="122">
+      <c r="D38" s="121">
         <v>-0.51915999999999995</v>
       </c>
-      <c r="E38" s="118">
+      <c r="E38" s="117">
         <v>-74.228999999999999</v>
       </c>
-      <c r="F38" s="118">
+      <c r="F38" s="117">
         <v>3.7292000000000001</v>
       </c>
-      <c r="G38" s="118">
+      <c r="G38" s="117">
         <v>-10.616</v>
       </c>
-      <c r="H38" s="118">
+      <c r="H38" s="117">
         <v>7.7590000000000003</v>
       </c>
-      <c r="I38" s="118">
+      <c r="I38" s="117">
         <v>0.19542000000000001</v>
       </c>
-      <c r="J38" s="117">
+      <c r="J38" s="116">
         <v>5.3388999999999998</v>
       </c>
-      <c r="K38" s="117">
+      <c r="K38" s="116">
         <v>3.8003999999999998</v>
       </c>
-      <c r="L38" s="124">
+      <c r="L38" s="123">
         <v>14.417999999999999</v>
       </c>
-      <c r="M38" s="125">
+      <c r="M38" s="124">
         <v>4.0274000000000001</v>
       </c>
-      <c r="N38" s="117">
+      <c r="N38" s="116">
         <v>-65.781999999999996</v>
       </c>
-      <c r="O38" s="117">
+      <c r="O38" s="116">
         <v>3.0609999999999999</v>
       </c>
-      <c r="P38" s="118">
+      <c r="P38" s="117">
         <v>-9.6801999999999992</v>
       </c>
-      <c r="Q38" s="118">
+      <c r="Q38" s="117">
         <v>-7.4583000000000004</v>
       </c>
-      <c r="R38" s="118">
+      <c r="R38" s="117">
         <v>0.26129999999999998</v>
       </c>
-      <c r="S38" s="118">
+      <c r="S38" s="117">
         <v>-0.33080999999999999</v>
       </c>
       <c r="T38" s="3">
         <v>3.3761000000000001</v>
       </c>
-      <c r="U38" s="134">
+      <c r="U38" s="133">
         <v>7.4980000000000002</v>
       </c>
     </row>
@@ -12298,58 +12303,58 @@
       <c r="C39" s="55">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D39" s="122">
+      <c r="D39" s="121">
         <v>-1.8940999999999999</v>
       </c>
-      <c r="E39" s="118">
+      <c r="E39" s="117">
         <v>-69.644000000000005</v>
       </c>
-      <c r="F39" s="118">
+      <c r="F39" s="117">
         <v>1.1922999999999999</v>
       </c>
-      <c r="G39" s="118">
+      <c r="G39" s="117">
         <v>-9.6075999999999997</v>
       </c>
-      <c r="H39" s="118">
+      <c r="H39" s="117">
         <v>2.3428</v>
       </c>
-      <c r="I39" s="118">
+      <c r="I39" s="117">
         <v>0.30256</v>
       </c>
-      <c r="J39" s="117">
+      <c r="J39" s="116">
         <v>3.8828999999999998</v>
       </c>
-      <c r="K39" s="117">
+      <c r="K39" s="116">
         <v>3.5592000000000001</v>
       </c>
-      <c r="L39" s="124">
+      <c r="L39" s="123">
         <v>31.111000000000001</v>
       </c>
-      <c r="M39" s="125">
+      <c r="M39" s="124">
         <v>8.2735000000000003</v>
       </c>
-      <c r="N39" s="117">
+      <c r="N39" s="116">
         <v>-33.267000000000003</v>
       </c>
-      <c r="O39" s="117">
+      <c r="O39" s="116">
         <v>7.9954000000000001</v>
       </c>
-      <c r="P39" s="118">
+      <c r="P39" s="117">
         <v>-12.335000000000001</v>
       </c>
-      <c r="Q39" s="118">
+      <c r="Q39" s="117">
         <v>-52.701000000000001</v>
       </c>
-      <c r="R39" s="118">
+      <c r="R39" s="117">
         <v>3.2797999999999998</v>
       </c>
-      <c r="S39" s="118">
+      <c r="S39" s="117">
         <v>-5.7079000000000004</v>
       </c>
       <c r="T39" s="3">
         <v>1.7381</v>
       </c>
-      <c r="U39" s="134">
+      <c r="U39" s="133">
         <v>17.686</v>
       </c>
     </row>
@@ -12361,58 +12366,58 @@
       <c r="C40" s="56">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D40" s="126">
+      <c r="D40" s="125">
         <v>7.1447000000000004E-3</v>
       </c>
-      <c r="E40" s="127">
+      <c r="E40" s="126">
         <v>-78.569999999999993</v>
       </c>
-      <c r="F40" s="127">
+      <c r="F40" s="126">
         <v>4.3131000000000004</v>
       </c>
-      <c r="G40" s="127">
+      <c r="G40" s="126">
         <v>-11.454000000000001</v>
       </c>
-      <c r="H40" s="127">
+      <c r="H40" s="126">
         <v>1.0954999999999999</v>
       </c>
-      <c r="I40" s="127">
+      <c r="I40" s="126">
         <v>6.2129999999999998E-2</v>
       </c>
-      <c r="J40" s="128">
+      <c r="J40" s="127">
         <v>10.212999999999999</v>
       </c>
-      <c r="K40" s="128">
+      <c r="K40" s="127">
         <v>3.9836</v>
       </c>
-      <c r="L40" s="129">
+      <c r="L40" s="128">
         <v>9.2063000000000006</v>
       </c>
-      <c r="M40" s="135">
+      <c r="M40" s="134">
         <v>8.1809999999999994E-2</v>
       </c>
-      <c r="N40" s="128">
+      <c r="N40" s="127">
         <v>-76.593000000000004</v>
       </c>
-      <c r="O40" s="128">
+      <c r="O40" s="127">
         <v>3.1956000000000002</v>
       </c>
-      <c r="P40" s="127">
+      <c r="P40" s="126">
         <v>-10.003</v>
       </c>
-      <c r="Q40" s="127">
+      <c r="Q40" s="126">
         <v>10.855</v>
       </c>
-      <c r="R40" s="127">
+      <c r="R40" s="126">
         <v>0.64822999999999997</v>
       </c>
-      <c r="S40" s="127">
+      <c r="S40" s="126">
         <v>0.13633000000000001</v>
       </c>
       <c r="T40" s="49">
         <v>3.8818999999999999</v>
       </c>
-      <c r="U40" s="136">
+      <c r="U40" s="135">
         <v>10.984999999999999</v>
       </c>
     </row>

--- a/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF36C40-9DF1-4BD8-88BE-A7355F6F5726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E8873-393E-4F69-B494-09AD5B754703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Model1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>Data</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Force  = a0 + a1*Pressure + a2*Diameter + a3*Lo + a4*E + a5*Emax +a6*State + a7*Pressure(Diameter)+a8*(E/Emax)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope </t>
   </si>
 </sst>
 </file>
@@ -7493,7 +7496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB9165-0AC4-4E02-9FE6-56899BB84B47}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection sqref="A1:T40"/>
     </sheetView>
   </sheetViews>
@@ -9975,10 +9978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0888F2-2C2B-4470-8C56-2D382F0DA6F3}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9988,7 +9991,7 @@
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -10016,7 +10019,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10038,7 +10041,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -10063,8 +10066,11 @@
       <c r="R3" s="1"/>
       <c r="S3" s="3"/>
       <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
@@ -10194,7 +10200,7 @@
         <v>16.059999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="52">
         <v>3.3333333333333361E-2</v>
@@ -10257,7 +10263,7 @@
         <v>-14.061999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="52">
         <v>6.6666666666666721E-2</v>
@@ -10320,7 +10326,7 @@
         <v>-6.4264999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="53">
         <v>9.9999999999999936E-2</v>
@@ -10383,7 +10389,7 @@
         <v>-26.968</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -10448,7 +10454,7 @@
         <v>10.526</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="52">
         <v>6.8181818181818177E-2</v>
@@ -10511,7 +10517,7 @@
         <v>2.1139999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="53">
         <v>0.14090909090909098</v>
@@ -10574,7 +10580,7 @@
         <v>4.8281000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
@@ -10639,7 +10645,7 @@
         <v>9.4631000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="52">
         <v>2.7237354085603085E-2</v>
@@ -10702,7 +10708,7 @@
         <v>-7.1691000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="52">
         <v>5.8365758754863814E-2</v>
@@ -10765,7 +10771,7 @@
         <v>-14.769</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="52">
         <v>0.12062256809338513</v>
@@ -10828,7 +10834,7 @@
         <v>-8.4347999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>

--- a/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E8873-393E-4F69-B494-09AD5B754703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D673521-D5D2-43A8-A2B8-FE2F142D40BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
+    <workbookView minimized="1" xWindow="1065" yWindow="2610" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Model1" sheetId="1" r:id="rId1"/>
@@ -4943,16 +4943,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>680764</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>154753</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352315</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>8759</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>181905</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>149061</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4979,16 +4979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>694284</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>5748</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332991</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>159023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>26001</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>86217</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365398</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>53371</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5015,16 +5015,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>24359</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175665</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396601</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>44285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9250</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7171</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>753733</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>116654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5051,16 +5051,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>17900</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>8594</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>346349</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>118077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>6513</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>91910</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>707203</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>15272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7496,8 +7496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB9165-0AC4-4E02-9FE6-56899BB84B47}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection sqref="A1:T40"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D673521-D5D2-43A8-A2B8-FE2F142D40BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9EFF26-28BD-475F-A034-35055C0FB770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1065" yWindow="2610" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Model1" sheetId="1" r:id="rId1"/>
     <sheet name="Model2" sheetId="2" r:id="rId2"/>
     <sheet name="Model 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Model 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7496,7 +7497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB9165-0AC4-4E02-9FE6-56899BB84B47}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -12490,4 +12491,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B79C6F5-E865-472A-93DB-F1E6ACFECC8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E29:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/OptimizingParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0231D76C-2616-4F24-A7EB-5D62D661DD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08286C96-5615-49DB-B83C-AFF45AFF2698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Model1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="58">
   <si>
     <t>Data</t>
   </si>
@@ -289,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -515,20 +515,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -954,14 +945,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6280,21 +6268,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model 4 - 20mm40cm'!$S$5:$S$8</c:f>
+              <c:f>'Model 4 - 20mm40cm'!$R$5:$R$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-153.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-165.21090909090884</c:v>
+                  <c:v>-318.90863636363605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-55.431515151515107</c:v>
+                  <c:v>-319.38763636363632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.708484848484854</c:v>
+                  <c:v>-321.19434343434341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7677,7 +7665,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1828513945484441"/>
+          <c:y val="0.18223776223776225"/>
+          <c:w val="0.66355586874597872"/>
+          <c:h val="0.70491823137492426"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -7813,7 +7811,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model 4 - 20mm40cm'!$T$5:$T$8</c:f>
+              <c:f>'Model 4 - 20mm40cm'!$S$5:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7821,13 +7819,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-234.52363636363603</c:v>
+                  <c:v>-165.21090909090884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-26.627636363636341</c:v>
+                  <c:v>-55.431515151515107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.565656565656575</c:v>
+                  <c:v>-21.708484848484854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8958,6 +8956,3337 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9416-4312-B0BB-777FF649AC95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543468080"/>
+        <c:axId val="543468408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543468080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>strain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543468408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543468408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>a3</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543468080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Slope</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20822356782990059"/>
+          <c:y val="6.1535661236361242E-2"/>
+          <c:w val="0.71598950131233596"/>
+          <c:h val="0.6697606582158776"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Slope vs relative strain(P)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7307999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84909090909090423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DE0-4916-90F3-C99116953C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Slope vs strain (DP)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$Q$9:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82195454545453828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48736363636363578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DE0-4916-90F3-C99116953C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="339279976"/>
+        <c:axId val="339276368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="339279976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Strain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339276368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="339276368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Slope</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339279976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Intercept</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1450264535562133"/>
+          <c:y val="0.15505252980304132"/>
+          <c:w val="0.79670970118335349"/>
+          <c:h val="0.67885892014649885"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Intercept vs strain (P)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-120.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-254.99818181818188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-255.97181818181818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2B3-40D6-9E73-DDA2B07D258B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Intercept vs strain (DP)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$R$9:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-117.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-236.09818181818181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-225.13636363636365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2B3-40D6-9E73-DDA2B07D258B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543468080"/>
+        <c:axId val="543474968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543468080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>strain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543474968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543474968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Intercept</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543468080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ao</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A0 (P)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7307999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.972000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D4A-4AF3-A376-593E764739D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>A0(DP)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$I$9:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.610999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.861000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D4A-4AF3-A376-593E764739D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="536873616"/>
+        <c:axId val="564669672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="536873616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>strain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564669672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="564669672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>a0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536873616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>A1*e/emax</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1828513945484441"/>
+          <c:y val="0.18223776223776225"/>
+          <c:w val="0.66355586874597872"/>
+          <c:h val="0.70491823137492426"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>a1(P)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-203.91090909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-23.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43EE-43A6-9F43-D0C6F54D563C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>a1(DP)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$S$9:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-38.789045454545459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-24.373636363636365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43EE-43A6-9F43-D0C6F54D563C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="536873616"/>
+        <c:axId val="564669672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="536873616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>strain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564669672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="564669672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>a0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536873616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>a2*(e/emax)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>a2(e/emax) (P)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$P$9:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-535.06818181818187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-98.781818181818181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B999-4F45-9835-535382A5B906}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>a2(e/emax) (DP)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$T$9:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.901818181818186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-102.63636363636365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B999-4F45-9835-535382A5B906}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="570061424"/>
+        <c:axId val="570056504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="570061424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>strain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570056504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="570056504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>a2(relativestrain)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570061424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>a3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>a3 (P)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$H$9:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-120.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-157.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAEF-48D9-A944-2992B0B66B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>a3(DP)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13265306122448986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20408163265306131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 4 - 20mm40cm'!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-117.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-122.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AAEF-48D9-A944-2992B0B66B84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13546,6 +16875,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -21566,6 +25135,3102 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -25367,16 +32032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>280986</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25403,16 +32068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25439,16 +32104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25477,16 +32142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25513,16 +32178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25549,16 +32214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25587,16 +32252,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25625,16 +32290,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>785813</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>433388</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25663,16 +32328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25701,16 +32366,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25739,16 +32404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25783,15 +32448,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25820,16 +32485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>90486</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32715</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>33544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25858,16 +32523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>191330</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26920</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10561</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25896,16 +32561,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>770283</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33545</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>105602</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25934,16 +32599,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>780844</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58394</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>78477</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25972,16 +32637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198161</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>40791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100426</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>116991</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26003,6 +32668,234 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21743</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>850625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05E49D4-8C7D-42A7-8205-19CADD02F405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>679174</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A5C40B-0832-4EDE-A8DB-AF4E78EFB8E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22572</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213279</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870AC507-7816-4548-B8C1-B87BE7D33472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30027</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>468384</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>105602</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40A3C0E-F53A-41A9-BA18-19C444AE2FC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>65436</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>518081</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>95042</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1AA7D63-185E-4AD0-94D2-B58588B52DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54252</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>49075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>311634</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>125275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A62D2E32-2E19-4DEB-8378-FA12FCB7350A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -28594,6 +35487,292 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride9.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6281-533D-4517-84CE-3CB45F536282}">
   <dimension ref="A1:U40"/>
@@ -28625,11 +35804,11 @@
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -35707,8 +42886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B79C6F5-E865-472A-93DB-F1E6ACFECC8D}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W88" sqref="W88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35789,7 +42968,7 @@
       <c r="K4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="150" t="s">
+      <c r="L4" s="149" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="129" t="s">
@@ -35856,11 +43035,11 @@
         <v>-52.014000000000003</v>
       </c>
       <c r="M5" s="46">
-        <f>(E5 +F5*(B5/C5))</f>
+        <f t="shared" ref="M5:M12" si="0">(E5 +F5*(B5/C5))</f>
         <v>0.64120999999999995</v>
       </c>
       <c r="N5" s="3">
-        <f>(G5*(B5/C5)) +H5</f>
+        <f t="shared" ref="N5:N12" si="1">(G5*(B5/C5)) +H5</f>
         <v>-59.043999999999997</v>
       </c>
       <c r="O5" s="47">
@@ -35872,19 +43051,19 @@
         <v>0</v>
       </c>
       <c r="R5" s="46">
-        <f>I5+J5*(B5/C5)</f>
+        <f t="shared" ref="R5:R12" si="2">I5+J5*(B5/C5)</f>
         <v>0.61463999999999996</v>
       </c>
       <c r="S5" s="3">
-        <f>K5*(B5/C5) +L5</f>
+        <f t="shared" ref="S5:S12" si="3">K5*(B5/C5) +L5</f>
         <v>-52.014000000000003</v>
       </c>
       <c r="T5" s="47">
-        <f>J5*D5</f>
+        <f t="shared" ref="T5:T12" si="4">J5*D5</f>
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <f>D5*K5</f>
+        <f t="shared" ref="U5:U12" si="5">D5*K5</f>
         <v>0</v>
       </c>
     </row>
@@ -35897,7 +43076,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D8" si="0">B6/C6</f>
+        <f t="shared" ref="D6:D8" si="6">B6/C6</f>
         <v>0.20000000000000018</v>
       </c>
       <c r="E6" s="46">
@@ -35925,35 +43104,35 @@
         <v>-111.58</v>
       </c>
       <c r="M6" s="46">
-        <f>(E6 +F6*(B6/C6))</f>
+        <f t="shared" si="0"/>
         <v>0.64499999999997826</v>
       </c>
       <c r="N6" s="3">
-        <f>(G6*(B6/C6)) +H6</f>
+        <f t="shared" si="1"/>
         <v>-130.73560000000001</v>
       </c>
       <c r="O6" s="47">
-        <f t="shared" ref="O6:O12" si="1">F6*D6</f>
+        <f t="shared" ref="O6:O12" si="7">F6*D6</f>
         <v>-23.648000000000021</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P12" si="2">G6*D6</f>
+        <f t="shared" ref="P6:P12" si="8">G6*D6</f>
         <v>-13.325600000000012</v>
       </c>
       <c r="R6" s="46">
-        <f>I6+J6*(B6/C6)</f>
+        <f t="shared" si="2"/>
         <v>0.59799999999997766</v>
       </c>
       <c r="S6" s="3">
-        <f>K6*(B6/C6) +L6</f>
+        <f t="shared" si="3"/>
         <v>-106.24019999999999</v>
       </c>
       <c r="T6" s="47">
-        <f>J6*D6</f>
+        <f t="shared" si="4"/>
         <v>-22.898000000000021</v>
       </c>
       <c r="U6" s="1">
-        <f>D6*K6</f>
+        <f t="shared" si="5"/>
         <v>5.3398000000000048</v>
       </c>
     </row>
@@ -35966,7 +43145,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="E7" s="46">
@@ -35994,35 +43173,35 @@
         <v>-178.83</v>
       </c>
       <c r="M7" s="46">
-        <f>(E7 +F7*(B7/C7))</f>
+        <f t="shared" si="0"/>
         <v>0.58899999999998087</v>
       </c>
       <c r="N7" s="3">
-        <f>(G7*(B7/C7)) +H7</f>
+        <f t="shared" si="1"/>
         <v>-194.7972</v>
       </c>
       <c r="O7" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-18.536000000000019</v>
       </c>
       <c r="P7" s="1">
+        <f t="shared" si="8"/>
+        <v>-4.2572000000000036</v>
+      </c>
+      <c r="R7" s="46">
         <f t="shared" si="2"/>
-        <v>-4.2572000000000036</v>
-      </c>
-      <c r="R7" s="46">
-        <f>I7+J7*(B7/C7)</f>
         <v>0.55319999999998792</v>
       </c>
       <c r="S7" s="3">
-        <f>K7*(B7/C7) +L7</f>
+        <f t="shared" si="3"/>
         <v>-165.65880000000001</v>
       </c>
       <c r="T7" s="47">
-        <f>J7*D7</f>
+        <f t="shared" si="4"/>
         <v>-15.240800000000013</v>
       </c>
       <c r="U7" s="1">
-        <f>D7*K7</f>
+        <f t="shared" si="5"/>
         <v>13.171200000000011</v>
       </c>
     </row>
@@ -36035,7 +43214,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="E8" s="48">
@@ -36063,35 +43242,35 @@
         <v>-119.43</v>
       </c>
       <c r="M8" s="48">
-        <f>(E8 +F8*(B8/C8))</f>
+        <f t="shared" si="0"/>
         <v>0.53600000000002979</v>
       </c>
       <c r="N8" s="49">
-        <f>(G8*(B8/C8)) +H8</f>
+        <f t="shared" si="1"/>
         <v>-231.36939999999998</v>
       </c>
       <c r="O8" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-41.843999999999973</v>
       </c>
       <c r="P8" s="1">
+        <f t="shared" si="8"/>
+        <v>-56.339399999999969</v>
+      </c>
+      <c r="R8" s="48">
         <f t="shared" si="2"/>
-        <v>-56.339399999999969</v>
-      </c>
-      <c r="R8" s="48">
-        <f>I8+J8*(B8/C8)</f>
         <v>0.42900000000002336</v>
       </c>
       <c r="S8" s="49">
-        <f>K8*(B8/C8) +L8</f>
+        <f t="shared" si="3"/>
         <v>-161.69459999999998</v>
       </c>
       <c r="T8" s="50">
-        <f>J8*D8</f>
+        <f t="shared" si="4"/>
         <v>-47.876999999999974</v>
       </c>
       <c r="U8" s="1">
-        <f>D8*K8</f>
+        <f t="shared" si="5"/>
         <v>-42.264599999999973</v>
       </c>
     </row>
@@ -36134,11 +43313,11 @@
         <v>-27.236000000000001</v>
       </c>
       <c r="M9" s="46">
-        <f>(E9 +F9*(B9/C9))</f>
+        <f t="shared" si="0"/>
         <v>0.68927000000000005</v>
       </c>
       <c r="N9" s="3">
-        <f>(G9*(B9/C9)) +H9</f>
+        <f t="shared" si="1"/>
         <v>-46.625</v>
       </c>
       <c r="O9" s="47">
@@ -36150,19 +43329,19 @@
         <v>0</v>
       </c>
       <c r="R9" s="46">
-        <f>I9+J9*(B9/C9)</f>
+        <f t="shared" si="2"/>
         <v>0.63105</v>
       </c>
       <c r="S9" s="3">
-        <f>K9*(B9/C9) +L9</f>
+        <f t="shared" si="3"/>
         <v>-27.236000000000001</v>
       </c>
       <c r="T9" s="47">
-        <f>J9*D9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <f>D9*K9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -36175,7 +43354,7 @@
         <v>0.15175097276264587</v>
       </c>
       <c r="D10" s="47">
-        <f t="shared" ref="D10:D12" si="3">B10/C10</f>
+        <f t="shared" ref="D10:D12" si="9">B10/C10</f>
         <v>0.17948717948717935</v>
       </c>
       <c r="E10" s="145">
@@ -36203,11 +43382,11 @@
         <v>-151.35</v>
       </c>
       <c r="M10" s="46">
-        <f>(E10 +F10*(B10/C10))</f>
+        <f t="shared" si="0"/>
         <v>0.72756410256415904</v>
       </c>
       <c r="N10" s="3">
-        <f>(G10*(B10/C10)) +H10</f>
+        <f t="shared" si="1"/>
         <v>-196.27371794871794</v>
       </c>
       <c r="O10" s="47">
@@ -36215,23 +43394,23 @@
         <v>-66.837435897435839</v>
       </c>
       <c r="P10" s="1">
+        <f t="shared" si="8"/>
+        <v>-6.0137179487179449</v>
+      </c>
+      <c r="R10" s="46">
         <f t="shared" si="2"/>
-        <v>-6.0137179487179449</v>
-      </c>
-      <c r="R10" s="46">
-        <f>I10+J10*(B10/C10)</f>
         <v>0.66635897435899949</v>
       </c>
       <c r="S10" s="3">
-        <f>K10*(B10/C10) +L10</f>
+        <f t="shared" si="3"/>
         <v>-155.07256410256409</v>
       </c>
       <c r="T10" s="47">
-        <f>J10*D10</f>
+        <f t="shared" si="4"/>
         <v>-28.965641025641002</v>
       </c>
       <c r="U10" s="1">
-        <f>D10*K10</f>
+        <f t="shared" si="5"/>
         <v>-3.7225641025640996</v>
       </c>
     </row>
@@ -36244,7 +43423,7 @@
         <v>0.15175097276264587</v>
       </c>
       <c r="D11" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.38461538461538475</v>
       </c>
       <c r="E11" s="145">
@@ -36272,35 +43451,35 @@
         <v>-203.8</v>
       </c>
       <c r="M11" s="46">
-        <f>(E11 +F11*(B11/C11))</f>
+        <f t="shared" si="0"/>
         <v>0.68961538461537586</v>
       </c>
       <c r="N11" s="3">
-        <f>(G11*(B11/C11)) +H11</f>
+        <f t="shared" si="1"/>
         <v>-244.33538461538461</v>
       </c>
       <c r="O11" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-29.935384615384624</v>
       </c>
       <c r="P11" s="1">
+        <f t="shared" si="8"/>
+        <v>-32.085384615384626</v>
+      </c>
+      <c r="R11" s="46">
         <f t="shared" si="2"/>
-        <v>-32.085384615384626</v>
-      </c>
-      <c r="R11" s="46">
-        <f>I11+J11*(B11/C11)</f>
         <v>0.61092307692305781</v>
       </c>
       <c r="S11" s="3">
-        <f>K11*(B11/C11) +L11</f>
+        <f t="shared" si="3"/>
         <v>-190.53230769230771</v>
       </c>
       <c r="T11" s="47">
-        <f>J11*D11</f>
+        <f t="shared" si="4"/>
         <v>-47.82307692307694</v>
       </c>
       <c r="U11" s="1">
-        <f>D11*K11</f>
+        <f t="shared" si="5"/>
         <v>13.267692307692313</v>
       </c>
     </row>
@@ -36313,7 +43492,7 @@
         <v>0.15175097276264587</v>
       </c>
       <c r="D12" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.79487179487179449</v>
       </c>
       <c r="E12" s="147">
@@ -36341,61 +43520,66 @@
         <v>-188.91</v>
       </c>
       <c r="M12" s="48">
-        <f>(E12 +F12*(B12/C12))</f>
+        <f t="shared" si="0"/>
         <v>0.57769230769232394</v>
       </c>
       <c r="N12" s="49">
-        <f>(G12*(B12/C12)) +H12</f>
+        <f t="shared" si="1"/>
         <v>-298.52879487179484</v>
       </c>
       <c r="O12" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-35.199307692307677</v>
       </c>
       <c r="P12" s="1">
+        <f t="shared" si="8"/>
+        <v>-33.728794871794854</v>
+      </c>
+      <c r="R12" s="48">
         <f t="shared" si="2"/>
-        <v>-33.728794871794854</v>
-      </c>
-      <c r="R12" s="48">
-        <f>I12+J12*(B12/C12)</f>
         <v>0.44430769230770295</v>
       </c>
       <c r="S12" s="49">
-        <f>K12*(B12/C12) +L12</f>
+        <f t="shared" si="3"/>
         <v>-209.83976923076921</v>
       </c>
       <c r="T12" s="50">
-        <f>J12*D12</f>
+        <f t="shared" si="4"/>
         <v>-22.460692307692298</v>
       </c>
       <c r="U12" s="1">
-        <f>D12*K12</f>
+        <f t="shared" si="5"/>
         <v>-20.929769230769221</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3168D3D4-20E8-4AEF-807E-2C7CFD9BE0AA}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="20" max="20" width="15.28515625" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -36432,16 +43616,16 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="129" t="s">
@@ -36465,7 +43649,7 @@
       <c r="K4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="150" t="s">
+      <c r="L4" s="136" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="129" t="s">
@@ -36474,22 +43658,22 @@
       <c r="N4" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="131" t="s">
+      <c r="O4" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="116" t="s">
+      <c r="P4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="129" t="s">
+      <c r="Q4" s="130" t="s">
         <v>35</v>
       </c>
       <c r="R4" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="131" t="s">
+      <c r="S4" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="116" t="s">
+      <c r="T4" s="131" t="s">
         <v>57</v>
       </c>
     </row>
@@ -36497,13 +43681,13 @@
       <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="46">
         <v>0</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="54">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="47">
         <f>B5/C5</f>
         <v>0</v>
       </c>
@@ -36528,7 +43712,7 @@
       <c r="K5" s="132">
         <v>-5.7336999999999998</v>
       </c>
-      <c r="L5" s="140">
+      <c r="L5" s="132">
         <v>-153.32</v>
       </c>
       <c r="M5" s="46">
@@ -36539,15 +43723,15 @@
         <f>(G5*(B5/C5)) +H5</f>
         <v>-162.54</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="3">
         <f>F5*D5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="47">
         <f>G5*D5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="3">
         <f>I5+J5*D5</f>
         <v>2.2618999999999998</v>
       </c>
@@ -36555,24 +43739,24 @@
         <f>K5*(B5/C5) +L5</f>
         <v>-153.32</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="3">
         <f>J5*D5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="47">
         <f>D5*K5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="1">
+      <c r="B6" s="46">
         <v>9.0452261306532528E-2</v>
       </c>
       <c r="C6" s="54">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="47">
         <f t="shared" ref="D6:D8" si="0">B6/C6</f>
         <v>0.36363636363636309</v>
       </c>
@@ -36597,7 +43781,7 @@
       <c r="K6" s="117">
         <v>-644.94000000000005</v>
       </c>
-      <c r="L6" s="122">
+      <c r="L6" s="117">
         <v>-84.385000000000005</v>
       </c>
       <c r="M6" s="46">
@@ -36608,15 +43792,15 @@
         <f>(G6*(B6/C6)) +H6</f>
         <v>-340.65254545454542</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="3">
         <f t="shared" ref="O6:O8" si="2">F6*D6</f>
         <v>-32.306545454545407</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="47">
         <f t="shared" ref="P6:P8" si="3">G6*D6</f>
         <v>-25.182545454545416</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="3">
         <f t="shared" ref="Q6:Q8" si="4">I6+J6*D6</f>
         <v>1.7390909090911464</v>
       </c>
@@ -36624,24 +43808,24 @@
         <f>K6*(B6/C6) +L6</f>
         <v>-318.90863636363605</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="3">
         <f>J6*D6</f>
         <v>-165.21090909090884</v>
       </c>
-      <c r="T6" s="1">
-        <f t="shared" ref="T6:T8" si="5">D6*K6</f>
+      <c r="T6" s="47">
+        <f t="shared" ref="T6:T11" si="5">D6*K6</f>
         <v>-234.52363636363603</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="1">
+      <c r="B7" s="46">
         <v>0.11809045226130643</v>
       </c>
       <c r="C7" s="54">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="47">
         <f t="shared" si="0"/>
         <v>0.47474747474747436</v>
       </c>
@@ -36666,7 +43850,7 @@
       <c r="K7" s="117">
         <v>-56.088000000000001</v>
       </c>
-      <c r="L7" s="122">
+      <c r="L7" s="117">
         <v>-292.76</v>
       </c>
       <c r="M7" s="46">
@@ -36677,15 +43861,15 @@
         <f>(G7*(B7/C7)) +H7</f>
         <v>-344.22717171717176</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="3">
         <f t="shared" si="2"/>
         <v>-55.725858585858539</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="47">
         <f t="shared" si="3"/>
         <v>63.30282828282823</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="3">
         <f t="shared" si="4"/>
         <v>1.4964848484848901</v>
       </c>
@@ -36693,82 +43877,291 @@
         <f>K7*(B7/C7) +L7</f>
         <v>-319.38763636363632</v>
       </c>
-      <c r="S7" s="47">
+      <c r="S7" s="3">
         <f>J7*D7</f>
         <v>-55.431515151515107</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="47">
         <f t="shared" si="5"/>
         <v>-26.627636363636341</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="151">
+      <c r="B8" s="48">
         <v>0.17587939698492464</v>
       </c>
       <c r="C8" s="57">
         <v>0.24874371859296482</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="50">
         <f t="shared" si="0"/>
         <v>0.70707070707070718</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <v>43.637</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="3">
         <v>-60.151000000000003</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="3">
         <v>-115.13</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="47">
         <v>-273.89</v>
       </c>
-      <c r="I8" s="125">
+      <c r="I8" s="121">
         <v>22.745000000000001</v>
       </c>
-      <c r="J8" s="126">
+      <c r="J8" s="117">
         <v>-30.702000000000002</v>
       </c>
-      <c r="K8" s="126">
+      <c r="K8" s="117">
         <v>60.2</v>
       </c>
-      <c r="L8" s="142">
+      <c r="L8" s="117">
         <v>-363.76</v>
       </c>
       <c r="M8" s="46">
         <f t="shared" si="1"/>
         <v>1.1059898989898898</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="3">
         <f>(G8*(B8/C8)) +H8</f>
         <v>-355.29505050505048</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="3">
         <f t="shared" si="2"/>
         <v>-42.531010101010111</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="47">
         <f t="shared" si="3"/>
         <v>-81.405050505050511</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="3">
         <f t="shared" si="4"/>
         <v>1.0365151515151467</v>
       </c>
-      <c r="R8" s="49">
+      <c r="R8" s="3">
         <f>K8*(B8/C8) +L8</f>
         <v>-321.19434343434341</v>
       </c>
-      <c r="S8" s="50">
+      <c r="S8" s="3">
         <f>J8*D8</f>
         <v>-21.708484848484854</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="47">
         <f t="shared" si="5"/>
         <v>42.565656565656575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="43">
+        <v>0</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0.22448979591836743</v>
+      </c>
+      <c r="D9" s="45">
+        <f>B9/C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="143">
+        <v>1.7307999999999999</v>
+      </c>
+      <c r="F9" s="144">
+        <v>-1312.2</v>
+      </c>
+      <c r="G9" s="144">
+        <v>3.8919000000000001</v>
+      </c>
+      <c r="H9" s="144">
+        <v>-120.17</v>
+      </c>
+      <c r="I9" s="44">
+        <v>1.6816</v>
+      </c>
+      <c r="J9" s="44">
+        <v>685.2</v>
+      </c>
+      <c r="K9" s="44">
+        <v>81.186000000000007</v>
+      </c>
+      <c r="L9" s="44">
+        <v>-117.83</v>
+      </c>
+      <c r="M9" s="43">
+        <f>E9+F9*D9</f>
+        <v>1.7307999999999999</v>
+      </c>
+      <c r="N9" s="44">
+        <f>(G9*(B9/C9)) +H9</f>
+        <v>-120.17</v>
+      </c>
+      <c r="O9" s="44">
+        <f>F9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="45">
+        <f>G9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="44">
+        <f>I9+J9*D9</f>
+        <v>1.6816</v>
+      </c>
+      <c r="R9" s="44">
+        <f>K9*(B9/C9) +L9</f>
+        <v>-117.83</v>
+      </c>
+      <c r="S9" s="44">
+        <f>J9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="45">
+        <f>D9*K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46">
+        <v>0.13265306122448986</v>
+      </c>
+      <c r="C10" s="47">
+        <v>0.22448979591836743</v>
+      </c>
+      <c r="D10" s="47">
+        <f t="shared" ref="D10:D11" si="6">B10/C10</f>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="E10" s="145">
+        <v>204.76</v>
+      </c>
+      <c r="F10" s="146">
+        <v>-345.08</v>
+      </c>
+      <c r="G10" s="146">
+        <v>-905.5</v>
+      </c>
+      <c r="H10" s="146">
+        <v>280.07</v>
+      </c>
+      <c r="I10" s="3">
+        <v>39.610999999999997</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-65.643000000000001</v>
+      </c>
+      <c r="K10" s="3">
+        <v>143.68</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-321</v>
+      </c>
+      <c r="M10" s="46">
+        <f t="shared" ref="M10:M11" si="7">E10+F10*D10</f>
+        <v>0.84909090909090423</v>
+      </c>
+      <c r="N10" s="3">
+        <f>(G10*(B10/C10)) +H10</f>
+        <v>-254.99818181818188</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" ref="O10:O11" si="8">F10*D10</f>
+        <v>-203.91090909090909</v>
+      </c>
+      <c r="P10" s="47">
+        <f t="shared" ref="P10:P11" si="9">G10*D10</f>
+        <v>-535.06818181818187</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" ref="Q10:Q11" si="10">I10+J10*D10</f>
+        <v>0.82195454545453828</v>
+      </c>
+      <c r="R10" s="3">
+        <f>K10*(B10/C10) +L10</f>
+        <v>-236.09818181818181</v>
+      </c>
+      <c r="S10" s="3">
+        <f>J10*D10</f>
+        <v>-38.789045454545459</v>
+      </c>
+      <c r="T10" s="47">
+        <f t="shared" si="5"/>
+        <v>84.901818181818186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48">
+        <v>0.20408163265306131</v>
+      </c>
+      <c r="C11" s="50">
+        <v>0.22448979591836743</v>
+      </c>
+      <c r="D11" s="50">
+        <f t="shared" si="6"/>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="E11" s="147">
+        <v>23.972000000000001</v>
+      </c>
+      <c r="F11" s="148">
+        <v>-25.783999999999999</v>
+      </c>
+      <c r="G11" s="148">
+        <v>-108.66</v>
+      </c>
+      <c r="H11" s="148">
+        <v>-157.19</v>
+      </c>
+      <c r="I11" s="49">
+        <v>24.861000000000001</v>
+      </c>
+      <c r="J11" s="49">
+        <v>-26.811</v>
+      </c>
+      <c r="K11" s="49">
+        <v>-112.9</v>
+      </c>
+      <c r="L11" s="49">
+        <v>-122.5</v>
+      </c>
+      <c r="M11" s="48">
+        <f t="shared" si="7"/>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="N11" s="49">
+        <f>(G11*(B11/C11)) +H11</f>
+        <v>-255.97181818181818</v>
+      </c>
+      <c r="O11" s="49">
+        <f t="shared" si="8"/>
+        <v>-23.44</v>
+      </c>
+      <c r="P11" s="50">
+        <f t="shared" si="9"/>
+        <v>-98.781818181818181</v>
+      </c>
+      <c r="Q11" s="49">
+        <f t="shared" si="10"/>
+        <v>0.48736363636363578</v>
+      </c>
+      <c r="R11" s="49">
+        <f>K11*(B11/C11) +L11</f>
+        <v>-225.13636363636365</v>
+      </c>
+      <c r="S11" s="49">
+        <f>J11*D11</f>
+        <v>-24.373636363636365</v>
+      </c>
+      <c r="T11" s="50">
+        <f t="shared" si="5"/>
+        <v>-102.63636363636365</v>
       </c>
     </row>
   </sheetData>
